--- a/_analysis/_Results_compilation_training_flow_2024_06.xlsx
+++ b/_analysis/_Results_compilation_training_flow_2024_06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DC549A-A5FD-4A4D-B397-816BDFEC8D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1D272-44F2-4CE7-BF9B-EEB35AFD8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
   </bookViews>
@@ -643,11 +643,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,57 +656,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1656,15 +1606,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4266,15 +4216,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5179,7 +5129,28 @@
     <dataField name="Average of recall" fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="4">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="5">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5187,7 +5158,7 @@
               <x v="1"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="2" count="5">
               <x v="0"/>
@@ -5221,7 +5192,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5229,28 +5200,7 @@
               <x v="1"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="0"/>
               <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="2" count="5">
               <x v="0"/>
@@ -8046,7 +7996,211 @@
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30 F30 H30 J30 L30 N30 P30 R30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -8058,7 +8212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
+  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -8070,7 +8224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
+  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -8082,7 +8236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -8094,7 +8248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -8106,7 +8260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -8118,7 +8272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -8130,7 +8284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -8142,7 +8296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
+  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -8154,7 +8308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
+  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8166,7 +8320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8178,7 +8332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -8190,7 +8344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
+  <conditionalFormatting sqref="F29 D29 H29 J29 L29 N29 P29 R29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -8202,7 +8356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8214,212 +8368,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30 D30 H30 J30 L30 N30 P30 R30">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8680,7 +8630,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="str">
+      <c r="B5" s="55" t="str">
         <f>IF(Aug_overview_classifier!B5=0,"",Aug_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -9408,14 +9358,14 @@
         <f>IF(Aug_overview_classifier!S13=0,"",Aug_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="54">
         <f>AVERAGE(U5:V12)</f>
         <v>9.931847414804941E-3</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="54" t="str">
+      <c r="B14" s="55" t="str">
         <f>IF(Aug_overview_classifier!B14=0,"",Aug_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -10143,14 +10093,14 @@
         <f>IF(Aug_overview_classifier!S22=0,"",Aug_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="54">
         <f>AVERAGE(U14:V21)</f>
         <v>5.9056245465618183E-2</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="54"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="54" t="str">
+      <c r="B23" s="55" t="str">
         <f>IF(Aug_overview_classifier!B23=0,"",Aug_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -10878,14 +10828,14 @@
         <f>IF(Aug_overview_classifier!S31=0,"",Aug_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="55">
+      <c r="U31" s="54">
         <f>AVERAGE(U23:V30)</f>
         <v>-1.4491331682895237E-2</v>
       </c>
-      <c r="V31" s="55"/>
+      <c r="V31" s="54"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="str">
+      <c r="B32" s="55" t="str">
         <f>IF(Aug_overview_classifier!B32=0,"",Aug_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -11541,24 +11491,24 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="U40" s="55">
+      <c r="U40" s="54">
         <f>AVERAGE(U32:V39)</f>
         <v>-1.0395255911366967E-2</v>
       </c>
-      <c r="V40" s="55"/>
+      <c r="V40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B23:B30"/>
     <mergeCell ref="U31:V31"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U40:V40"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:S2"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B23:B30"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12 F5:F12 H5:H12 L5:L12 J5:J12 N5:N12 P5:P12 R5:R12">
     <cfRule type="colorScale" priority="7">
@@ -11609,12 +11559,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:V12 U14:V21 U23:V30">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32:V39">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14077,8 +14027,8 @@
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B23:B30"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14089,8 +14039,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14101,8 +14051,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14113,8 +14063,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14125,8 +14075,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14137,8 +14087,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14149,8 +14099,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="27">
+  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14161,8 +14111,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14173,8 +14123,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14185,8 +14135,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14197,8 +14147,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14221,7 +14171,199 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14233,7 +14375,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14245,200 +14387,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14705,7 +14655,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="str">
+      <c r="B5" s="55" t="str">
         <f>IF(Wind_overview_classifier!B5=0,"",Wind_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -15497,19 +15447,19 @@
         <f>IF(Wind_overview_classifier!S13=0,"",Wind_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="54">
         <f>AVERAGE(U5:V12)</f>
         <v>-7.9568010334686051E-2</v>
       </c>
-      <c r="V13" s="55"/>
-      <c r="X13" s="55">
+      <c r="V13" s="54"/>
+      <c r="X13" s="54">
         <f>AVERAGE(X5:Y12)</f>
         <v>-6.9913669799093039E-2</v>
       </c>
-      <c r="Y13" s="55"/>
+      <c r="Y13" s="54"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="54" t="str">
+      <c r="B14" s="55" t="str">
         <f>IF(Wind_overview_classifier!B14=0,"",Wind_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -16301,19 +16251,19 @@
         <f>IF(Wind_overview_classifier!S22=0,"",Wind_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="55">
+      <c r="U22" s="54">
         <f>AVERAGE(U14:V21)</f>
         <v>-5.6429771014280435E-2</v>
       </c>
-      <c r="V22" s="55"/>
-      <c r="X22" s="55">
+      <c r="V22" s="54"/>
+      <c r="X22" s="54">
         <f>AVERAGE(X14:Y21)</f>
         <v>1.4009872496864445E-3</v>
       </c>
-      <c r="Y22" s="55"/>
+      <c r="Y22" s="54"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="54" t="str">
+      <c r="B23" s="55" t="str">
         <f>IF(Wind_overview_classifier!B23=0,"",Wind_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -17105,19 +17055,19 @@
         <f>IF(Wind_overview_classifier!S31=0,"",Wind_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="55">
+      <c r="U31" s="54">
         <f>AVERAGE(U23:V30)</f>
         <v>-5.8828208236583648E-2</v>
       </c>
-      <c r="V31" s="55"/>
-      <c r="X31" s="55">
+      <c r="V31" s="54"/>
+      <c r="X31" s="54">
         <f>AVERAGE(X23:Y30)</f>
         <v>-7.2315381830499625E-2</v>
       </c>
-      <c r="Y31" s="55"/>
+      <c r="Y31" s="54"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="str">
+      <c r="B32" s="55" t="str">
         <f>IF(Wind_overview_classifier!B32=0,"",Wind_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -17837,16 +17787,16 @@
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="U40" s="55">
+      <c r="U40" s="54">
         <f>AVERAGE(U32:V39)</f>
         <v>-3.7702393529234927E-2</v>
       </c>
-      <c r="V40" s="55"/>
-      <c r="X40" s="55">
+      <c r="V40" s="54"/>
+      <c r="X40" s="54">
         <f>AVERAGE(X32:Y39)</f>
         <v>-4.8202925208779057E-2</v>
       </c>
-      <c r="Y40" s="55"/>
+      <c r="Y40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -17916,27 +17866,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:V12 U14:V21 U23:V30">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32:V39">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5:Y12">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14:Y21">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:Y30">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32:V39">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_analysis/_Results_compilation_training_flow_2024_06.xlsx
+++ b/_analysis/_Results_compilation_training_flow_2024_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1D272-44F2-4CE7-BF9B-EEB35AFD8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344D8EB-CA84-419E-B0C5-DCF36AEC8CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug_overview_classifier" sheetId="1" r:id="rId1"/>
@@ -2077,402 +2077,402 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>0.7972973392603091</v>
+            <v>0.79685606289928201</v>
           </cell>
           <cell r="D5">
-            <v>2.9799917499319852E-2</v>
+            <v>2.5556637756796532E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.79570142875971961</v>
+            <v>0.79937107128104834</v>
           </cell>
           <cell r="F5">
-            <v>3.2927790182258901E-2</v>
+            <v>2.3126940609332992E-2</v>
           </cell>
           <cell r="G5">
-            <v>0.77779596909280413</v>
+            <v>0.7726587345689524</v>
           </cell>
           <cell r="H5">
-            <v>4.3843438436441631E-2</v>
+            <v>4.4407742565039147E-2</v>
           </cell>
           <cell r="I5">
-            <v>0.76575044193742869</v>
+            <v>0.75605659842739636</v>
           </cell>
           <cell r="J5">
-            <v>5.1004458425257179E-2</v>
+            <v>5.2700934650067567E-2</v>
           </cell>
           <cell r="K5">
-            <v>0.80230526814991487</v>
+            <v>0.79940995624732925</v>
           </cell>
           <cell r="L5">
-            <v>3.2277797832933282E-2</v>
+            <v>2.6323808738197309E-2</v>
           </cell>
           <cell r="M5">
-            <v>0.80284916308191379</v>
+            <v>0.79958658776028846</v>
           </cell>
           <cell r="N5">
-            <v>3.0843059291163186E-2</v>
+            <v>2.2871964456698795E-2</v>
           </cell>
           <cell r="O5">
-            <v>0.77979950297539458</v>
+            <v>0.78051388570373148</v>
           </cell>
           <cell r="P5">
-            <v>5.5218356066292371E-2</v>
+            <v>4.9255805384880232E-2</v>
           </cell>
           <cell r="Q5">
-            <v>0.7810447272677028</v>
+            <v>0.76506724978164575</v>
           </cell>
           <cell r="R5">
-            <v>5.2331750312172395E-2</v>
+            <v>5.2680761025622622E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.48196657163098883</v>
+            <v>0.49657025095158253</v>
           </cell>
           <cell r="D6">
-            <v>4.2724417589569942E-2</v>
+            <v>3.4761144756903888E-2</v>
           </cell>
           <cell r="E6">
-            <v>0.48196657163098883</v>
+            <v>0.5071873283646201</v>
           </cell>
           <cell r="F6">
-            <v>4.2724417589569942E-2</v>
+            <v>3.1995627708423201E-2</v>
           </cell>
           <cell r="G6">
-            <v>0.54528298875660608</v>
+            <v>0.55052400026466131</v>
           </cell>
           <cell r="H6">
-            <v>4.8060034448072143E-2</v>
+            <v>4.416229282659357E-2</v>
           </cell>
           <cell r="I6">
-            <v>0.4217335957075169</v>
+            <v>0.44353041192893611</v>
           </cell>
           <cell r="J6">
-            <v>4.0239071061978299E-2</v>
+            <v>3.7646593296082193E-2</v>
           </cell>
           <cell r="K6">
-            <v>0.51655918028000758</v>
+            <v>0.53842105859090061</v>
           </cell>
           <cell r="L6">
-            <v>4.2566272557926096E-2</v>
+            <v>3.777597912782097E-2</v>
           </cell>
           <cell r="M6">
-            <v>0.51655918028000758</v>
+            <v>0.54254192792734401</v>
           </cell>
           <cell r="N6">
-            <v>4.2566272557926096E-2</v>
+            <v>3.7369696113270963E-2</v>
           </cell>
           <cell r="O6">
-            <v>0.54254117333994478</v>
+            <v>0.54547530657750487</v>
           </cell>
           <cell r="P6">
-            <v>5.7783405005490653E-2</v>
+            <v>4.1623443174462767E-2</v>
           </cell>
           <cell r="Q6">
-            <v>0.43998350335960368</v>
+            <v>0.45285239284799922</v>
           </cell>
           <cell r="R6">
-            <v>5.421416187773901E-2</v>
+            <v>4.8661670511817759E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.70835647933888224</v>
+            <v>0.70422281505660389</v>
           </cell>
           <cell r="D7">
-            <v>5.6384196144537838E-2</v>
+            <v>4.6226281274783031E-2</v>
           </cell>
           <cell r="E7">
-            <v>0.70661160534295786</v>
+            <v>0.70601388949456167</v>
           </cell>
           <cell r="F7">
-            <v>5.2812149679155505E-2</v>
+            <v>4.1794659610647905E-2</v>
           </cell>
           <cell r="G7">
-            <v>0.69749913126031071</v>
+            <v>0.69996377336455218</v>
           </cell>
           <cell r="H7">
-            <v>5.6327248608898803E-2</v>
+            <v>4.8015522087302753E-2</v>
           </cell>
           <cell r="I7">
-            <v>0.69680989336428267</v>
+            <v>0.69755741859185594</v>
           </cell>
           <cell r="J7">
-            <v>5.7403524616080184E-2</v>
+            <v>4.8239878921871045E-2</v>
           </cell>
           <cell r="K7">
-            <v>0.71503138916582398</v>
+            <v>0.70783875003277841</v>
           </cell>
           <cell r="L7">
-            <v>5.3233424012932011E-2</v>
+            <v>4.6703021263373848E-2</v>
           </cell>
           <cell r="M7">
-            <v>0.69417022737274847</v>
+            <v>0.69757671303668334</v>
           </cell>
           <cell r="N7">
-            <v>5.4397783913250293E-2</v>
+            <v>3.8847907680094579E-2</v>
           </cell>
           <cell r="O7">
-            <v>0.6969102721891407</v>
+            <v>0.69771501587037665</v>
           </cell>
           <cell r="P7">
-            <v>5.7702162511957478E-2</v>
+            <v>5.1572966943268655E-2</v>
           </cell>
           <cell r="Q7">
-            <v>0.68671476082410443</v>
+            <v>0.684729748874636</v>
           </cell>
           <cell r="R7">
-            <v>5.4207340734806743E-2</v>
+            <v>4.6344311238478736E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.80453799607709553</v>
+            <v>0.81158658581772891</v>
           </cell>
           <cell r="D8">
-            <v>2.8490206680113914E-2</v>
+            <v>2.0759511166039319E-2</v>
           </cell>
           <cell r="E8">
-            <v>0.79959678662626577</v>
+            <v>0.80861671685133651</v>
           </cell>
           <cell r="F8">
-            <v>2.9489766665659032E-2</v>
+            <v>2.4087043295337805E-2</v>
           </cell>
           <cell r="G8">
-            <v>0.80115620546733146</v>
+            <v>0.80873939283903373</v>
           </cell>
           <cell r="H8">
-            <v>2.7926577722895089E-2</v>
+            <v>1.9236774435053481E-2</v>
           </cell>
           <cell r="I8">
-            <v>0.79629022705530206</v>
+            <v>0.80623153255941804</v>
           </cell>
           <cell r="J8">
-            <v>2.9314225100104077E-2</v>
+            <v>2.2856579517092381E-2</v>
           </cell>
           <cell r="K8">
-            <v>0.81657116629165638</v>
+            <v>0.82270843493714207</v>
           </cell>
           <cell r="L8">
-            <v>3.7831455287628504E-2</v>
+            <v>2.7423021442293347E-2</v>
           </cell>
           <cell r="M8">
-            <v>0.8174402222940369</v>
+            <v>0.82205003673487942</v>
           </cell>
           <cell r="N8">
-            <v>2.9484859608944335E-2</v>
+            <v>2.3030600184701659E-2</v>
           </cell>
           <cell r="O8">
-            <v>0.81740867061309852</v>
+            <v>0.82414368359453472</v>
           </cell>
           <cell r="P8">
-            <v>3.7296872285475645E-2</v>
+            <v>2.7156066053010713E-2</v>
           </cell>
           <cell r="Q8">
-            <v>0.81169062916246904</v>
+            <v>0.81842728402011622</v>
           </cell>
           <cell r="R8">
-            <v>2.96497754188964E-2</v>
+            <v>2.4772141992337307E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.81292922128597112</v>
+            <v>0.81814143653174232</v>
           </cell>
           <cell r="D9">
-            <v>2.8557872557761908E-2</v>
+            <v>2.3018366331703916E-2</v>
           </cell>
           <cell r="E9">
-            <v>0.79392966363711737</v>
+            <v>0.79430199948850988</v>
           </cell>
           <cell r="F9">
-            <v>2.6716187750093462E-2</v>
+            <v>2.716653588983135E-2</v>
           </cell>
           <cell r="G9">
-            <v>0.81099967366658343</v>
+            <v>0.81652215154303698</v>
           </cell>
           <cell r="H9">
-            <v>2.8514688114277639E-2</v>
+            <v>2.2179641522565293E-2</v>
           </cell>
           <cell r="I9">
-            <v>0.79502000491363878</v>
+            <v>0.79730460100953204</v>
           </cell>
           <cell r="J9">
-            <v>2.7012535108776787E-2</v>
+            <v>2.906541205229328E-2</v>
           </cell>
           <cell r="K9">
-            <v>0.82447094056786374</v>
+            <v>0.83140906495028677</v>
           </cell>
           <cell r="L9">
-            <v>2.7431632017958337E-2</v>
+            <v>2.2130613470657798E-2</v>
           </cell>
           <cell r="M9">
-            <v>0.78087953328819959</v>
+            <v>0.78062905250685577</v>
           </cell>
           <cell r="N9">
-            <v>2.6516433476737721E-2</v>
+            <v>2.6858001819047649E-2</v>
           </cell>
           <cell r="O9">
-            <v>0.82534107933470258</v>
+            <v>0.83194681886296939</v>
           </cell>
           <cell r="P9">
-            <v>3.2600408173923109E-2</v>
+            <v>2.2869300764423686E-2</v>
           </cell>
           <cell r="Q9">
-            <v>0.78354134536428721</v>
+            <v>0.78835399486456181</v>
           </cell>
           <cell r="R9">
-            <v>2.7252942703224495E-2</v>
+            <v>2.3219868574884551E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0.7683641959493932</v>
+            <v>0.7817151688113988</v>
           </cell>
           <cell r="D10">
-            <v>4.4711832607749746E-2</v>
+            <v>3.4133250260485568E-2</v>
           </cell>
           <cell r="E10">
-            <v>0.77034779544724286</v>
+            <v>0.78218852362504021</v>
           </cell>
           <cell r="F10">
-            <v>4.4457358474735323E-2</v>
+            <v>3.7720664706480132E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.77889865973726458</v>
+            <v>0.79003340520322451</v>
           </cell>
           <cell r="H10">
-            <v>4.1426514744533634E-2</v>
+            <v>3.2876169332547667E-2</v>
           </cell>
           <cell r="I10">
-            <v>0.76788741319815368</v>
+            <v>0.77746201326634512</v>
           </cell>
           <cell r="J10">
-            <v>4.510405483458E-2</v>
+            <v>3.8454847890093409E-2</v>
           </cell>
           <cell r="K10">
-            <v>0.77804840898569305</v>
+            <v>0.79194204777081301</v>
           </cell>
           <cell r="L10">
-            <v>4.518818495165982E-2</v>
+            <v>3.412596990267687E-2</v>
           </cell>
           <cell r="M10">
-            <v>0.76955250646321161</v>
+            <v>0.78484070659399574</v>
           </cell>
           <cell r="N10">
-            <v>4.4914344875498412E-2</v>
+            <v>3.4903281965666652E-2</v>
           </cell>
           <cell r="O10">
-            <v>0.79046532617449561</v>
+            <v>0.79415519271628165</v>
           </cell>
           <cell r="P10">
-            <v>4.7041701302869963E-2</v>
+            <v>3.8288116319797665E-2</v>
           </cell>
           <cell r="Q10">
-            <v>0.76686166085463814</v>
+            <v>0.78651510830614246</v>
           </cell>
           <cell r="R10">
-            <v>4.356121553995386E-2</v>
+            <v>3.405096917308921E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.82897412409023341</v>
+            <v>0.83787028707659383</v>
           </cell>
           <cell r="D11">
-            <v>4.2736433664886317E-2</v>
+            <v>3.3815601460065667E-2</v>
           </cell>
           <cell r="E11">
-            <v>0.82485750093941079</v>
+            <v>0.82940175695929308</v>
           </cell>
           <cell r="F11">
-            <v>3.2967810235262927E-2</v>
+            <v>3.1683881341725117E-2</v>
           </cell>
           <cell r="G11">
-            <v>0.82087275091355316</v>
+            <v>0.82241997347503892</v>
           </cell>
           <cell r="H11">
-            <v>3.0259664592750531E-2</v>
+            <v>2.9458457972484569E-2</v>
           </cell>
           <cell r="I11">
-            <v>0.8231062972590838</v>
+            <v>0.82629089838515901</v>
           </cell>
           <cell r="J11">
-            <v>3.2385722470175293E-2</v>
+            <v>3.1179044295243472E-2</v>
           </cell>
           <cell r="K11">
-            <v>0.82798850201966423</v>
+            <v>0.8335301278392423</v>
           </cell>
           <cell r="L11">
-            <v>2.7816509226273246E-2</v>
+            <v>2.9141309406820012E-2</v>
           </cell>
           <cell r="M11">
-            <v>0.82433886397986689</v>
+            <v>0.83379198267789079</v>
           </cell>
           <cell r="N11">
-            <v>3.2872041956310508E-2</v>
+            <v>2.6360839310789502E-2</v>
           </cell>
           <cell r="O11">
-            <v>0.82305569476191809</v>
+            <v>0.83324896230420686</v>
           </cell>
           <cell r="P11">
-            <v>2.9121991241057781E-2</v>
+            <v>2.9622113944906232E-2</v>
           </cell>
           <cell r="Q11">
-            <v>0.82062371331169803</v>
+            <v>0.82821608574791372</v>
           </cell>
           <cell r="R11">
-            <v>3.0212403422266807E-2</v>
+            <v>2.9455118821827914E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.82549160089031459</v>
+            <v>0.82530029340908606</v>
           </cell>
           <cell r="D12">
-            <v>3.9265422347612683E-2</v>
+            <v>3.4563329556152662E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.82387697359176837</v>
+            <v>0.83161644973618798</v>
           </cell>
           <cell r="F12">
-            <v>3.6494724901016677E-2</v>
+            <v>3.0703608123118013E-2</v>
           </cell>
           <cell r="G12">
-            <v>0.80630205013882272</v>
+            <v>0.80589075162748569</v>
           </cell>
           <cell r="H12">
-            <v>3.5283848724283015E-2</v>
+            <v>3.8185560677824519E-2</v>
           </cell>
           <cell r="I12">
-            <v>0.80363044351692936</v>
+            <v>0.80636903958372697</v>
           </cell>
           <cell r="J12">
-            <v>3.2767379348069225E-2</v>
+            <v>3.0316454896473052E-2</v>
           </cell>
           <cell r="K12">
-            <v>0.81892704721577125</v>
+            <v>0.82399172391966502</v>
           </cell>
           <cell r="L12">
-            <v>3.0485127006789386E-2</v>
+            <v>2.7192837075568854E-2</v>
           </cell>
           <cell r="M12">
-            <v>0.81604517122281928</v>
+            <v>0.82062838903839685</v>
           </cell>
           <cell r="N12">
-            <v>2.4233727838892705E-2</v>
+            <v>2.164344261174617E-2</v>
           </cell>
           <cell r="O12">
-            <v>0.79265775818049022</v>
+            <v>0.79458794363640417</v>
           </cell>
           <cell r="P12">
-            <v>4.0477131958816248E-2</v>
+            <v>3.2122275357916029E-2</v>
           </cell>
           <cell r="Q12">
-            <v>0.79634865373948471</v>
+            <v>0.79526689533420769</v>
           </cell>
           <cell r="R12">
-            <v>3.1399630202655134E-2</v>
+            <v>3.1003866386594959E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3817,402 +3817,402 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="C5">
-            <v>0.7972973392603091</v>
+            <v>0.79685606289928201</v>
           </cell>
           <cell r="D5">
-            <v>2.9799917499319852E-2</v>
+            <v>2.5556637756796532E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.79570142875971961</v>
+            <v>0.79937107128104834</v>
           </cell>
           <cell r="F5">
-            <v>3.2927790182258901E-2</v>
+            <v>2.3126940609332992E-2</v>
           </cell>
           <cell r="G5">
-            <v>0.77779596909280413</v>
+            <v>0.7726587345689524</v>
           </cell>
           <cell r="H5">
-            <v>4.3843438436441631E-2</v>
+            <v>4.4407742565039147E-2</v>
           </cell>
           <cell r="I5">
-            <v>0.76575044193742869</v>
+            <v>0.75605659842739636</v>
           </cell>
           <cell r="J5">
-            <v>5.1004458425257179E-2</v>
+            <v>5.2700934650067567E-2</v>
           </cell>
           <cell r="K5">
-            <v>0.7557248267530936</v>
+            <v>0.75591343865487037</v>
           </cell>
           <cell r="L5">
-            <v>2.9727073855220359E-2</v>
+            <v>2.7195857811959736E-2</v>
           </cell>
           <cell r="M5">
-            <v>0.7582108472157455</v>
+            <v>0.75727571245226477</v>
           </cell>
           <cell r="N5">
-            <v>3.1247860280847091E-2</v>
+            <v>2.8487254767997346E-2</v>
           </cell>
           <cell r="O5">
-            <v>0.74760922326572321</v>
+            <v>0.74163332161358497</v>
           </cell>
           <cell r="P5">
-            <v>4.8465845374751335E-2</v>
+            <v>4.1173182048756918E-2</v>
           </cell>
           <cell r="Q5">
-            <v>0.74399927722411296</v>
+            <v>0.73115886458317314</v>
           </cell>
           <cell r="R5">
-            <v>4.6324915072879266E-2</v>
+            <v>4.0284146068368658E-2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="C6">
-            <v>0.48196657163098883</v>
+            <v>0.49657025095158253</v>
           </cell>
           <cell r="D6">
-            <v>4.2724417589569942E-2</v>
+            <v>3.4761144756903888E-2</v>
           </cell>
           <cell r="E6">
-            <v>0.48196657163098883</v>
+            <v>0.5071873283646201</v>
           </cell>
           <cell r="F6">
-            <v>4.2724417589569942E-2</v>
+            <v>3.1995627708423201E-2</v>
           </cell>
           <cell r="G6">
-            <v>0.54528298875660608</v>
+            <v>0.55052400026466131</v>
           </cell>
           <cell r="H6">
-            <v>4.8060034448072143E-2</v>
+            <v>4.416229282659357E-2</v>
           </cell>
           <cell r="I6">
-            <v>0.4217335957075169</v>
+            <v>0.44353041192893611</v>
           </cell>
           <cell r="J6">
-            <v>4.0239071061978299E-2</v>
+            <v>3.7646593296082193E-2</v>
           </cell>
           <cell r="K6">
-            <v>0.48957223775483527</v>
+            <v>0.49709711743412849</v>
           </cell>
           <cell r="L6">
-            <v>4.9659687282083718E-2</v>
+            <v>3.9158549815174859E-2</v>
           </cell>
           <cell r="M6">
-            <v>0.48957223775483527</v>
+            <v>0.50882940266648624</v>
           </cell>
           <cell r="N6">
-            <v>4.9659687282083718E-2</v>
+            <v>3.8118445064761128E-2</v>
           </cell>
           <cell r="O6">
-            <v>0.52599261520951346</v>
+            <v>0.50884107441712167</v>
           </cell>
           <cell r="P6">
-            <v>5.1211869512347567E-2</v>
+            <v>4.2386706692464533E-2</v>
           </cell>
           <cell r="Q6">
-            <v>0.43134804197846599</v>
+            <v>0.41202621126853334</v>
           </cell>
           <cell r="R6">
-            <v>4.4088415271054428E-2</v>
+            <v>3.621632839362391E-2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="C7">
-            <v>0.70835647933888224</v>
+            <v>0.70422281505660389</v>
           </cell>
           <cell r="D7">
-            <v>5.6384196144537838E-2</v>
+            <v>4.6226281274783031E-2</v>
           </cell>
           <cell r="E7">
-            <v>0.70661160534295786</v>
+            <v>0.70601388949456167</v>
           </cell>
           <cell r="F7">
-            <v>5.2812149679155505E-2</v>
+            <v>4.1794659610647905E-2</v>
           </cell>
           <cell r="G7">
-            <v>0.69749913126031071</v>
+            <v>0.69996377336455218</v>
           </cell>
           <cell r="H7">
-            <v>5.6327248608898803E-2</v>
+            <v>4.8015522087302753E-2</v>
           </cell>
           <cell r="I7">
-            <v>0.69680989336428267</v>
+            <v>0.69755741859185594</v>
           </cell>
           <cell r="J7">
-            <v>5.7403524616080184E-2</v>
+            <v>4.8239878921871045E-2</v>
           </cell>
           <cell r="K7">
-            <v>0.67136689139939265</v>
+            <v>0.66010191812406149</v>
           </cell>
           <cell r="L7">
-            <v>5.6031930318796844E-2</v>
+            <v>4.2516813008564462E-2</v>
           </cell>
           <cell r="M7">
-            <v>0.66725893722223373</v>
+            <v>0.6632837987518494</v>
           </cell>
           <cell r="N7">
-            <v>6.1580422726649015E-2</v>
+            <v>4.8830134570874331E-2</v>
           </cell>
           <cell r="O7">
-            <v>0.66552147048435162</v>
+            <v>0.65400605857245386</v>
           </cell>
           <cell r="P7">
-            <v>4.9417067243013112E-2</v>
+            <v>3.8746313772648783E-2</v>
           </cell>
           <cell r="Q7">
-            <v>0.65583687641288624</v>
+            <v>0.65051106462213704</v>
           </cell>
           <cell r="R7">
-            <v>6.0124542664523085E-2</v>
+            <v>5.0893245309722293E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>0.80453799607709553</v>
+            <v>0.81158658581772891</v>
           </cell>
           <cell r="D8">
-            <v>2.8490206680113914E-2</v>
+            <v>2.0759511166039319E-2</v>
           </cell>
           <cell r="E8">
-            <v>0.79959678662626577</v>
+            <v>0.80861671685133651</v>
           </cell>
           <cell r="F8">
-            <v>2.9489766665659032E-2</v>
+            <v>2.4087043295337805E-2</v>
           </cell>
           <cell r="G8">
-            <v>0.80115620546733146</v>
+            <v>0.80873939283903373</v>
           </cell>
           <cell r="H8">
-            <v>2.7926577722895089E-2</v>
+            <v>1.9236774435053481E-2</v>
           </cell>
           <cell r="I8">
-            <v>0.79629022705530206</v>
+            <v>0.80623153255941804</v>
           </cell>
           <cell r="J8">
-            <v>2.9314225100104077E-2</v>
+            <v>2.2856579517092381E-2</v>
           </cell>
           <cell r="K8">
-            <v>0.78113103604673972</v>
+            <v>0.78867017206465406</v>
           </cell>
           <cell r="L8">
-            <v>2.2968936578889543E-2</v>
+            <v>1.4924214988202008E-2</v>
           </cell>
           <cell r="M8">
-            <v>0.77260657338769678</v>
+            <v>0.77735890882824321</v>
           </cell>
           <cell r="N8">
-            <v>1.9100541118890688E-2</v>
+            <v>1.5878084514004968E-2</v>
           </cell>
           <cell r="O8">
-            <v>0.77388656639180198</v>
+            <v>0.78200930393144452</v>
           </cell>
           <cell r="P8">
-            <v>2.2455114031678644E-2</v>
+            <v>1.3331314973843031E-2</v>
           </cell>
           <cell r="Q8">
-            <v>0.76712924023464879</v>
+            <v>0.77377392050342519</v>
           </cell>
           <cell r="R8">
-            <v>1.6144021329263392E-2</v>
+            <v>1.3929774849661306E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="C9">
-            <v>0.81292922128597112</v>
+            <v>0.81814143653174232</v>
           </cell>
           <cell r="D9">
-            <v>2.8557872557761908E-2</v>
+            <v>2.3018366331703916E-2</v>
           </cell>
           <cell r="E9">
-            <v>0.79392966363711737</v>
+            <v>0.79430199948850988</v>
           </cell>
           <cell r="F9">
-            <v>2.6716187750093462E-2</v>
+            <v>2.716653588983135E-2</v>
           </cell>
           <cell r="G9">
-            <v>0.81099967366658343</v>
+            <v>0.81652215154303698</v>
           </cell>
           <cell r="H9">
-            <v>2.8514688114277639E-2</v>
+            <v>2.2179641522565293E-2</v>
           </cell>
           <cell r="I9">
-            <v>0.79502000491363878</v>
+            <v>0.79730460100953204</v>
           </cell>
           <cell r="J9">
-            <v>2.7012535108776787E-2</v>
+            <v>2.906541205229328E-2</v>
           </cell>
           <cell r="K9">
-            <v>0.78437401554021213</v>
+            <v>0.7895808585437526</v>
           </cell>
           <cell r="L9">
-            <v>1.9886200650298863E-2</v>
+            <v>1.8200090997685554E-2</v>
           </cell>
           <cell r="M9">
-            <v>0.75526246968084054</v>
+            <v>0.74988423794618375</v>
           </cell>
           <cell r="N9">
-            <v>1.9686557239742809E-2</v>
+            <v>2.693857744063597E-2</v>
           </cell>
           <cell r="O9">
-            <v>0.78273054682813237</v>
+            <v>0.78741011558536511</v>
           </cell>
           <cell r="P9">
-            <v>1.9810556955368187E-2</v>
+            <v>1.6031605331770369E-2</v>
           </cell>
           <cell r="Q9">
-            <v>0.76173999084002963</v>
+            <v>0.75887033695154893</v>
           </cell>
           <cell r="R9">
-            <v>1.6176207331247201E-2</v>
+            <v>1.9587671820538728E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="C10">
-            <v>0.7683641959493932</v>
+            <v>0.7817151688113988</v>
           </cell>
           <cell r="D10">
-            <v>4.4711832607749746E-2</v>
+            <v>3.4133250260485568E-2</v>
           </cell>
           <cell r="E10">
-            <v>0.77034779544724286</v>
+            <v>0.78218852362504021</v>
           </cell>
           <cell r="F10">
-            <v>4.4457358474735323E-2</v>
+            <v>3.7720664706480132E-2</v>
           </cell>
           <cell r="G10">
-            <v>0.77889865973726458</v>
+            <v>0.79003340520322451</v>
           </cell>
           <cell r="H10">
-            <v>4.1426514744533634E-2</v>
+            <v>3.2876169332547667E-2</v>
           </cell>
           <cell r="I10">
-            <v>0.76788741319815368</v>
+            <v>0.77746201326634512</v>
           </cell>
           <cell r="J10">
-            <v>4.510405483458E-2</v>
+            <v>3.8454847890093409E-2</v>
           </cell>
           <cell r="K10">
-            <v>0.74136424025663727</v>
+            <v>0.75571543231793448</v>
           </cell>
           <cell r="L10">
-            <v>4.2058824085741506E-2</v>
+            <v>3.2225763804561137E-2</v>
           </cell>
           <cell r="M10">
-            <v>0.74063886554690017</v>
+            <v>0.75530621817011356</v>
           </cell>
           <cell r="N10">
-            <v>3.6798951598203018E-2</v>
+            <v>2.9714421947440325E-2</v>
           </cell>
           <cell r="O10">
-            <v>0.75306800677409635</v>
+            <v>0.7656814022193752</v>
           </cell>
           <cell r="P10">
-            <v>3.356066209991504E-2</v>
+            <v>2.5542008266531198E-2</v>
           </cell>
           <cell r="Q10">
-            <v>0.73409260132094223</v>
+            <v>0.74493097921128448</v>
           </cell>
           <cell r="R10">
-            <v>3.4209989082940089E-2</v>
+            <v>2.7874808831604404E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>0.82897412409023341</v>
+            <v>0.83787028707659383</v>
           </cell>
           <cell r="D11">
-            <v>4.2736433664886317E-2</v>
+            <v>3.3815601460065667E-2</v>
           </cell>
           <cell r="E11">
-            <v>0.82485750093941079</v>
+            <v>0.82940175695929308</v>
           </cell>
           <cell r="F11">
-            <v>3.2967810235262927E-2</v>
+            <v>3.1683881341725117E-2</v>
           </cell>
           <cell r="G11">
-            <v>0.82087275091355316</v>
+            <v>0.82241997347503892</v>
           </cell>
           <cell r="H11">
-            <v>3.0259664592750531E-2</v>
+            <v>2.9458457972484569E-2</v>
           </cell>
           <cell r="I11">
-            <v>0.8231062972590838</v>
+            <v>0.82629089838515901</v>
           </cell>
           <cell r="J11">
-            <v>3.2385722470175293E-2</v>
+            <v>3.1179044295243472E-2</v>
           </cell>
           <cell r="K11">
-            <v>0.7883406972830419</v>
+            <v>0.77929670054936206</v>
           </cell>
           <cell r="L11">
-            <v>2.9857760862252333E-2</v>
+            <v>3.2923659184004826E-2</v>
           </cell>
           <cell r="M11">
-            <v>0.7842064412493881</v>
+            <v>0.77255069058579928</v>
           </cell>
           <cell r="N11">
-            <v>3.2836719530063022E-2</v>
+            <v>2.6872443820207505E-2</v>
           </cell>
           <cell r="O11">
-            <v>0.78256005684226471</v>
+            <v>0.77221474486239505</v>
           </cell>
           <cell r="P11">
-            <v>2.5292804700386348E-2</v>
+            <v>1.9176426283640146E-2</v>
           </cell>
           <cell r="Q11">
-            <v>0.77960812680400204</v>
+            <v>0.76649103972010768</v>
           </cell>
           <cell r="R11">
-            <v>3.1569943516940611E-2</v>
+            <v>2.6347147377501812E-2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>0.82549160089031459</v>
+            <v>0.82530029340908606</v>
           </cell>
           <cell r="D12">
-            <v>3.9265422347612683E-2</v>
+            <v>3.4563329556152662E-2</v>
           </cell>
           <cell r="E12">
-            <v>0.82387697359176837</v>
+            <v>0.83161644973618798</v>
           </cell>
           <cell r="F12">
-            <v>3.6494724901016677E-2</v>
+            <v>3.0703608123118013E-2</v>
           </cell>
           <cell r="G12">
-            <v>0.80630205013882272</v>
+            <v>0.80589075162748569</v>
           </cell>
           <cell r="H12">
-            <v>3.5283848724283015E-2</v>
+            <v>3.8185560677824519E-2</v>
           </cell>
           <cell r="I12">
-            <v>0.80363044351692936</v>
+            <v>0.80636903958372697</v>
           </cell>
           <cell r="J12">
-            <v>3.2767379348069225E-2</v>
+            <v>3.0316454896473052E-2</v>
           </cell>
           <cell r="K12">
-            <v>0.77903890059475533</v>
+            <v>0.76692274346493328</v>
           </cell>
           <cell r="L12">
-            <v>3.752082182218807E-2</v>
+            <v>3.7374373477335611E-2</v>
           </cell>
           <cell r="M12">
-            <v>0.78047937427952208</v>
+            <v>0.78113204562593841</v>
           </cell>
           <cell r="N12">
-            <v>2.8256014697105956E-2</v>
+            <v>2.8033635560981509E-2</v>
           </cell>
           <cell r="O12">
-            <v>0.75646478953879492</v>
+            <v>0.74809049518117843</v>
           </cell>
           <cell r="P12">
-            <v>3.2824605321873292E-2</v>
+            <v>2.6734458248211749E-2</v>
           </cell>
           <cell r="Q12">
-            <v>0.76056428007477661</v>
+            <v>0.75281219879949024</v>
           </cell>
           <cell r="R12">
-            <v>3.0912759087555291E-2</v>
+            <v>3.6357339203140632E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -5129,7 +5129,28 @@
     <dataField name="Average of recall" fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="4">
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="5">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5137,7 +5158,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="2" count="5">
               <x v="0"/>
@@ -5171,7 +5192,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -5179,28 +5200,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="5">
               <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
             </reference>
             <reference field="2" count="5">
               <x v="0"/>
@@ -5525,23 +5525,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C84E9B-02A8-4A6E-9A9C-4104E745268F}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
@@ -5581,7 +5581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
@@ -5679,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>2.7099354235848503E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -5821,7 +5821,7 @@
         <v>8.0719421454814852E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -5891,7 +5891,7 @@
         <v>5.7008771254956896E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -5961,7 +5961,7 @@
         <v>5.659615711335883E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -6031,7 +6031,7 @@
         <v>7.725768570181224E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -6101,7 +6101,7 @@
         <v>4.5586456322026181E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -6171,7 +6171,7 @@
         <v>4.183300132670377E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="50"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -6241,7 +6241,7 @@
         <v>4.6770717334674264E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -6261,7 +6261,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>5.3575837561071885E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -6403,7 +6403,7 @@
         <v>9.6225044864939862E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -6473,7 +6473,7 @@
         <v>2.5458753860865761E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -6543,7 +6543,7 @@
         <v>6.3098981620002811E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="49"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -6613,7 +6613,7 @@
         <v>1.9245008972987331E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="49"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -6683,7 +6683,7 @@
         <v>5.3575837561072148E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="49"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -6753,7 +6753,7 @@
         <v>3.4694433324435663E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="50"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -6823,7 +6823,7 @@
         <v>1.6666666666666496E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -6843,7 +6843,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
         <v>8</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>4.4362319217983379E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -6985,7 +6985,7 @@
         <v>5.0363616429460974E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -7055,7 +7055,7 @@
         <v>6.1554295024420218E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="49"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
@@ -7125,7 +7125,7 @@
         <v>2.962107369301108E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="49"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
@@ -7195,7 +7195,7 @@
         <v>3.1220495989087861E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -7265,7 +7265,7 @@
         <v>3.5253353024031292E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -7335,7 +7335,7 @@
         <v>4.1853247574758473E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="50"/>
       <c r="C30" s="6" t="s">
         <v>20</v>
@@ -7405,7 +7405,7 @@
         <v>4.2097691385037841E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -7425,7 +7425,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
         <v>23</v>
       </c>
@@ -7434,557 +7434,557 @@
       </c>
       <c r="D32" s="3">
         <f>[4]Comparison!C5</f>
-        <v>0.7972973392603091</v>
+        <v>0.79685606289928201</v>
       </c>
       <c r="E32" s="8">
         <f>[4]Comparison!D5</f>
-        <v>2.9799917499319852E-2</v>
+        <v>2.5556637756796532E-2</v>
       </c>
       <c r="F32" s="3">
         <f>[4]Comparison!E5</f>
-        <v>0.79570142875971961</v>
+        <v>0.79937107128104834</v>
       </c>
       <c r="G32" s="8">
         <f>[4]Comparison!F5</f>
-        <v>3.2927790182258901E-2</v>
+        <v>2.3126940609332992E-2</v>
       </c>
       <c r="H32" s="3">
         <f>[4]Comparison!G5</f>
-        <v>0.77779596909280413</v>
+        <v>0.7726587345689524</v>
       </c>
       <c r="I32" s="8">
         <f>[4]Comparison!H5</f>
-        <v>4.3843438436441631E-2</v>
+        <v>4.4407742565039147E-2</v>
       </c>
       <c r="J32" s="3">
         <f>[4]Comparison!I5</f>
-        <v>0.76575044193742869</v>
+        <v>0.75605659842739636</v>
       </c>
       <c r="K32" s="13">
         <f>[4]Comparison!J5</f>
-        <v>5.1004458425257179E-2</v>
+        <v>5.2700934650067567E-2</v>
       </c>
       <c r="L32" s="17">
         <f>[4]Comparison!K5</f>
-        <v>0.80230526814991487</v>
+        <v>0.79940995624732925</v>
       </c>
       <c r="M32" s="8">
         <f>[4]Comparison!L5</f>
-        <v>3.2277797832933282E-2</v>
+        <v>2.6323808738197309E-2</v>
       </c>
       <c r="N32" s="3">
         <f>[4]Comparison!M5</f>
-        <v>0.80284916308191379</v>
+        <v>0.79958658776028846</v>
       </c>
       <c r="O32" s="8">
         <f>[4]Comparison!N5</f>
-        <v>3.0843059291163186E-2</v>
+        <v>2.2871964456698795E-2</v>
       </c>
       <c r="P32" s="3">
         <f>[4]Comparison!O5</f>
-        <v>0.77979950297539458</v>
+        <v>0.78051388570373148</v>
       </c>
       <c r="Q32" s="8">
         <f>[4]Comparison!P5</f>
-        <v>5.5218356066292371E-2</v>
+        <v>4.9255805384880232E-2</v>
       </c>
       <c r="R32" s="3">
         <f>[4]Comparison!Q5</f>
-        <v>0.7810447272677028</v>
+        <v>0.76506724978164575</v>
       </c>
       <c r="S32" s="13">
         <f>[4]Comparison!R5</f>
-        <v>5.2331750312172395E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+        <v>5.2680761025622622E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="49"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="5">
         <f>[4]Comparison!C6</f>
-        <v>0.48196657163098883</v>
+        <v>0.49657025095158253</v>
       </c>
       <c r="E33" s="9">
         <f>[4]Comparison!D6</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.4761144756903888E-2</v>
       </c>
       <c r="F33" s="5">
         <f>[4]Comparison!E6</f>
-        <v>0.48196657163098883</v>
+        <v>0.5071873283646201</v>
       </c>
       <c r="G33" s="9">
         <f>[4]Comparison!F6</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.1995627708423201E-2</v>
       </c>
       <c r="H33" s="5">
         <f>[4]Comparison!G6</f>
-        <v>0.54528298875660608</v>
+        <v>0.55052400026466131</v>
       </c>
       <c r="I33" s="9">
         <f>[4]Comparison!H6</f>
-        <v>4.8060034448072143E-2</v>
+        <v>4.416229282659357E-2</v>
       </c>
       <c r="J33" s="5">
         <f>[4]Comparison!I6</f>
-        <v>0.4217335957075169</v>
+        <v>0.44353041192893611</v>
       </c>
       <c r="K33" s="14">
         <f>[4]Comparison!J6</f>
-        <v>4.0239071061978299E-2</v>
+        <v>3.7646593296082193E-2</v>
       </c>
       <c r="L33" s="18">
         <f>[4]Comparison!K6</f>
-        <v>0.51655918028000758</v>
+        <v>0.53842105859090061</v>
       </c>
       <c r="M33" s="9">
         <f>[4]Comparison!L6</f>
-        <v>4.2566272557926096E-2</v>
+        <v>3.777597912782097E-2</v>
       </c>
       <c r="N33" s="5">
         <f>[4]Comparison!M6</f>
-        <v>0.51655918028000758</v>
+        <v>0.54254192792734401</v>
       </c>
       <c r="O33" s="9">
         <f>[4]Comparison!N6</f>
-        <v>4.2566272557926096E-2</v>
+        <v>3.7369696113270963E-2</v>
       </c>
       <c r="P33" s="5">
         <f>[4]Comparison!O6</f>
-        <v>0.54254117333994478</v>
+        <v>0.54547530657750487</v>
       </c>
       <c r="Q33" s="9">
         <f>[4]Comparison!P6</f>
-        <v>5.7783405005490653E-2</v>
+        <v>4.1623443174462767E-2</v>
       </c>
       <c r="R33" s="5">
         <f>[4]Comparison!Q6</f>
-        <v>0.43998350335960368</v>
+        <v>0.45285239284799922</v>
       </c>
       <c r="S33" s="14">
         <f>[4]Comparison!R6</f>
-        <v>5.421416187773901E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+        <v>4.8661670511817759E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="5">
         <f>[4]Comparison!C7</f>
-        <v>0.70835647933888224</v>
+        <v>0.70422281505660389</v>
       </c>
       <c r="E34" s="9">
         <f>[4]Comparison!D7</f>
-        <v>5.6384196144537838E-2</v>
+        <v>4.6226281274783031E-2</v>
       </c>
       <c r="F34" s="5">
         <f>[4]Comparison!E7</f>
-        <v>0.70661160534295786</v>
+        <v>0.70601388949456167</v>
       </c>
       <c r="G34" s="9">
         <f>[4]Comparison!F7</f>
-        <v>5.2812149679155505E-2</v>
+        <v>4.1794659610647905E-2</v>
       </c>
       <c r="H34" s="5">
         <f>[4]Comparison!G7</f>
-        <v>0.69749913126031071</v>
+        <v>0.69996377336455218</v>
       </c>
       <c r="I34" s="9">
         <f>[4]Comparison!H7</f>
-        <v>5.6327248608898803E-2</v>
+        <v>4.8015522087302753E-2</v>
       </c>
       <c r="J34" s="5">
         <f>[4]Comparison!I7</f>
-        <v>0.69680989336428267</v>
+        <v>0.69755741859185594</v>
       </c>
       <c r="K34" s="14">
         <f>[4]Comparison!J7</f>
-        <v>5.7403524616080184E-2</v>
+        <v>4.8239878921871045E-2</v>
       </c>
       <c r="L34" s="18">
         <f>[4]Comparison!K7</f>
-        <v>0.71503138916582398</v>
+        <v>0.70783875003277841</v>
       </c>
       <c r="M34" s="9">
         <f>[4]Comparison!L7</f>
-        <v>5.3233424012932011E-2</v>
+        <v>4.6703021263373848E-2</v>
       </c>
       <c r="N34" s="5">
         <f>[4]Comparison!M7</f>
-        <v>0.69417022737274847</v>
+        <v>0.69757671303668334</v>
       </c>
       <c r="O34" s="9">
         <f>[4]Comparison!N7</f>
-        <v>5.4397783913250293E-2</v>
+        <v>3.8847907680094579E-2</v>
       </c>
       <c r="P34" s="5">
         <f>[4]Comparison!O7</f>
-        <v>0.6969102721891407</v>
+        <v>0.69771501587037665</v>
       </c>
       <c r="Q34" s="9">
         <f>[4]Comparison!P7</f>
-        <v>5.7702162511957478E-2</v>
+        <v>5.1572966943268655E-2</v>
       </c>
       <c r="R34" s="5">
         <f>[4]Comparison!Q7</f>
-        <v>0.68671476082410443</v>
+        <v>0.684729748874636</v>
       </c>
       <c r="S34" s="14">
         <f>[4]Comparison!R7</f>
-        <v>5.4207340734806743E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+        <v>4.6344311238478736E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="49"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="5">
         <f>[4]Comparison!C8</f>
-        <v>0.80453799607709553</v>
+        <v>0.81158658581772891</v>
       </c>
       <c r="E35" s="9">
         <f>[4]Comparison!D8</f>
-        <v>2.8490206680113914E-2</v>
+        <v>2.0759511166039319E-2</v>
       </c>
       <c r="F35" s="5">
         <f>[4]Comparison!E8</f>
-        <v>0.79959678662626577</v>
+        <v>0.80861671685133651</v>
       </c>
       <c r="G35" s="9">
         <f>[4]Comparison!F8</f>
-        <v>2.9489766665659032E-2</v>
+        <v>2.4087043295337805E-2</v>
       </c>
       <c r="H35" s="5">
         <f>[4]Comparison!G8</f>
-        <v>0.80115620546733146</v>
+        <v>0.80873939283903373</v>
       </c>
       <c r="I35" s="9">
         <f>[4]Comparison!H8</f>
-        <v>2.7926577722895089E-2</v>
+        <v>1.9236774435053481E-2</v>
       </c>
       <c r="J35" s="5">
         <f>[4]Comparison!I8</f>
-        <v>0.79629022705530206</v>
+        <v>0.80623153255941804</v>
       </c>
       <c r="K35" s="14">
         <f>[4]Comparison!J8</f>
-        <v>2.9314225100104077E-2</v>
+        <v>2.2856579517092381E-2</v>
       </c>
       <c r="L35" s="18">
         <f>[4]Comparison!K8</f>
-        <v>0.81657116629165638</v>
+        <v>0.82270843493714207</v>
       </c>
       <c r="M35" s="9">
         <f>[4]Comparison!L8</f>
-        <v>3.7831455287628504E-2</v>
+        <v>2.7423021442293347E-2</v>
       </c>
       <c r="N35" s="5">
         <f>[4]Comparison!M8</f>
-        <v>0.8174402222940369</v>
+        <v>0.82205003673487942</v>
       </c>
       <c r="O35" s="9">
         <f>[4]Comparison!N8</f>
-        <v>2.9484859608944335E-2</v>
+        <v>2.3030600184701659E-2</v>
       </c>
       <c r="P35" s="5">
         <f>[4]Comparison!O8</f>
-        <v>0.81740867061309852</v>
+        <v>0.82414368359453472</v>
       </c>
       <c r="Q35" s="9">
         <f>[4]Comparison!P8</f>
-        <v>3.7296872285475645E-2</v>
+        <v>2.7156066053010713E-2</v>
       </c>
       <c r="R35" s="5">
         <f>[4]Comparison!Q8</f>
-        <v>0.81169062916246904</v>
+        <v>0.81842728402011622</v>
       </c>
       <c r="S35" s="14">
         <f>[4]Comparison!R8</f>
-        <v>2.96497754188964E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.4772141992337307E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="49"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5">
         <f>[4]Comparison!C9</f>
-        <v>0.81292922128597112</v>
+        <v>0.81814143653174232</v>
       </c>
       <c r="E36" s="9">
         <f>[4]Comparison!D9</f>
-        <v>2.8557872557761908E-2</v>
+        <v>2.3018366331703916E-2</v>
       </c>
       <c r="F36" s="5">
         <f>[4]Comparison!E9</f>
-        <v>0.79392966363711737</v>
+        <v>0.79430199948850988</v>
       </c>
       <c r="G36" s="9">
         <f>[4]Comparison!F9</f>
-        <v>2.6716187750093462E-2</v>
+        <v>2.716653588983135E-2</v>
       </c>
       <c r="H36" s="5">
         <f>[4]Comparison!G9</f>
-        <v>0.81099967366658343</v>
+        <v>0.81652215154303698</v>
       </c>
       <c r="I36" s="9">
         <f>[4]Comparison!H9</f>
-        <v>2.8514688114277639E-2</v>
+        <v>2.2179641522565293E-2</v>
       </c>
       <c r="J36" s="5">
         <f>[4]Comparison!I9</f>
-        <v>0.79502000491363878</v>
+        <v>0.79730460100953204</v>
       </c>
       <c r="K36" s="14">
         <f>[4]Comparison!J9</f>
-        <v>2.7012535108776787E-2</v>
+        <v>2.906541205229328E-2</v>
       </c>
       <c r="L36" s="18">
         <f>[4]Comparison!K9</f>
-        <v>0.82447094056786374</v>
+        <v>0.83140906495028677</v>
       </c>
       <c r="M36" s="9">
         <f>[4]Comparison!L9</f>
-        <v>2.7431632017958337E-2</v>
+        <v>2.2130613470657798E-2</v>
       </c>
       <c r="N36" s="5">
         <f>[4]Comparison!M9</f>
-        <v>0.78087953328819959</v>
+        <v>0.78062905250685577</v>
       </c>
       <c r="O36" s="9">
         <f>[4]Comparison!N9</f>
-        <v>2.6516433476737721E-2</v>
+        <v>2.6858001819047649E-2</v>
       </c>
       <c r="P36" s="5">
         <f>[4]Comparison!O9</f>
-        <v>0.82534107933470258</v>
+        <v>0.83194681886296939</v>
       </c>
       <c r="Q36" s="9">
         <f>[4]Comparison!P9</f>
-        <v>3.2600408173923109E-2</v>
+        <v>2.2869300764423686E-2</v>
       </c>
       <c r="R36" s="5">
         <f>[4]Comparison!Q9</f>
-        <v>0.78354134536428721</v>
+        <v>0.78835399486456181</v>
       </c>
       <c r="S36" s="14">
         <f>[4]Comparison!R9</f>
-        <v>2.7252942703224495E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.3219868574884551E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="5">
         <f>[4]Comparison!C10</f>
-        <v>0.7683641959493932</v>
+        <v>0.7817151688113988</v>
       </c>
       <c r="E37" s="9">
         <f>[4]Comparison!D10</f>
-        <v>4.4711832607749746E-2</v>
+        <v>3.4133250260485568E-2</v>
       </c>
       <c r="F37" s="5">
         <f>[4]Comparison!E10</f>
-        <v>0.77034779544724286</v>
+        <v>0.78218852362504021</v>
       </c>
       <c r="G37" s="9">
         <f>[4]Comparison!F10</f>
-        <v>4.4457358474735323E-2</v>
+        <v>3.7720664706480132E-2</v>
       </c>
       <c r="H37" s="5">
         <f>[4]Comparison!G10</f>
-        <v>0.77889865973726458</v>
+        <v>0.79003340520322451</v>
       </c>
       <c r="I37" s="9">
         <f>[4]Comparison!H10</f>
-        <v>4.1426514744533634E-2</v>
+        <v>3.2876169332547667E-2</v>
       </c>
       <c r="J37" s="5">
         <f>[4]Comparison!I10</f>
-        <v>0.76788741319815368</v>
+        <v>0.77746201326634512</v>
       </c>
       <c r="K37" s="14">
         <f>[4]Comparison!J10</f>
-        <v>4.510405483458E-2</v>
+        <v>3.8454847890093409E-2</v>
       </c>
       <c r="L37" s="18">
         <f>[4]Comparison!K10</f>
-        <v>0.77804840898569305</v>
+        <v>0.79194204777081301</v>
       </c>
       <c r="M37" s="9">
         <f>[4]Comparison!L10</f>
-        <v>4.518818495165982E-2</v>
+        <v>3.412596990267687E-2</v>
       </c>
       <c r="N37" s="5">
         <f>[4]Comparison!M10</f>
-        <v>0.76955250646321161</v>
+        <v>0.78484070659399574</v>
       </c>
       <c r="O37" s="9">
         <f>[4]Comparison!N10</f>
-        <v>4.4914344875498412E-2</v>
+        <v>3.4903281965666652E-2</v>
       </c>
       <c r="P37" s="5">
         <f>[4]Comparison!O10</f>
-        <v>0.79046532617449561</v>
+        <v>0.79415519271628165</v>
       </c>
       <c r="Q37" s="9">
         <f>[4]Comparison!P10</f>
-        <v>4.7041701302869963E-2</v>
+        <v>3.8288116319797665E-2</v>
       </c>
       <c r="R37" s="5">
         <f>[4]Comparison!Q10</f>
-        <v>0.76686166085463814</v>
+        <v>0.78651510830614246</v>
       </c>
       <c r="S37" s="14">
         <f>[4]Comparison!R10</f>
-        <v>4.356121553995386E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3.405096917308921E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="49"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="5">
         <f>[4]Comparison!C11</f>
-        <v>0.82897412409023341</v>
+        <v>0.83787028707659383</v>
       </c>
       <c r="E38" s="9">
         <f>[4]Comparison!D11</f>
-        <v>4.2736433664886317E-2</v>
+        <v>3.3815601460065667E-2</v>
       </c>
       <c r="F38" s="5">
         <f>[4]Comparison!E11</f>
-        <v>0.82485750093941079</v>
+        <v>0.82940175695929308</v>
       </c>
       <c r="G38" s="9">
         <f>[4]Comparison!F11</f>
-        <v>3.2967810235262927E-2</v>
+        <v>3.1683881341725117E-2</v>
       </c>
       <c r="H38" s="5">
         <f>[4]Comparison!G11</f>
-        <v>0.82087275091355316</v>
+        <v>0.82241997347503892</v>
       </c>
       <c r="I38" s="9">
         <f>[4]Comparison!H11</f>
-        <v>3.0259664592750531E-2</v>
+        <v>2.9458457972484569E-2</v>
       </c>
       <c r="J38" s="5">
         <f>[4]Comparison!I11</f>
-        <v>0.8231062972590838</v>
+        <v>0.82629089838515901</v>
       </c>
       <c r="K38" s="14">
         <f>[4]Comparison!J11</f>
-        <v>3.2385722470175293E-2</v>
+        <v>3.1179044295243472E-2</v>
       </c>
       <c r="L38" s="18">
         <f>[4]Comparison!K11</f>
-        <v>0.82798850201966423</v>
+        <v>0.8335301278392423</v>
       </c>
       <c r="M38" s="9">
         <f>[4]Comparison!L11</f>
-        <v>2.7816509226273246E-2</v>
+        <v>2.9141309406820012E-2</v>
       </c>
       <c r="N38" s="5">
         <f>[4]Comparison!M11</f>
-        <v>0.82433886397986689</v>
+        <v>0.83379198267789079</v>
       </c>
       <c r="O38" s="9">
         <f>[4]Comparison!N11</f>
-        <v>3.2872041956310508E-2</v>
+        <v>2.6360839310789502E-2</v>
       </c>
       <c r="P38" s="5">
         <f>[4]Comparison!O11</f>
-        <v>0.82305569476191809</v>
+        <v>0.83324896230420686</v>
       </c>
       <c r="Q38" s="9">
         <f>[4]Comparison!P11</f>
-        <v>2.9121991241057781E-2</v>
+        <v>2.9622113944906232E-2</v>
       </c>
       <c r="R38" s="5">
         <f>[4]Comparison!Q11</f>
-        <v>0.82062371331169803</v>
+        <v>0.82821608574791372</v>
       </c>
       <c r="S38" s="14">
         <f>[4]Comparison!R11</f>
-        <v>3.0212403422266807E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.9455118821827914E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="50"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="7">
         <f>[4]Comparison!C12</f>
-        <v>0.82549160089031459</v>
+        <v>0.82530029340908606</v>
       </c>
       <c r="E39" s="10">
         <f>[4]Comparison!D12</f>
-        <v>3.9265422347612683E-2</v>
+        <v>3.4563329556152662E-2</v>
       </c>
       <c r="F39" s="7">
         <f>[4]Comparison!E12</f>
-        <v>0.82387697359176837</v>
+        <v>0.83161644973618798</v>
       </c>
       <c r="G39" s="10">
         <f>[4]Comparison!F12</f>
-        <v>3.6494724901016677E-2</v>
+        <v>3.0703608123118013E-2</v>
       </c>
       <c r="H39" s="7">
         <f>[4]Comparison!G12</f>
-        <v>0.80630205013882272</v>
+        <v>0.80589075162748569</v>
       </c>
       <c r="I39" s="10">
         <f>[4]Comparison!H12</f>
-        <v>3.5283848724283015E-2</v>
+        <v>3.8185560677824519E-2</v>
       </c>
       <c r="J39" s="7">
         <f>[4]Comparison!I12</f>
-        <v>0.80363044351692936</v>
+        <v>0.80636903958372697</v>
       </c>
       <c r="K39" s="15">
         <f>[4]Comparison!J12</f>
-        <v>3.2767379348069225E-2</v>
+        <v>3.0316454896473052E-2</v>
       </c>
       <c r="L39" s="19">
         <f>[4]Comparison!K12</f>
-        <v>0.81892704721577125</v>
+        <v>0.82399172391966502</v>
       </c>
       <c r="M39" s="10">
         <f>[4]Comparison!L12</f>
-        <v>3.0485127006789386E-2</v>
+        <v>2.7192837075568854E-2</v>
       </c>
       <c r="N39" s="7">
         <f>[4]Comparison!M12</f>
-        <v>0.81604517122281928</v>
+        <v>0.82062838903839685</v>
       </c>
       <c r="O39" s="10">
         <f>[4]Comparison!N12</f>
-        <v>2.4233727838892705E-2</v>
+        <v>2.164344261174617E-2</v>
       </c>
       <c r="P39" s="7">
         <f>[4]Comparison!O12</f>
-        <v>0.79265775818049022</v>
+        <v>0.79458794363640417</v>
       </c>
       <c r="Q39" s="10">
         <f>[4]Comparison!P12</f>
-        <v>4.0477131958816248E-2</v>
+        <v>3.2122275357916029E-2</v>
       </c>
       <c r="R39" s="7">
         <f>[4]Comparison!Q12</f>
-        <v>0.79634865373948471</v>
+        <v>0.79526689533420769</v>
       </c>
       <c r="S39" s="15">
         <f>[4]Comparison!R12</f>
-        <v>3.1399630202655134E-2</v>
+        <v>3.1003866386594959E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,187 @@
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
+  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -8008,7 +8188,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -8020,7 +8200,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
+  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -8032,7 +8212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
+  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8044,7 +8224,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
+  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8056,7 +8236,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8068,7 +8248,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8080,7 +8260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
+  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8092,7 +8272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
+  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8104,7 +8284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8116,7 +8296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30 F30 H30 J30 L30 N30 P30 R30">
+  <conditionalFormatting sqref="F30 D30 H30 J30 L30 N30 P30 R30">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8128,7 +8308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8140,7 +8320,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8152,7 +8332,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8164,7 +8344,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8176,7 +8356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8188,188 +8368,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29 D29 H29 J29 L29 N29 P29 R29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8388,26 +8388,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C65D83-1C0F-4753-A45E-75AC09352F8A}">
   <dimension ref="B2:V40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40:V40"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="str">
         <f>IF(Aug_overview_classifier!B2=0,"",Aug_overview_classifier!B2)</f>
         <v/>
@@ -8481,7 +8479,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="str">
         <f>IF(Aug_overview_classifier!B3=0,"",Aug_overview_classifier!B3)</f>
         <v>Model</v>
@@ -8555,7 +8553,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="str">
         <f>IF(Aug_overview_classifier!B4=0,"",Aug_overview_classifier!B4)</f>
         <v/>
@@ -8629,7 +8627,7 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="55" t="str">
         <f>IF(Aug_overview_classifier!B5=0,"",Aug_overview_classifier!B5)</f>
         <v>ESC10</v>
@@ -8711,7 +8709,7 @@
         <v>2.3529411764705577E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
@@ -8793,7 +8791,7 @@
         <v>-2.8333333333333655E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
@@ -8875,7 +8873,7 @@
         <v>2.7874564459930085E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
@@ -8957,7 +8955,7 @@
         <v>1.293532338308423E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
@@ -9039,7 +9037,7 @@
         <v>-2.9154518950438302E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
@@ -9121,7 +9119,7 @@
         <v>5.3140096618353727E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
@@ -9203,7 +9201,7 @@
         <v>3.2630522088352931E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
@@ -9285,7 +9283,7 @@
         <v>4.5641025641025346E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="str">
         <f>IF(Aug_overview_classifier!B13=0,"",Aug_overview_classifier!B13)</f>
         <v/>
@@ -9364,7 +9362,7 @@
       </c>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="str">
         <f>IF(Aug_overview_classifier!B14=0,"",Aug_overview_classifier!B14)</f>
         <v>BDLib2</v>
@@ -9446,7 +9444,7 @@
         <v>-5.7870370370370905E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
@@ -9528,7 +9526,7 @@
         <v>-4.4000000000000372E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
@@ -9610,7 +9608,7 @@
         <v>6.8452380952381153E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
@@ -9692,7 +9690,7 @@
         <v>9.5238095238090459E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
@@ -9774,7 +9772,7 @@
         <v>7.051282051282004E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="49" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
@@ -9856,7 +9854,7 @@
         <v>2.3114355231143913E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
@@ -9938,7 +9936,7 @@
         <v>0.17622950819672112</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
@@ -10020,7 +10018,7 @@
         <v>0.18303571428571397</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="str">
         <f>IF(Aug_overview_classifier!B22=0,"",Aug_overview_classifier!B22)</f>
         <v/>
@@ -10099,7 +10097,7 @@
       </c>
       <c r="V22" s="54"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="str">
         <f>IF(Aug_overview_classifier!B23=0,"",Aug_overview_classifier!B23)</f>
         <v>US8K</v>
@@ -10181,7 +10179,7 @@
         <v>-1.6213829198711283E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
@@ -10263,7 +10261,7 @@
         <v>-6.9708096779339646E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="49" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
@@ -10345,7 +10343,7 @@
         <v>1.4505669218352057E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
@@ -10427,7 +10425,7 @@
         <v>-1.4666102087111943E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
@@ -10509,7 +10507,7 @@
         <v>1.4307751856672102E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
@@ -10591,7 +10589,7 @@
         <v>-1.9345565361934547E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
@@ -10673,7 +10671,7 @@
         <v>-1.714759822894385E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="50" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
@@ -10755,7 +10753,7 @@
         <v>-1.128752492413998E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>IF(Aug_overview_classifier!B31=0,"",Aug_overview_classifier!B31)</f>
         <v/>
@@ -10834,7 +10832,7 @@
       </c>
       <c r="V31" s="54"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="str">
         <f>IF(Aug_overview_classifier!B32=0,"",Aug_overview_classifier!B32)</f>
         <v>US8K_AV</v>
@@ -10845,78 +10843,78 @@
       </c>
       <c r="D32" s="3">
         <f>IF(Aug_overview_classifier!D32=0,"",Aug_overview_classifier!D32)</f>
-        <v>0.7972973392603091</v>
+        <v>0.79685606289928201</v>
       </c>
       <c r="E32" s="8">
         <f>IF(Aug_overview_classifier!E32=0,"",Aug_overview_classifier!E32)</f>
-        <v>2.9799917499319852E-2</v>
+        <v>2.5556637756796532E-2</v>
       </c>
       <c r="F32" s="3">
         <f>IF(Aug_overview_classifier!F32=0,"",Aug_overview_classifier!F32)</f>
-        <v>0.79570142875971961</v>
+        <v>0.79937107128104834</v>
       </c>
       <c r="G32" s="8">
         <f>IF(Aug_overview_classifier!G32=0,"",Aug_overview_classifier!G32)</f>
-        <v>3.2927790182258901E-2</v>
+        <v>2.3126940609332992E-2</v>
       </c>
       <c r="H32" s="3">
         <f>IF(Aug_overview_classifier!H32=0,"",Aug_overview_classifier!H32)</f>
-        <v>0.77779596909280413</v>
+        <v>0.7726587345689524</v>
       </c>
       <c r="I32" s="8">
         <f>IF(Aug_overview_classifier!I32=0,"",Aug_overview_classifier!I32)</f>
-        <v>4.3843438436441631E-2</v>
+        <v>4.4407742565039147E-2</v>
       </c>
       <c r="J32" s="3">
         <f>IF(Aug_overview_classifier!J32=0,"",Aug_overview_classifier!J32)</f>
-        <v>0.76575044193742869</v>
+        <v>0.75605659842739636</v>
       </c>
       <c r="K32" s="13">
         <f>IF(Aug_overview_classifier!K32=0,"",Aug_overview_classifier!K32)</f>
-        <v>5.1004458425257179E-2</v>
+        <v>5.2700934650067567E-2</v>
       </c>
       <c r="L32" s="17">
         <f>IF(Aug_overview_classifier!L32=0,"",Aug_overview_classifier!L32)</f>
-        <v>0.80230526814991487</v>
+        <v>0.79940995624732925</v>
       </c>
       <c r="M32" s="8">
         <f>IF(Aug_overview_classifier!M32=0,"",Aug_overview_classifier!M32)</f>
-        <v>3.2277797832933282E-2</v>
+        <v>2.6323808738197309E-2</v>
       </c>
       <c r="N32" s="3">
         <f>IF(Aug_overview_classifier!N32=0,"",Aug_overview_classifier!N32)</f>
-        <v>0.80284916308191379</v>
+        <v>0.79958658776028846</v>
       </c>
       <c r="O32" s="8">
         <f>IF(Aug_overview_classifier!O32=0,"",Aug_overview_classifier!O32)</f>
-        <v>3.0843059291163186E-2</v>
+        <v>2.2871964456698795E-2</v>
       </c>
       <c r="P32" s="3">
         <f>IF(Aug_overview_classifier!P32=0,"",Aug_overview_classifier!P32)</f>
-        <v>0.77979950297539458</v>
+        <v>0.78051388570373148</v>
       </c>
       <c r="Q32" s="8">
         <f>IF(Aug_overview_classifier!Q32=0,"",Aug_overview_classifier!Q32)</f>
-        <v>5.5218356066292371E-2</v>
+        <v>4.9255805384880232E-2</v>
       </c>
       <c r="R32" s="3">
         <f>IF(Aug_overview_classifier!R32=0,"",Aug_overview_classifier!R32)</f>
-        <v>0.7810447272677028</v>
+        <v>0.76506724978164575</v>
       </c>
       <c r="S32" s="13">
         <f>IF(Aug_overview_classifier!S32=0,"",Aug_overview_classifier!S32)</f>
-        <v>5.2331750312172395E-2</v>
+        <v>5.2680761025622622E-2</v>
       </c>
       <c r="U32" s="44">
         <f>(D32/L32)-1</f>
-        <v>-6.2419244748994629E-3</v>
+        <v>-3.1947229679699651E-3</v>
       </c>
       <c r="V32" s="44">
         <f>(F32/N32)-1</f>
-        <v>-8.9029604200570045E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+        <v>-2.6953488532588388E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
@@ -10927,78 +10925,78 @@
       </c>
       <c r="D33" s="5">
         <f>IF(Aug_overview_classifier!D33=0,"",Aug_overview_classifier!D33)</f>
-        <v>0.48196657163098883</v>
+        <v>0.49657025095158253</v>
       </c>
       <c r="E33" s="9">
         <f>IF(Aug_overview_classifier!E33=0,"",Aug_overview_classifier!E33)</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.4761144756903888E-2</v>
       </c>
       <c r="F33" s="5">
         <f>IF(Aug_overview_classifier!F33=0,"",Aug_overview_classifier!F33)</f>
-        <v>0.48196657163098883</v>
+        <v>0.5071873283646201</v>
       </c>
       <c r="G33" s="9">
         <f>IF(Aug_overview_classifier!G33=0,"",Aug_overview_classifier!G33)</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.1995627708423201E-2</v>
       </c>
       <c r="H33" s="5">
         <f>IF(Aug_overview_classifier!H33=0,"",Aug_overview_classifier!H33)</f>
-        <v>0.54528298875660608</v>
+        <v>0.55052400026466131</v>
       </c>
       <c r="I33" s="9">
         <f>IF(Aug_overview_classifier!I33=0,"",Aug_overview_classifier!I33)</f>
-        <v>4.8060034448072143E-2</v>
+        <v>4.416229282659357E-2</v>
       </c>
       <c r="J33" s="5">
         <f>IF(Aug_overview_classifier!J33=0,"",Aug_overview_classifier!J33)</f>
-        <v>0.4217335957075169</v>
+        <v>0.44353041192893611</v>
       </c>
       <c r="K33" s="14">
         <f>IF(Aug_overview_classifier!K33=0,"",Aug_overview_classifier!K33)</f>
-        <v>4.0239071061978299E-2</v>
+        <v>3.7646593296082193E-2</v>
       </c>
       <c r="L33" s="18">
         <f>IF(Aug_overview_classifier!L33=0,"",Aug_overview_classifier!L33)</f>
-        <v>0.51655918028000758</v>
+        <v>0.53842105859090061</v>
       </c>
       <c r="M33" s="9">
         <f>IF(Aug_overview_classifier!M33=0,"",Aug_overview_classifier!M33)</f>
-        <v>4.2566272557926096E-2</v>
+        <v>3.777597912782097E-2</v>
       </c>
       <c r="N33" s="5">
         <f>IF(Aug_overview_classifier!N33=0,"",Aug_overview_classifier!N33)</f>
-        <v>0.51655918028000758</v>
+        <v>0.54254192792734401</v>
       </c>
       <c r="O33" s="9">
         <f>IF(Aug_overview_classifier!O33=0,"",Aug_overview_classifier!O33)</f>
-        <v>4.2566272557926096E-2</v>
+        <v>3.7369696113270963E-2</v>
       </c>
       <c r="P33" s="5">
         <f>IF(Aug_overview_classifier!P33=0,"",Aug_overview_classifier!P33)</f>
-        <v>0.54254117333994478</v>
+        <v>0.54547530657750487</v>
       </c>
       <c r="Q33" s="9">
         <f>IF(Aug_overview_classifier!Q33=0,"",Aug_overview_classifier!Q33)</f>
-        <v>5.7783405005490653E-2</v>
+        <v>4.1623443174462767E-2</v>
       </c>
       <c r="R33" s="5">
         <f>IF(Aug_overview_classifier!R33=0,"",Aug_overview_classifier!R33)</f>
-        <v>0.43998350335960368</v>
+        <v>0.45285239284799922</v>
       </c>
       <c r="S33" s="14">
         <f>IF(Aug_overview_classifier!S33=0,"",Aug_overview_classifier!S33)</f>
-        <v>5.421416187773901E-2</v>
+        <v>4.8661670511817759E-2</v>
       </c>
       <c r="U33" s="44">
         <f t="shared" ref="U33:U39" si="6">(D33/L33)-1</f>
-        <v>-6.6967367863382865E-2</v>
+        <v>-7.7728771881333314E-2</v>
       </c>
       <c r="V33" s="44">
         <f t="shared" ref="V33:V39" si="7">(F33/N33)-1</f>
-        <v>-6.6967367863382865E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+        <v>-6.5164732424990657E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
@@ -11009,78 +11007,78 @@
       </c>
       <c r="D34" s="5">
         <f>IF(Aug_overview_classifier!D34=0,"",Aug_overview_classifier!D34)</f>
-        <v>0.70835647933888224</v>
+        <v>0.70422281505660389</v>
       </c>
       <c r="E34" s="9">
         <f>IF(Aug_overview_classifier!E34=0,"",Aug_overview_classifier!E34)</f>
-        <v>5.6384196144537838E-2</v>
+        <v>4.6226281274783031E-2</v>
       </c>
       <c r="F34" s="5">
         <f>IF(Aug_overview_classifier!F34=0,"",Aug_overview_classifier!F34)</f>
-        <v>0.70661160534295786</v>
+        <v>0.70601388949456167</v>
       </c>
       <c r="G34" s="9">
         <f>IF(Aug_overview_classifier!G34=0,"",Aug_overview_classifier!G34)</f>
-        <v>5.2812149679155505E-2</v>
+        <v>4.1794659610647905E-2</v>
       </c>
       <c r="H34" s="5">
         <f>IF(Aug_overview_classifier!H34=0,"",Aug_overview_classifier!H34)</f>
-        <v>0.69749913126031071</v>
+        <v>0.69996377336455218</v>
       </c>
       <c r="I34" s="9">
         <f>IF(Aug_overview_classifier!I34=0,"",Aug_overview_classifier!I34)</f>
-        <v>5.6327248608898803E-2</v>
+        <v>4.8015522087302753E-2</v>
       </c>
       <c r="J34" s="5">
         <f>IF(Aug_overview_classifier!J34=0,"",Aug_overview_classifier!J34)</f>
-        <v>0.69680989336428267</v>
+        <v>0.69755741859185594</v>
       </c>
       <c r="K34" s="14">
         <f>IF(Aug_overview_classifier!K34=0,"",Aug_overview_classifier!K34)</f>
-        <v>5.7403524616080184E-2</v>
+        <v>4.8239878921871045E-2</v>
       </c>
       <c r="L34" s="18">
         <f>IF(Aug_overview_classifier!L34=0,"",Aug_overview_classifier!L34)</f>
-        <v>0.71503138916582398</v>
+        <v>0.70783875003277841</v>
       </c>
       <c r="M34" s="9">
         <f>IF(Aug_overview_classifier!M34=0,"",Aug_overview_classifier!M34)</f>
-        <v>5.3233424012932011E-2</v>
+        <v>4.6703021263373848E-2</v>
       </c>
       <c r="N34" s="5">
         <f>IF(Aug_overview_classifier!N34=0,"",Aug_overview_classifier!N34)</f>
-        <v>0.69417022737274847</v>
+        <v>0.69757671303668334</v>
       </c>
       <c r="O34" s="9">
         <f>IF(Aug_overview_classifier!O34=0,"",Aug_overview_classifier!O34)</f>
-        <v>5.4397783913250293E-2</v>
+        <v>3.8847907680094579E-2</v>
       </c>
       <c r="P34" s="5">
         <f>IF(Aug_overview_classifier!P34=0,"",Aug_overview_classifier!P34)</f>
-        <v>0.6969102721891407</v>
+        <v>0.69771501587037665</v>
       </c>
       <c r="Q34" s="9">
         <f>IF(Aug_overview_classifier!Q34=0,"",Aug_overview_classifier!Q34)</f>
-        <v>5.7702162511957478E-2</v>
+        <v>5.1572966943268655E-2</v>
       </c>
       <c r="R34" s="5">
         <f>IF(Aug_overview_classifier!R34=0,"",Aug_overview_classifier!R34)</f>
-        <v>0.68671476082410443</v>
+        <v>0.684729748874636</v>
       </c>
       <c r="S34" s="14">
         <f>IF(Aug_overview_classifier!S34=0,"",Aug_overview_classifier!S34)</f>
-        <v>5.4207340734806743E-2</v>
+        <v>4.6344311238478736E-2</v>
       </c>
       <c r="U34" s="44">
         <f t="shared" si="6"/>
-        <v>-9.3351283986691236E-3</v>
+        <v>-5.1084162544182687E-3</v>
       </c>
       <c r="V34" s="44">
         <f t="shared" si="7"/>
-        <v>1.7922661444724763E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1.2094980093515062E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
@@ -11091,78 +11089,78 @@
       </c>
       <c r="D35" s="5">
         <f>IF(Aug_overview_classifier!D35=0,"",Aug_overview_classifier!D35)</f>
-        <v>0.80453799607709553</v>
+        <v>0.81158658581772891</v>
       </c>
       <c r="E35" s="9">
         <f>IF(Aug_overview_classifier!E35=0,"",Aug_overview_classifier!E35)</f>
-        <v>2.8490206680113914E-2</v>
+        <v>2.0759511166039319E-2</v>
       </c>
       <c r="F35" s="5">
         <f>IF(Aug_overview_classifier!F35=0,"",Aug_overview_classifier!F35)</f>
-        <v>0.79959678662626577</v>
+        <v>0.80861671685133651</v>
       </c>
       <c r="G35" s="9">
         <f>IF(Aug_overview_classifier!G35=0,"",Aug_overview_classifier!G35)</f>
-        <v>2.9489766665659032E-2</v>
+        <v>2.4087043295337805E-2</v>
       </c>
       <c r="H35" s="5">
         <f>IF(Aug_overview_classifier!H35=0,"",Aug_overview_classifier!H35)</f>
-        <v>0.80115620546733146</v>
+        <v>0.80873939283903373</v>
       </c>
       <c r="I35" s="9">
         <f>IF(Aug_overview_classifier!I35=0,"",Aug_overview_classifier!I35)</f>
-        <v>2.7926577722895089E-2</v>
+        <v>1.9236774435053481E-2</v>
       </c>
       <c r="J35" s="5">
         <f>IF(Aug_overview_classifier!J35=0,"",Aug_overview_classifier!J35)</f>
-        <v>0.79629022705530206</v>
+        <v>0.80623153255941804</v>
       </c>
       <c r="K35" s="14">
         <f>IF(Aug_overview_classifier!K35=0,"",Aug_overview_classifier!K35)</f>
-        <v>2.9314225100104077E-2</v>
+        <v>2.2856579517092381E-2</v>
       </c>
       <c r="L35" s="18">
         <f>IF(Aug_overview_classifier!L35=0,"",Aug_overview_classifier!L35)</f>
-        <v>0.81657116629165638</v>
+        <v>0.82270843493714207</v>
       </c>
       <c r="M35" s="9">
         <f>IF(Aug_overview_classifier!M35=0,"",Aug_overview_classifier!M35)</f>
-        <v>3.7831455287628504E-2</v>
+        <v>2.7423021442293347E-2</v>
       </c>
       <c r="N35" s="5">
         <f>IF(Aug_overview_classifier!N35=0,"",Aug_overview_classifier!N35)</f>
-        <v>0.8174402222940369</v>
+        <v>0.82205003673487942</v>
       </c>
       <c r="O35" s="9">
         <f>IF(Aug_overview_classifier!O35=0,"",Aug_overview_classifier!O35)</f>
-        <v>2.9484859608944335E-2</v>
+        <v>2.3030600184701659E-2</v>
       </c>
       <c r="P35" s="5">
         <f>IF(Aug_overview_classifier!P35=0,"",Aug_overview_classifier!P35)</f>
-        <v>0.81740867061309852</v>
+        <v>0.82414368359453472</v>
       </c>
       <c r="Q35" s="9">
         <f>IF(Aug_overview_classifier!Q35=0,"",Aug_overview_classifier!Q35)</f>
-        <v>3.7296872285475645E-2</v>
+        <v>2.7156066053010713E-2</v>
       </c>
       <c r="R35" s="5">
         <f>IF(Aug_overview_classifier!R35=0,"",Aug_overview_classifier!R35)</f>
-        <v>0.81169062916246904</v>
+        <v>0.81842728402011622</v>
       </c>
       <c r="S35" s="14">
         <f>IF(Aug_overview_classifier!S35=0,"",Aug_overview_classifier!S35)</f>
-        <v>2.96497754188964E-2</v>
+        <v>2.4772141992337307E-2</v>
       </c>
       <c r="U35" s="44">
         <f t="shared" si="6"/>
-        <v>-1.4736217382261718E-2</v>
+        <v>-1.3518579179588541E-2</v>
       </c>
       <c r="V35" s="44">
         <f t="shared" si="7"/>
-        <v>-2.1828428772070807E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+        <v>-1.6341243577944531E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
@@ -11173,78 +11171,78 @@
       </c>
       <c r="D36" s="5">
         <f>IF(Aug_overview_classifier!D36=0,"",Aug_overview_classifier!D36)</f>
-        <v>0.81292922128597112</v>
+        <v>0.81814143653174232</v>
       </c>
       <c r="E36" s="9">
         <f>IF(Aug_overview_classifier!E36=0,"",Aug_overview_classifier!E36)</f>
-        <v>2.8557872557761908E-2</v>
+        <v>2.3018366331703916E-2</v>
       </c>
       <c r="F36" s="5">
         <f>IF(Aug_overview_classifier!F36=0,"",Aug_overview_classifier!F36)</f>
-        <v>0.79392966363711737</v>
+        <v>0.79430199948850988</v>
       </c>
       <c r="G36" s="9">
         <f>IF(Aug_overview_classifier!G36=0,"",Aug_overview_classifier!G36)</f>
-        <v>2.6716187750093462E-2</v>
+        <v>2.716653588983135E-2</v>
       </c>
       <c r="H36" s="5">
         <f>IF(Aug_overview_classifier!H36=0,"",Aug_overview_classifier!H36)</f>
-        <v>0.81099967366658343</v>
+        <v>0.81652215154303698</v>
       </c>
       <c r="I36" s="9">
         <f>IF(Aug_overview_classifier!I36=0,"",Aug_overview_classifier!I36)</f>
-        <v>2.8514688114277639E-2</v>
+        <v>2.2179641522565293E-2</v>
       </c>
       <c r="J36" s="5">
         <f>IF(Aug_overview_classifier!J36=0,"",Aug_overview_classifier!J36)</f>
-        <v>0.79502000491363878</v>
+        <v>0.79730460100953204</v>
       </c>
       <c r="K36" s="14">
         <f>IF(Aug_overview_classifier!K36=0,"",Aug_overview_classifier!K36)</f>
-        <v>2.7012535108776787E-2</v>
+        <v>2.906541205229328E-2</v>
       </c>
       <c r="L36" s="18">
         <f>IF(Aug_overview_classifier!L36=0,"",Aug_overview_classifier!L36)</f>
-        <v>0.82447094056786374</v>
+        <v>0.83140906495028677</v>
       </c>
       <c r="M36" s="9">
         <f>IF(Aug_overview_classifier!M36=0,"",Aug_overview_classifier!M36)</f>
-        <v>2.7431632017958337E-2</v>
+        <v>2.2130613470657798E-2</v>
       </c>
       <c r="N36" s="5">
         <f>IF(Aug_overview_classifier!N36=0,"",Aug_overview_classifier!N36)</f>
-        <v>0.78087953328819959</v>
+        <v>0.78062905250685577</v>
       </c>
       <c r="O36" s="9">
         <f>IF(Aug_overview_classifier!O36=0,"",Aug_overview_classifier!O36)</f>
-        <v>2.6516433476737721E-2</v>
+        <v>2.6858001819047649E-2</v>
       </c>
       <c r="P36" s="5">
         <f>IF(Aug_overview_classifier!P36=0,"",Aug_overview_classifier!P36)</f>
-        <v>0.82534107933470258</v>
+        <v>0.83194681886296939</v>
       </c>
       <c r="Q36" s="9">
         <f>IF(Aug_overview_classifier!Q36=0,"",Aug_overview_classifier!Q36)</f>
-        <v>3.2600408173923109E-2</v>
+        <v>2.2869300764423686E-2</v>
       </c>
       <c r="R36" s="5">
         <f>IF(Aug_overview_classifier!R36=0,"",Aug_overview_classifier!R36)</f>
-        <v>0.78354134536428721</v>
+        <v>0.78835399486456181</v>
       </c>
       <c r="S36" s="14">
         <f>IF(Aug_overview_classifier!S36=0,"",Aug_overview_classifier!S36)</f>
-        <v>2.7252942703224495E-2</v>
+        <v>2.3219868574884551E-2</v>
       </c>
       <c r="U36" s="44">
         <f t="shared" si="6"/>
-        <v>-1.3998940064452903E-2</v>
+        <v>-1.5958003079191596E-2</v>
       </c>
       <c r="V36" s="44">
         <f t="shared" si="7"/>
-        <v>1.6712091676887919E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1.7515293515845798E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
@@ -11255,78 +11253,78 @@
       </c>
       <c r="D37" s="5">
         <f>IF(Aug_overview_classifier!D37=0,"",Aug_overview_classifier!D37)</f>
-        <v>0.7683641959493932</v>
+        <v>0.7817151688113988</v>
       </c>
       <c r="E37" s="9">
         <f>IF(Aug_overview_classifier!E37=0,"",Aug_overview_classifier!E37)</f>
-        <v>4.4711832607749746E-2</v>
+        <v>3.4133250260485568E-2</v>
       </c>
       <c r="F37" s="5">
         <f>IF(Aug_overview_classifier!F37=0,"",Aug_overview_classifier!F37)</f>
-        <v>0.77034779544724286</v>
+        <v>0.78218852362504021</v>
       </c>
       <c r="G37" s="9">
         <f>IF(Aug_overview_classifier!G37=0,"",Aug_overview_classifier!G37)</f>
-        <v>4.4457358474735323E-2</v>
+        <v>3.7720664706480132E-2</v>
       </c>
       <c r="H37" s="5">
         <f>IF(Aug_overview_classifier!H37=0,"",Aug_overview_classifier!H37)</f>
-        <v>0.77889865973726458</v>
+        <v>0.79003340520322451</v>
       </c>
       <c r="I37" s="9">
         <f>IF(Aug_overview_classifier!I37=0,"",Aug_overview_classifier!I37)</f>
-        <v>4.1426514744533634E-2</v>
+        <v>3.2876169332547667E-2</v>
       </c>
       <c r="J37" s="5">
         <f>IF(Aug_overview_classifier!J37=0,"",Aug_overview_classifier!J37)</f>
-        <v>0.76788741319815368</v>
+        <v>0.77746201326634512</v>
       </c>
       <c r="K37" s="14">
         <f>IF(Aug_overview_classifier!K37=0,"",Aug_overview_classifier!K37)</f>
-        <v>4.510405483458E-2</v>
+        <v>3.8454847890093409E-2</v>
       </c>
       <c r="L37" s="18">
         <f>IF(Aug_overview_classifier!L37=0,"",Aug_overview_classifier!L37)</f>
-        <v>0.77804840898569305</v>
+        <v>0.79194204777081301</v>
       </c>
       <c r="M37" s="9">
         <f>IF(Aug_overview_classifier!M37=0,"",Aug_overview_classifier!M37)</f>
-        <v>4.518818495165982E-2</v>
+        <v>3.412596990267687E-2</v>
       </c>
       <c r="N37" s="5">
         <f>IF(Aug_overview_classifier!N37=0,"",Aug_overview_classifier!N37)</f>
-        <v>0.76955250646321161</v>
+        <v>0.78484070659399574</v>
       </c>
       <c r="O37" s="9">
         <f>IF(Aug_overview_classifier!O37=0,"",Aug_overview_classifier!O37)</f>
-        <v>4.4914344875498412E-2</v>
+        <v>3.4903281965666652E-2</v>
       </c>
       <c r="P37" s="5">
         <f>IF(Aug_overview_classifier!P37=0,"",Aug_overview_classifier!P37)</f>
-        <v>0.79046532617449561</v>
+        <v>0.79415519271628165</v>
       </c>
       <c r="Q37" s="9">
         <f>IF(Aug_overview_classifier!Q37=0,"",Aug_overview_classifier!Q37)</f>
-        <v>4.7041701302869963E-2</v>
+        <v>3.8288116319797665E-2</v>
       </c>
       <c r="R37" s="5">
         <f>IF(Aug_overview_classifier!R37=0,"",Aug_overview_classifier!R37)</f>
-        <v>0.76686166085463814</v>
+        <v>0.78651510830614246</v>
       </c>
       <c r="S37" s="14">
         <f>IF(Aug_overview_classifier!S37=0,"",Aug_overview_classifier!S37)</f>
-        <v>4.356121553995386E-2</v>
+        <v>3.405096917308921E-2</v>
       </c>
       <c r="U37" s="44">
         <f t="shared" si="6"/>
-        <v>-1.2446800127674185E-2</v>
+        <v>-1.2913670878066386E-2</v>
       </c>
       <c r="V37" s="44">
         <f t="shared" si="7"/>
-        <v>1.0334434328416187E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+        <v>-3.3792627557065469E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
@@ -11337,78 +11335,78 @@
       </c>
       <c r="D38" s="5">
         <f>IF(Aug_overview_classifier!D38=0,"",Aug_overview_classifier!D38)</f>
-        <v>0.82897412409023341</v>
+        <v>0.83787028707659383</v>
       </c>
       <c r="E38" s="9">
         <f>IF(Aug_overview_classifier!E38=0,"",Aug_overview_classifier!E38)</f>
-        <v>4.2736433664886317E-2</v>
+        <v>3.3815601460065667E-2</v>
       </c>
       <c r="F38" s="5">
         <f>IF(Aug_overview_classifier!F38=0,"",Aug_overview_classifier!F38)</f>
-        <v>0.82485750093941079</v>
+        <v>0.82940175695929308</v>
       </c>
       <c r="G38" s="9">
         <f>IF(Aug_overview_classifier!G38=0,"",Aug_overview_classifier!G38)</f>
-        <v>3.2967810235262927E-2</v>
+        <v>3.1683881341725117E-2</v>
       </c>
       <c r="H38" s="5">
         <f>IF(Aug_overview_classifier!H38=0,"",Aug_overview_classifier!H38)</f>
-        <v>0.82087275091355316</v>
+        <v>0.82241997347503892</v>
       </c>
       <c r="I38" s="9">
         <f>IF(Aug_overview_classifier!I38=0,"",Aug_overview_classifier!I38)</f>
-        <v>3.0259664592750531E-2</v>
+        <v>2.9458457972484569E-2</v>
       </c>
       <c r="J38" s="5">
         <f>IF(Aug_overview_classifier!J38=0,"",Aug_overview_classifier!J38)</f>
-        <v>0.8231062972590838</v>
+        <v>0.82629089838515901</v>
       </c>
       <c r="K38" s="14">
         <f>IF(Aug_overview_classifier!K38=0,"",Aug_overview_classifier!K38)</f>
-        <v>3.2385722470175293E-2</v>
+        <v>3.1179044295243472E-2</v>
       </c>
       <c r="L38" s="18">
         <f>IF(Aug_overview_classifier!L38=0,"",Aug_overview_classifier!L38)</f>
-        <v>0.82798850201966423</v>
+        <v>0.8335301278392423</v>
       </c>
       <c r="M38" s="9">
         <f>IF(Aug_overview_classifier!M38=0,"",Aug_overview_classifier!M38)</f>
-        <v>2.7816509226273246E-2</v>
+        <v>2.9141309406820012E-2</v>
       </c>
       <c r="N38" s="5">
         <f>IF(Aug_overview_classifier!N38=0,"",Aug_overview_classifier!N38)</f>
-        <v>0.82433886397986689</v>
+        <v>0.83379198267789079</v>
       </c>
       <c r="O38" s="9">
         <f>IF(Aug_overview_classifier!O38=0,"",Aug_overview_classifier!O38)</f>
-        <v>3.2872041956310508E-2</v>
+        <v>2.6360839310789502E-2</v>
       </c>
       <c r="P38" s="5">
         <f>IF(Aug_overview_classifier!P38=0,"",Aug_overview_classifier!P38)</f>
-        <v>0.82305569476191809</v>
+        <v>0.83324896230420686</v>
       </c>
       <c r="Q38" s="9">
         <f>IF(Aug_overview_classifier!Q38=0,"",Aug_overview_classifier!Q38)</f>
-        <v>2.9121991241057781E-2</v>
+        <v>2.9622113944906232E-2</v>
       </c>
       <c r="R38" s="5">
         <f>IF(Aug_overview_classifier!R38=0,"",Aug_overview_classifier!R38)</f>
-        <v>0.82062371331169803</v>
+        <v>0.82821608574791372</v>
       </c>
       <c r="S38" s="14">
         <f>IF(Aug_overview_classifier!S38=0,"",Aug_overview_classifier!S38)</f>
-        <v>3.0212403422266807E-2</v>
+        <v>2.9455118821827914E-2</v>
       </c>
       <c r="U38" s="44">
         <f t="shared" si="6"/>
-        <v>1.1903813496987325E-3</v>
+        <v>5.2069614431364819E-3</v>
       </c>
       <c r="V38" s="44">
         <f t="shared" si="7"/>
-        <v>6.2915505043625863E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+        <v>-5.2653729105160973E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="50" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
@@ -11419,86 +11417,89 @@
       </c>
       <c r="D39" s="7">
         <f>IF(Aug_overview_classifier!D39=0,"",Aug_overview_classifier!D39)</f>
-        <v>0.82549160089031459</v>
+        <v>0.82530029340908606</v>
       </c>
       <c r="E39" s="10">
         <f>IF(Aug_overview_classifier!E39=0,"",Aug_overview_classifier!E39)</f>
-        <v>3.9265422347612683E-2</v>
+        <v>3.4563329556152662E-2</v>
       </c>
       <c r="F39" s="7">
         <f>IF(Aug_overview_classifier!F39=0,"",Aug_overview_classifier!F39)</f>
-        <v>0.82387697359176837</v>
+        <v>0.83161644973618798</v>
       </c>
       <c r="G39" s="10">
         <f>IF(Aug_overview_classifier!G39=0,"",Aug_overview_classifier!G39)</f>
-        <v>3.6494724901016677E-2</v>
+        <v>3.0703608123118013E-2</v>
       </c>
       <c r="H39" s="7">
         <f>IF(Aug_overview_classifier!H39=0,"",Aug_overview_classifier!H39)</f>
-        <v>0.80630205013882272</v>
+        <v>0.80589075162748569</v>
       </c>
       <c r="I39" s="10">
         <f>IF(Aug_overview_classifier!I39=0,"",Aug_overview_classifier!I39)</f>
-        <v>3.5283848724283015E-2</v>
+        <v>3.8185560677824519E-2</v>
       </c>
       <c r="J39" s="7">
         <f>IF(Aug_overview_classifier!J39=0,"",Aug_overview_classifier!J39)</f>
-        <v>0.80363044351692936</v>
+        <v>0.80636903958372697</v>
       </c>
       <c r="K39" s="15">
         <f>IF(Aug_overview_classifier!K39=0,"",Aug_overview_classifier!K39)</f>
-        <v>3.2767379348069225E-2</v>
+        <v>3.0316454896473052E-2</v>
       </c>
       <c r="L39" s="19">
         <f>IF(Aug_overview_classifier!L39=0,"",Aug_overview_classifier!L39)</f>
-        <v>0.81892704721577125</v>
+        <v>0.82399172391966502</v>
       </c>
       <c r="M39" s="10">
         <f>IF(Aug_overview_classifier!M39=0,"",Aug_overview_classifier!M39)</f>
-        <v>3.0485127006789386E-2</v>
+        <v>2.7192837075568854E-2</v>
       </c>
       <c r="N39" s="7">
         <f>IF(Aug_overview_classifier!N39=0,"",Aug_overview_classifier!N39)</f>
-        <v>0.81604517122281928</v>
+        <v>0.82062838903839685</v>
       </c>
       <c r="O39" s="10">
         <f>IF(Aug_overview_classifier!O39=0,"",Aug_overview_classifier!O39)</f>
-        <v>2.4233727838892705E-2</v>
+        <v>2.164344261174617E-2</v>
       </c>
       <c r="P39" s="7">
         <f>IF(Aug_overview_classifier!P39=0,"",Aug_overview_classifier!P39)</f>
-        <v>0.79265775818049022</v>
+        <v>0.79458794363640417</v>
       </c>
       <c r="Q39" s="10">
         <f>IF(Aug_overview_classifier!Q39=0,"",Aug_overview_classifier!Q39)</f>
-        <v>4.0477131958816248E-2</v>
+        <v>3.2122275357916029E-2</v>
       </c>
       <c r="R39" s="7">
         <f>IF(Aug_overview_classifier!R39=0,"",Aug_overview_classifier!R39)</f>
-        <v>0.79634865373948471</v>
+        <v>0.79526689533420769</v>
       </c>
       <c r="S39" s="15">
         <f>IF(Aug_overview_classifier!S39=0,"",Aug_overview_classifier!S39)</f>
-        <v>3.1399630202655134E-2</v>
+        <v>3.1003866386594959E-2</v>
       </c>
       <c r="U39" s="44">
         <f t="shared" si="6"/>
-        <v>8.0160420844102021E-3</v>
+        <v>1.588085719109289E-3</v>
       </c>
       <c r="V39" s="44">
         <f t="shared" si="7"/>
-        <v>9.597265745979966E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+        <v>1.3389813031775333E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="U40" s="54">
         <f>AVERAGE(U32:V39)</f>
-        <v>-1.0395255911366967E-2</v>
+        <v>-1.0565448561979364E-2</v>
       </c>
       <c r="V40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="L2:S2"/>
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="B14:B21"/>
@@ -11506,9 +11507,6 @@
     <mergeCell ref="U31:V31"/>
     <mergeCell ref="U22:V22"/>
     <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="L2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12 F5:F12 H5:H12 L5:L12 J5:J12 N5:N12 P5:P12 R5:R12">
     <cfRule type="colorScale" priority="7">
@@ -11576,25 +11574,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5498D750-A77C-4E1F-AC8E-4A19415168F1}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
@@ -11620,7 +11616,7 @@
       <c r="R2" s="48"/>
       <c r="S2" s="48"/>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -11658,7 +11654,7 @@
       </c>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
@@ -11710,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
@@ -11782,7 +11778,7 @@
         <v>3.6554510121453804E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -11852,7 +11848,7 @@
         <v>4.3329907964490905E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -11922,7 +11918,7 @@
         <v>4.4837729927308778E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="49"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -11992,7 +11988,7 @@
         <v>3.0879404047152215E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="49"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -12062,7 +12058,7 @@
         <v>2.6567681351349553E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -12132,7 +12128,7 @@
         <v>2.9035289801220693E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="49"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -12202,7 +12198,7 @@
         <v>3.4742663735967461E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="50"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -12272,7 +12268,7 @@
         <v>3.2014566755899074E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -12292,7 +12288,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>7</v>
       </c>
@@ -12364,7 +12360,7 @@
         <v>2.1166709549459383E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -12434,7 +12430,7 @@
         <v>2.089825219249036E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="49"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -12504,7 +12500,7 @@
         <v>1.3459823726881929E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="49"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -12574,7 +12570,7 @@
         <v>1.1321681226052151E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="49"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -12644,7 +12640,7 @@
         <v>2.1004350908505859E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="49"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -12714,7 +12710,7 @@
         <v>1.7816473545345952E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="49"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -12784,7 +12780,7 @@
         <v>9.4185790570313638E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="50"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -12854,7 +12850,7 @@
         <v>1.9706496055853336E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -12874,7 +12870,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="49" t="s">
         <v>8</v>
       </c>
@@ -12946,7 +12942,7 @@
         <v>4.4643017846348901E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -13016,7 +13012,7 @@
         <v>3.997170768273773E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -13086,7 +13082,7 @@
         <v>4.987208440938274E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="49"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
@@ -13156,7 +13152,7 @@
         <v>3.8326001109827292E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="49"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
@@ -13226,7 +13222,7 @@
         <v>3.6077666375167086E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -13296,7 +13292,7 @@
         <v>3.9652799941969304E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="49"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -13366,7 +13362,7 @@
         <v>4.4563019353375137E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="50"/>
       <c r="C30" s="4" t="s">
         <v>20</v>
@@ -13436,7 +13432,7 @@
         <v>4.853500899210151E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -13456,7 +13452,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="49" t="s">
         <v>23</v>
       </c>
@@ -13465,557 +13461,557 @@
       </c>
       <c r="D32" s="3">
         <f>[8]Comparison!C5</f>
-        <v>0.7972973392603091</v>
+        <v>0.79685606289928201</v>
       </c>
       <c r="E32" s="8">
         <f>[8]Comparison!D5</f>
-        <v>2.9799917499319852E-2</v>
+        <v>2.5556637756796532E-2</v>
       </c>
       <c r="F32" s="3">
         <f>[8]Comparison!E5</f>
-        <v>0.79570142875971961</v>
+        <v>0.79937107128104834</v>
       </c>
       <c r="G32" s="8">
         <f>[8]Comparison!F5</f>
-        <v>3.2927790182258901E-2</v>
+        <v>2.3126940609332992E-2</v>
       </c>
       <c r="H32" s="3">
         <f>[8]Comparison!G5</f>
-        <v>0.77779596909280413</v>
+        <v>0.7726587345689524</v>
       </c>
       <c r="I32" s="8">
         <f>[8]Comparison!H5</f>
-        <v>4.3843438436441631E-2</v>
+        <v>4.4407742565039147E-2</v>
       </c>
       <c r="J32" s="3">
         <f>[8]Comparison!I5</f>
-        <v>0.76575044193742869</v>
+        <v>0.75605659842739636</v>
       </c>
       <c r="K32" s="13">
         <f>[8]Comparison!J5</f>
-        <v>5.1004458425257179E-2</v>
+        <v>5.2700934650067567E-2</v>
       </c>
       <c r="L32" s="17">
         <f>[8]Comparison!K5</f>
-        <v>0.7557248267530936</v>
+        <v>0.75591343865487037</v>
       </c>
       <c r="M32" s="8">
         <f>[8]Comparison!L5</f>
-        <v>2.9727073855220359E-2</v>
+        <v>2.7195857811959736E-2</v>
       </c>
       <c r="N32" s="3">
         <f>[8]Comparison!M5</f>
-        <v>0.7582108472157455</v>
+        <v>0.75727571245226477</v>
       </c>
       <c r="O32" s="8">
         <f>[8]Comparison!N5</f>
-        <v>3.1247860280847091E-2</v>
+        <v>2.8487254767997346E-2</v>
       </c>
       <c r="P32" s="3">
         <f>[8]Comparison!O5</f>
-        <v>0.74760922326572321</v>
+        <v>0.74163332161358497</v>
       </c>
       <c r="Q32" s="8">
         <f>[8]Comparison!P5</f>
-        <v>4.8465845374751335E-2</v>
+        <v>4.1173182048756918E-2</v>
       </c>
       <c r="R32" s="3">
         <f>[8]Comparison!Q5</f>
-        <v>0.74399927722411296</v>
+        <v>0.73115886458317314</v>
       </c>
       <c r="S32" s="13">
         <f>[8]Comparison!R5</f>
-        <v>4.6324915072879266E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+        <v>4.0284146068368658E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="49"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="5">
         <f>[8]Comparison!C6</f>
-        <v>0.48196657163098883</v>
+        <v>0.49657025095158253</v>
       </c>
       <c r="E33" s="9">
         <f>[8]Comparison!D6</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.4761144756903888E-2</v>
       </c>
       <c r="F33" s="5">
         <f>[8]Comparison!E6</f>
-        <v>0.48196657163098883</v>
+        <v>0.5071873283646201</v>
       </c>
       <c r="G33" s="9">
         <f>[8]Comparison!F6</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.1995627708423201E-2</v>
       </c>
       <c r="H33" s="5">
         <f>[8]Comparison!G6</f>
-        <v>0.54528298875660608</v>
+        <v>0.55052400026466131</v>
       </c>
       <c r="I33" s="9">
         <f>[8]Comparison!H6</f>
-        <v>4.8060034448072143E-2</v>
+        <v>4.416229282659357E-2</v>
       </c>
       <c r="J33" s="5">
         <f>[8]Comparison!I6</f>
-        <v>0.4217335957075169</v>
+        <v>0.44353041192893611</v>
       </c>
       <c r="K33" s="14">
         <f>[8]Comparison!J6</f>
-        <v>4.0239071061978299E-2</v>
+        <v>3.7646593296082193E-2</v>
       </c>
       <c r="L33" s="18">
         <f>[8]Comparison!K6</f>
-        <v>0.48957223775483527</v>
+        <v>0.49709711743412849</v>
       </c>
       <c r="M33" s="9">
         <f>[8]Comparison!L6</f>
-        <v>4.9659687282083718E-2</v>
+        <v>3.9158549815174859E-2</v>
       </c>
       <c r="N33" s="5">
         <f>[8]Comparison!M6</f>
-        <v>0.48957223775483527</v>
+        <v>0.50882940266648624</v>
       </c>
       <c r="O33" s="9">
         <f>[8]Comparison!N6</f>
-        <v>4.9659687282083718E-2</v>
+        <v>3.8118445064761128E-2</v>
       </c>
       <c r="P33" s="5">
         <f>[8]Comparison!O6</f>
-        <v>0.52599261520951346</v>
+        <v>0.50884107441712167</v>
       </c>
       <c r="Q33" s="9">
         <f>[8]Comparison!P6</f>
-        <v>5.1211869512347567E-2</v>
+        <v>4.2386706692464533E-2</v>
       </c>
       <c r="R33" s="5">
         <f>[8]Comparison!Q6</f>
-        <v>0.43134804197846599</v>
+        <v>0.41202621126853334</v>
       </c>
       <c r="S33" s="14">
         <f>[8]Comparison!R6</f>
-        <v>4.4088415271054428E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+        <v>3.621632839362391E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="49"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="5">
         <f>[8]Comparison!C7</f>
-        <v>0.70835647933888224</v>
+        <v>0.70422281505660389</v>
       </c>
       <c r="E34" s="9">
         <f>[8]Comparison!D7</f>
-        <v>5.6384196144537838E-2</v>
+        <v>4.6226281274783031E-2</v>
       </c>
       <c r="F34" s="5">
         <f>[8]Comparison!E7</f>
-        <v>0.70661160534295786</v>
+        <v>0.70601388949456167</v>
       </c>
       <c r="G34" s="9">
         <f>[8]Comparison!F7</f>
-        <v>5.2812149679155505E-2</v>
+        <v>4.1794659610647905E-2</v>
       </c>
       <c r="H34" s="5">
         <f>[8]Comparison!G7</f>
-        <v>0.69749913126031071</v>
+        <v>0.69996377336455218</v>
       </c>
       <c r="I34" s="9">
         <f>[8]Comparison!H7</f>
-        <v>5.6327248608898803E-2</v>
+        <v>4.8015522087302753E-2</v>
       </c>
       <c r="J34" s="5">
         <f>[8]Comparison!I7</f>
-        <v>0.69680989336428267</v>
+        <v>0.69755741859185594</v>
       </c>
       <c r="K34" s="14">
         <f>[8]Comparison!J7</f>
-        <v>5.7403524616080184E-2</v>
+        <v>4.8239878921871045E-2</v>
       </c>
       <c r="L34" s="18">
         <f>[8]Comparison!K7</f>
-        <v>0.67136689139939265</v>
+        <v>0.66010191812406149</v>
       </c>
       <c r="M34" s="9">
         <f>[8]Comparison!L7</f>
-        <v>5.6031930318796844E-2</v>
+        <v>4.2516813008564462E-2</v>
       </c>
       <c r="N34" s="5">
         <f>[8]Comparison!M7</f>
-        <v>0.66725893722223373</v>
+        <v>0.6632837987518494</v>
       </c>
       <c r="O34" s="9">
         <f>[8]Comparison!N7</f>
-        <v>6.1580422726649015E-2</v>
+        <v>4.8830134570874331E-2</v>
       </c>
       <c r="P34" s="5">
         <f>[8]Comparison!O7</f>
-        <v>0.66552147048435162</v>
+        <v>0.65400605857245386</v>
       </c>
       <c r="Q34" s="9">
         <f>[8]Comparison!P7</f>
-        <v>4.9417067243013112E-2</v>
+        <v>3.8746313772648783E-2</v>
       </c>
       <c r="R34" s="5">
         <f>[8]Comparison!Q7</f>
-        <v>0.65583687641288624</v>
+        <v>0.65051106462213704</v>
       </c>
       <c r="S34" s="14">
         <f>[8]Comparison!R7</f>
-        <v>6.0124542664523085E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+        <v>5.0893245309722293E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="49"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="5">
         <f>[8]Comparison!C8</f>
-        <v>0.80453799607709553</v>
+        <v>0.81158658581772891</v>
       </c>
       <c r="E35" s="9">
         <f>[8]Comparison!D8</f>
-        <v>2.8490206680113914E-2</v>
+        <v>2.0759511166039319E-2</v>
       </c>
       <c r="F35" s="5">
         <f>[8]Comparison!E8</f>
-        <v>0.79959678662626577</v>
+        <v>0.80861671685133651</v>
       </c>
       <c r="G35" s="9">
         <f>[8]Comparison!F8</f>
-        <v>2.9489766665659032E-2</v>
+        <v>2.4087043295337805E-2</v>
       </c>
       <c r="H35" s="5">
         <f>[8]Comparison!G8</f>
-        <v>0.80115620546733146</v>
+        <v>0.80873939283903373</v>
       </c>
       <c r="I35" s="9">
         <f>[8]Comparison!H8</f>
-        <v>2.7926577722895089E-2</v>
+        <v>1.9236774435053481E-2</v>
       </c>
       <c r="J35" s="5">
         <f>[8]Comparison!I8</f>
-        <v>0.79629022705530206</v>
+        <v>0.80623153255941804</v>
       </c>
       <c r="K35" s="14">
         <f>[8]Comparison!J8</f>
-        <v>2.9314225100104077E-2</v>
+        <v>2.2856579517092381E-2</v>
       </c>
       <c r="L35" s="18">
         <f>[8]Comparison!K8</f>
-        <v>0.78113103604673972</v>
+        <v>0.78867017206465406</v>
       </c>
       <c r="M35" s="9">
         <f>[8]Comparison!L8</f>
-        <v>2.2968936578889543E-2</v>
+        <v>1.4924214988202008E-2</v>
       </c>
       <c r="N35" s="5">
         <f>[8]Comparison!M8</f>
-        <v>0.77260657338769678</v>
+        <v>0.77735890882824321</v>
       </c>
       <c r="O35" s="9">
         <f>[8]Comparison!N8</f>
-        <v>1.9100541118890688E-2</v>
+        <v>1.5878084514004968E-2</v>
       </c>
       <c r="P35" s="5">
         <f>[8]Comparison!O8</f>
-        <v>0.77388656639180198</v>
+        <v>0.78200930393144452</v>
       </c>
       <c r="Q35" s="9">
         <f>[8]Comparison!P8</f>
-        <v>2.2455114031678644E-2</v>
+        <v>1.3331314973843031E-2</v>
       </c>
       <c r="R35" s="5">
         <f>[8]Comparison!Q8</f>
-        <v>0.76712924023464879</v>
+        <v>0.77377392050342519</v>
       </c>
       <c r="S35" s="14">
         <f>[8]Comparison!R8</f>
-        <v>1.6144021329263392E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1.3929774849661306E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="49"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5">
         <f>[8]Comparison!C9</f>
-        <v>0.81292922128597112</v>
+        <v>0.81814143653174232</v>
       </c>
       <c r="E36" s="9">
         <f>[8]Comparison!D9</f>
-        <v>2.8557872557761908E-2</v>
+        <v>2.3018366331703916E-2</v>
       </c>
       <c r="F36" s="5">
         <f>[8]Comparison!E9</f>
-        <v>0.79392966363711737</v>
+        <v>0.79430199948850988</v>
       </c>
       <c r="G36" s="9">
         <f>[8]Comparison!F9</f>
-        <v>2.6716187750093462E-2</v>
+        <v>2.716653588983135E-2</v>
       </c>
       <c r="H36" s="5">
         <f>[8]Comparison!G9</f>
-        <v>0.81099967366658343</v>
+        <v>0.81652215154303698</v>
       </c>
       <c r="I36" s="9">
         <f>[8]Comparison!H9</f>
-        <v>2.8514688114277639E-2</v>
+        <v>2.2179641522565293E-2</v>
       </c>
       <c r="J36" s="5">
         <f>[8]Comparison!I9</f>
-        <v>0.79502000491363878</v>
+        <v>0.79730460100953204</v>
       </c>
       <c r="K36" s="14">
         <f>[8]Comparison!J9</f>
-        <v>2.7012535108776787E-2</v>
+        <v>2.906541205229328E-2</v>
       </c>
       <c r="L36" s="18">
         <f>[8]Comparison!K9</f>
-        <v>0.78437401554021213</v>
+        <v>0.7895808585437526</v>
       </c>
       <c r="M36" s="9">
         <f>[8]Comparison!L9</f>
-        <v>1.9886200650298863E-2</v>
+        <v>1.8200090997685554E-2</v>
       </c>
       <c r="N36" s="5">
         <f>[8]Comparison!M9</f>
-        <v>0.75526246968084054</v>
+        <v>0.74988423794618375</v>
       </c>
       <c r="O36" s="9">
         <f>[8]Comparison!N9</f>
-        <v>1.9686557239742809E-2</v>
+        <v>2.693857744063597E-2</v>
       </c>
       <c r="P36" s="5">
         <f>[8]Comparison!O9</f>
-        <v>0.78273054682813237</v>
+        <v>0.78741011558536511</v>
       </c>
       <c r="Q36" s="9">
         <f>[8]Comparison!P9</f>
-        <v>1.9810556955368187E-2</v>
+        <v>1.6031605331770369E-2</v>
       </c>
       <c r="R36" s="5">
         <f>[8]Comparison!Q9</f>
-        <v>0.76173999084002963</v>
+        <v>0.75887033695154893</v>
       </c>
       <c r="S36" s="14">
         <f>[8]Comparison!R9</f>
-        <v>1.6176207331247201E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+        <v>1.9587671820538728E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="49"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="5">
         <f>[8]Comparison!C10</f>
-        <v>0.7683641959493932</v>
+        <v>0.7817151688113988</v>
       </c>
       <c r="E37" s="9">
         <f>[8]Comparison!D10</f>
-        <v>4.4711832607749746E-2</v>
+        <v>3.4133250260485568E-2</v>
       </c>
       <c r="F37" s="5">
         <f>[8]Comparison!E10</f>
-        <v>0.77034779544724286</v>
+        <v>0.78218852362504021</v>
       </c>
       <c r="G37" s="9">
         <f>[8]Comparison!F10</f>
-        <v>4.4457358474735323E-2</v>
+        <v>3.7720664706480132E-2</v>
       </c>
       <c r="H37" s="5">
         <f>[8]Comparison!G10</f>
-        <v>0.77889865973726458</v>
+        <v>0.79003340520322451</v>
       </c>
       <c r="I37" s="9">
         <f>[8]Comparison!H10</f>
-        <v>4.1426514744533634E-2</v>
+        <v>3.2876169332547667E-2</v>
       </c>
       <c r="J37" s="5">
         <f>[8]Comparison!I10</f>
-        <v>0.76788741319815368</v>
+        <v>0.77746201326634512</v>
       </c>
       <c r="K37" s="14">
         <f>[8]Comparison!J10</f>
-        <v>4.510405483458E-2</v>
+        <v>3.8454847890093409E-2</v>
       </c>
       <c r="L37" s="18">
         <f>[8]Comparison!K10</f>
-        <v>0.74136424025663727</v>
+        <v>0.75571543231793448</v>
       </c>
       <c r="M37" s="9">
         <f>[8]Comparison!L10</f>
-        <v>4.2058824085741506E-2</v>
+        <v>3.2225763804561137E-2</v>
       </c>
       <c r="N37" s="5">
         <f>[8]Comparison!M10</f>
-        <v>0.74063886554690017</v>
+        <v>0.75530621817011356</v>
       </c>
       <c r="O37" s="9">
         <f>[8]Comparison!N10</f>
-        <v>3.6798951598203018E-2</v>
+        <v>2.9714421947440325E-2</v>
       </c>
       <c r="P37" s="5">
         <f>[8]Comparison!O10</f>
-        <v>0.75306800677409635</v>
+        <v>0.7656814022193752</v>
       </c>
       <c r="Q37" s="9">
         <f>[8]Comparison!P10</f>
-        <v>3.356066209991504E-2</v>
+        <v>2.5542008266531198E-2</v>
       </c>
       <c r="R37" s="5">
         <f>[8]Comparison!Q10</f>
-        <v>0.73409260132094223</v>
+        <v>0.74493097921128448</v>
       </c>
       <c r="S37" s="14">
         <f>[8]Comparison!R10</f>
-        <v>3.4209989082940089E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.7874808831604404E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="49"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="5">
         <f>[8]Comparison!C11</f>
-        <v>0.82897412409023341</v>
+        <v>0.83787028707659383</v>
       </c>
       <c r="E38" s="9">
         <f>[8]Comparison!D11</f>
-        <v>4.2736433664886317E-2</v>
+        <v>3.3815601460065667E-2</v>
       </c>
       <c r="F38" s="5">
         <f>[8]Comparison!E11</f>
-        <v>0.82485750093941079</v>
+        <v>0.82940175695929308</v>
       </c>
       <c r="G38" s="9">
         <f>[8]Comparison!F11</f>
-        <v>3.2967810235262927E-2</v>
+        <v>3.1683881341725117E-2</v>
       </c>
       <c r="H38" s="5">
         <f>[8]Comparison!G11</f>
-        <v>0.82087275091355316</v>
+        <v>0.82241997347503892</v>
       </c>
       <c r="I38" s="9">
         <f>[8]Comparison!H11</f>
-        <v>3.0259664592750531E-2</v>
+        <v>2.9458457972484569E-2</v>
       </c>
       <c r="J38" s="5">
         <f>[8]Comparison!I11</f>
-        <v>0.8231062972590838</v>
+        <v>0.82629089838515901</v>
       </c>
       <c r="K38" s="14">
         <f>[8]Comparison!J11</f>
-        <v>3.2385722470175293E-2</v>
+        <v>3.1179044295243472E-2</v>
       </c>
       <c r="L38" s="18">
         <f>[8]Comparison!K11</f>
-        <v>0.7883406972830419</v>
+        <v>0.77929670054936206</v>
       </c>
       <c r="M38" s="9">
         <f>[8]Comparison!L11</f>
-        <v>2.9857760862252333E-2</v>
+        <v>3.2923659184004826E-2</v>
       </c>
       <c r="N38" s="5">
         <f>[8]Comparison!M11</f>
-        <v>0.7842064412493881</v>
+        <v>0.77255069058579928</v>
       </c>
       <c r="O38" s="9">
         <f>[8]Comparison!N11</f>
-        <v>3.2836719530063022E-2</v>
+        <v>2.6872443820207505E-2</v>
       </c>
       <c r="P38" s="5">
         <f>[8]Comparison!O11</f>
-        <v>0.78256005684226471</v>
+        <v>0.77221474486239505</v>
       </c>
       <c r="Q38" s="9">
         <f>[8]Comparison!P11</f>
-        <v>2.5292804700386348E-2</v>
+        <v>1.9176426283640146E-2</v>
       </c>
       <c r="R38" s="5">
         <f>[8]Comparison!Q11</f>
-        <v>0.77960812680400204</v>
+        <v>0.76649103972010768</v>
       </c>
       <c r="S38" s="14">
         <f>[8]Comparison!R11</f>
-        <v>3.1569943516940611E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+        <v>2.6347147377501812E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="50"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="7">
         <f>[8]Comparison!C12</f>
-        <v>0.82549160089031459</v>
+        <v>0.82530029340908606</v>
       </c>
       <c r="E39" s="10">
         <f>[8]Comparison!D12</f>
-        <v>3.9265422347612683E-2</v>
+        <v>3.4563329556152662E-2</v>
       </c>
       <c r="F39" s="7">
         <f>[8]Comparison!E12</f>
-        <v>0.82387697359176837</v>
+        <v>0.83161644973618798</v>
       </c>
       <c r="G39" s="10">
         <f>[8]Comparison!F12</f>
-        <v>3.6494724901016677E-2</v>
+        <v>3.0703608123118013E-2</v>
       </c>
       <c r="H39" s="7">
         <f>[8]Comparison!G12</f>
-        <v>0.80630205013882272</v>
+        <v>0.80589075162748569</v>
       </c>
       <c r="I39" s="10">
         <f>[8]Comparison!H12</f>
-        <v>3.5283848724283015E-2</v>
+        <v>3.8185560677824519E-2</v>
       </c>
       <c r="J39" s="7">
         <f>[8]Comparison!I12</f>
-        <v>0.80363044351692936</v>
+        <v>0.80636903958372697</v>
       </c>
       <c r="K39" s="15">
         <f>[8]Comparison!J12</f>
-        <v>3.2767379348069225E-2</v>
+        <v>3.0316454896473052E-2</v>
       </c>
       <c r="L39" s="19">
         <f>[8]Comparison!K12</f>
-        <v>0.77903890059475533</v>
+        <v>0.76692274346493328</v>
       </c>
       <c r="M39" s="10">
         <f>[8]Comparison!L12</f>
-        <v>3.752082182218807E-2</v>
+        <v>3.7374373477335611E-2</v>
       </c>
       <c r="N39" s="7">
         <f>[8]Comparison!M12</f>
-        <v>0.78047937427952208</v>
+        <v>0.78113204562593841</v>
       </c>
       <c r="O39" s="10">
         <f>[8]Comparison!N12</f>
-        <v>2.8256014697105956E-2</v>
+        <v>2.8033635560981509E-2</v>
       </c>
       <c r="P39" s="7">
         <f>[8]Comparison!O12</f>
-        <v>0.75646478953879492</v>
+        <v>0.74809049518117843</v>
       </c>
       <c r="Q39" s="10">
         <f>[8]Comparison!P12</f>
-        <v>3.2824605321873292E-2</v>
+        <v>2.6734458248211749E-2</v>
       </c>
       <c r="R39" s="7">
         <f>[8]Comparison!Q12</f>
-        <v>0.76056428007477661</v>
+        <v>0.75281219879949024</v>
       </c>
       <c r="S39" s="15">
         <f>[8]Comparison!R12</f>
-        <v>3.0912759087555291E-2</v>
+        <v>3.6357339203140632E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14027,8 +14023,8 @@
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B23:B30"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14039,8 +14035,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14051,8 +14047,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14063,8 +14059,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14075,8 +14071,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14087,8 +14083,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14099,8 +14095,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14111,8 +14107,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14123,8 +14119,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14135,8 +14131,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14147,8 +14143,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14171,7 +14167,175 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -14183,7 +14347,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14195,7 +14359,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14207,7 +14371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14219,176 +14383,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14407,24 +14403,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A5C124-75B5-4DDC-8EB2-442817CF2B35}">
   <dimension ref="B2:Y40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="str">
         <f>IF(Wind_overview_classifier!B2=0,"",Wind_overview_classifier!B2)</f>
         <v/>
@@ -14506,7 +14502,7 @@
       </c>
       <c r="Y2" s="56"/>
     </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="str">
         <f>IF(Wind_overview_classifier!B3=0,"",Wind_overview_classifier!B3)</f>
         <v>Model</v>
@@ -14580,7 +14576,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="str">
         <f>IF(Wind_overview_classifier!B4=0,"",Wind_overview_classifier!B4)</f>
         <v/>
@@ -14654,7 +14650,7 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="55" t="str">
         <f>IF(Wind_overview_classifier!B5=0,"",Wind_overview_classifier!B5)</f>
         <v>ESC10</v>
@@ -14744,7 +14740,7 @@
         <v>-2.9738562091503495E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="49" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
@@ -14834,7 +14830,7 @@
         <v>-0.18308641975308693</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
@@ -14924,7 +14920,7 @@
         <v>-6.6782810685250382E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="49" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
@@ -15014,7 +15010,7 @@
         <v>-6.2133775566611704E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="49" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
@@ -15104,7 +15100,7 @@
         <v>-8.1578663211316793E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
@@ -15194,7 +15190,7 @@
         <v>-6.8330649490070283E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
@@ -15284,7 +15280,7 @@
         <v>-2.599286033021031E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="50" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
@@ -15374,7 +15370,7 @@
         <v>-1.3618233618233999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="str">
         <f>IF(Wind_overview_classifier!B13=0,"",Wind_overview_classifier!B13)</f>
         <v/>
@@ -15458,7 +15454,7 @@
       </c>
       <c r="Y13" s="54"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="str">
         <f>IF(Wind_overview_classifier!B14=0,"",Wind_overview_classifier!B14)</f>
         <v>BDLib2</v>
@@ -15548,7 +15544,7 @@
         <v>-6.6764132553606692E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
@@ -15638,7 +15634,7 @@
         <v>-0.19017543859649166</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
@@ -15728,7 +15724,7 @@
         <v>2.0520050125313549E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="49" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
@@ -15818,7 +15814,7 @@
         <v>-5.7268170426065579E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
@@ -15908,7 +15904,7 @@
         <v>1.5587044534412842E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B19" s="49" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
@@ -15998,7 +15994,7 @@
         <v>-2.1577666794723949E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="49" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
@@ -16088,7 +16084,7 @@
         <v>0.11820534943917083</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="50" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
@@ -16178,7 +16174,7 @@
         <v>0.19658521303258114</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="str">
         <f>IF(Wind_overview_classifier!B22=0,"",Wind_overview_classifier!B22)</f>
         <v/>
@@ -16262,7 +16258,7 @@
       </c>
       <c r="Y22" s="54"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="55" t="str">
         <f>IF(Wind_overview_classifier!B23=0,"",Wind_overview_classifier!B23)</f>
         <v>US8K</v>
@@ -16352,7 +16348,7 @@
         <v>-7.3305794695187276E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
@@ -16442,7 +16438,7 @@
         <v>-0.19428799285871357</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="49" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
@@ -16532,7 +16528,7 @@
         <v>-6.8259235188211864E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="49" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
@@ -16622,7 +16618,7 @@
         <v>-5.7821717769824699E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
@@ -16712,7 +16708,7 @@
         <v>-3.1772301279066273E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="49" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
@@ -16802,7 +16798,7 @@
         <v>-3.9738486748595259E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="49" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
@@ -16892,7 +16888,7 @@
         <v>-7.1847142469436576E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="50" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
@@ -16982,7 +16978,7 @@
         <v>-0.11535844087849767</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>IF(Wind_overview_classifier!B31=0,"",Wind_overview_classifier!B31)</f>
         <v/>
@@ -17066,7 +17062,7 @@
       </c>
       <c r="Y31" s="54"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="str">
         <f>IF(Wind_overview_classifier!B32=0,"",Wind_overview_classifier!B32)</f>
         <v>US8K_AV</v>
@@ -17077,86 +17073,86 @@
       </c>
       <c r="D32" s="3">
         <f>IF(Wind_overview_classifier!D32=0,"",Wind_overview_classifier!D32)</f>
-        <v>0.7972973392603091</v>
+        <v>0.79685606289928201</v>
       </c>
       <c r="E32" s="8">
         <f>IF(Wind_overview_classifier!E32=0,"",Wind_overview_classifier!E32)</f>
-        <v>2.9799917499319852E-2</v>
+        <v>2.5556637756796532E-2</v>
       </c>
       <c r="F32" s="3">
         <f>IF(Wind_overview_classifier!F32=0,"",Wind_overview_classifier!F32)</f>
-        <v>0.79570142875971961</v>
+        <v>0.79937107128104834</v>
       </c>
       <c r="G32" s="8">
         <f>IF(Wind_overview_classifier!G32=0,"",Wind_overview_classifier!G32)</f>
-        <v>3.2927790182258901E-2</v>
+        <v>2.3126940609332992E-2</v>
       </c>
       <c r="H32" s="3">
         <f>IF(Wind_overview_classifier!H32=0,"",Wind_overview_classifier!H32)</f>
-        <v>0.77779596909280413</v>
+        <v>0.7726587345689524</v>
       </c>
       <c r="I32" s="8">
         <f>IF(Wind_overview_classifier!I32=0,"",Wind_overview_classifier!I32)</f>
-        <v>4.3843438436441631E-2</v>
+        <v>4.4407742565039147E-2</v>
       </c>
       <c r="J32" s="3">
         <f>IF(Wind_overview_classifier!J32=0,"",Wind_overview_classifier!J32)</f>
-        <v>0.76575044193742869</v>
+        <v>0.75605659842739636</v>
       </c>
       <c r="K32" s="13">
         <f>IF(Wind_overview_classifier!K32=0,"",Wind_overview_classifier!K32)</f>
-        <v>5.1004458425257179E-2</v>
+        <v>5.2700934650067567E-2</v>
       </c>
       <c r="L32" s="17">
         <f>IF(Wind_overview_classifier!L32=0,"",Wind_overview_classifier!L32)</f>
-        <v>0.7557248267530936</v>
+        <v>0.75591343865487037</v>
       </c>
       <c r="M32" s="8">
         <f>IF(Wind_overview_classifier!M32=0,"",Wind_overview_classifier!M32)</f>
-        <v>2.9727073855220359E-2</v>
+        <v>2.7195857811959736E-2</v>
       </c>
       <c r="N32" s="3">
         <f>IF(Wind_overview_classifier!N32=0,"",Wind_overview_classifier!N32)</f>
-        <v>0.7582108472157455</v>
+        <v>0.75727571245226477</v>
       </c>
       <c r="O32" s="8">
         <f>IF(Wind_overview_classifier!O32=0,"",Wind_overview_classifier!O32)</f>
-        <v>3.1247860280847091E-2</v>
+        <v>2.8487254767997346E-2</v>
       </c>
       <c r="P32" s="3">
         <f>IF(Wind_overview_classifier!P32=0,"",Wind_overview_classifier!P32)</f>
-        <v>0.74760922326572321</v>
+        <v>0.74163332161358497</v>
       </c>
       <c r="Q32" s="8">
         <f>IF(Wind_overview_classifier!Q32=0,"",Wind_overview_classifier!Q32)</f>
-        <v>4.8465845374751335E-2</v>
+        <v>4.1173182048756918E-2</v>
       </c>
       <c r="R32" s="3">
         <f>IF(Wind_overview_classifier!R32=0,"",Wind_overview_classifier!R32)</f>
-        <v>0.74399927722411296</v>
+        <v>0.73115886458317314</v>
       </c>
       <c r="S32" s="13">
         <f>IF(Wind_overview_classifier!S32=0,"",Wind_overview_classifier!S32)</f>
-        <v>4.6324915072879266E-2</v>
+        <v>4.0284146068368658E-2</v>
       </c>
       <c r="U32" s="44">
         <f>(L32/D32)-1</f>
-        <v>-5.2141792603728421E-2</v>
+        <v>-5.1380200453574942E-2</v>
       </c>
       <c r="V32" s="44">
         <f>(N32/F32)-1</f>
-        <v>-4.7116393396970047E-2</v>
+        <v>-5.266059823921676E-2</v>
       </c>
       <c r="X32" s="44">
         <f>(L32/Aug_overview_dataset!L32)-1</f>
-        <v>-5.8058251947209594E-2</v>
+        <v>-5.4410777915056996E-2</v>
       </c>
       <c r="Y32" s="44">
         <f>(N32/Aug_overview_dataset!N32)-1</f>
-        <v>-5.5599878431478067E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-5.2915939256235056E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="49" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
@@ -17167,86 +17163,86 @@
       </c>
       <c r="D33" s="5">
         <f>IF(Wind_overview_classifier!D33=0,"",Wind_overview_classifier!D33)</f>
-        <v>0.48196657163098883</v>
+        <v>0.49657025095158253</v>
       </c>
       <c r="E33" s="9">
         <f>IF(Wind_overview_classifier!E33=0,"",Wind_overview_classifier!E33)</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.4761144756903888E-2</v>
       </c>
       <c r="F33" s="5">
         <f>IF(Wind_overview_classifier!F33=0,"",Wind_overview_classifier!F33)</f>
-        <v>0.48196657163098883</v>
+        <v>0.5071873283646201</v>
       </c>
       <c r="G33" s="9">
         <f>IF(Wind_overview_classifier!G33=0,"",Wind_overview_classifier!G33)</f>
-        <v>4.2724417589569942E-2</v>
+        <v>3.1995627708423201E-2</v>
       </c>
       <c r="H33" s="5">
         <f>IF(Wind_overview_classifier!H33=0,"",Wind_overview_classifier!H33)</f>
-        <v>0.54528298875660608</v>
+        <v>0.55052400026466131</v>
       </c>
       <c r="I33" s="9">
         <f>IF(Wind_overview_classifier!I33=0,"",Wind_overview_classifier!I33)</f>
-        <v>4.8060034448072143E-2</v>
+        <v>4.416229282659357E-2</v>
       </c>
       <c r="J33" s="5">
         <f>IF(Wind_overview_classifier!J33=0,"",Wind_overview_classifier!J33)</f>
-        <v>0.4217335957075169</v>
+        <v>0.44353041192893611</v>
       </c>
       <c r="K33" s="14">
         <f>IF(Wind_overview_classifier!K33=0,"",Wind_overview_classifier!K33)</f>
-        <v>4.0239071061978299E-2</v>
+        <v>3.7646593296082193E-2</v>
       </c>
       <c r="L33" s="18">
         <f>IF(Wind_overview_classifier!L33=0,"",Wind_overview_classifier!L33)</f>
-        <v>0.48957223775483527</v>
+        <v>0.49709711743412849</v>
       </c>
       <c r="M33" s="9">
         <f>IF(Wind_overview_classifier!M33=0,"",Wind_overview_classifier!M33)</f>
-        <v>4.9659687282083718E-2</v>
+        <v>3.9158549815174859E-2</v>
       </c>
       <c r="N33" s="5">
         <f>IF(Wind_overview_classifier!N33=0,"",Wind_overview_classifier!N33)</f>
-        <v>0.48957223775483527</v>
+        <v>0.50882940266648624</v>
       </c>
       <c r="O33" s="9">
         <f>IF(Wind_overview_classifier!O33=0,"",Wind_overview_classifier!O33)</f>
-        <v>4.9659687282083718E-2</v>
+        <v>3.8118445064761128E-2</v>
       </c>
       <c r="P33" s="5">
         <f>IF(Wind_overview_classifier!P33=0,"",Wind_overview_classifier!P33)</f>
-        <v>0.52599261520951346</v>
+        <v>0.50884107441712167</v>
       </c>
       <c r="Q33" s="9">
         <f>IF(Wind_overview_classifier!Q33=0,"",Wind_overview_classifier!Q33)</f>
-        <v>5.1211869512347567E-2</v>
+        <v>4.2386706692464533E-2</v>
       </c>
       <c r="R33" s="5">
         <f>IF(Wind_overview_classifier!R33=0,"",Wind_overview_classifier!R33)</f>
-        <v>0.43134804197846599</v>
+        <v>0.41202621126853334</v>
       </c>
       <c r="S33" s="14">
         <f>IF(Wind_overview_classifier!S33=0,"",Wind_overview_classifier!S33)</f>
-        <v>4.4088415271054428E-2</v>
+        <v>3.621632839362391E-2</v>
       </c>
       <c r="U33" s="44">
         <f t="shared" ref="U33:U39" si="6">(L33/D33)-1</f>
-        <v>1.5780484729695399E-2</v>
+        <v>1.0610109678064195E-3</v>
       </c>
       <c r="V33" s="44">
         <f t="shared" ref="V33:V39" si="7">(N33/F33)-1</f>
-        <v>1.5780484729695399E-2</v>
+        <v>3.2376090845187555E-3</v>
       </c>
       <c r="X33" s="44">
         <f>(L33/Aug_overview_dataset!L33)-1</f>
-        <v>-5.2243660659643476E-2</v>
+        <v>-7.6750231993007123E-2</v>
       </c>
       <c r="Y33" s="44">
         <f>(N33/Aug_overview_dataset!N33)-1</f>
-        <v>-5.2243660659643476E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-6.2138101270161172E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
@@ -17257,86 +17253,86 @@
       </c>
       <c r="D34" s="5">
         <f>IF(Wind_overview_classifier!D34=0,"",Wind_overview_classifier!D34)</f>
-        <v>0.70835647933888224</v>
+        <v>0.70422281505660389</v>
       </c>
       <c r="E34" s="9">
         <f>IF(Wind_overview_classifier!E34=0,"",Wind_overview_classifier!E34)</f>
-        <v>5.6384196144537838E-2</v>
+        <v>4.6226281274783031E-2</v>
       </c>
       <c r="F34" s="5">
         <f>IF(Wind_overview_classifier!F34=0,"",Wind_overview_classifier!F34)</f>
-        <v>0.70661160534295786</v>
+        <v>0.70601388949456167</v>
       </c>
       <c r="G34" s="9">
         <f>IF(Wind_overview_classifier!G34=0,"",Wind_overview_classifier!G34)</f>
-        <v>5.2812149679155505E-2</v>
+        <v>4.1794659610647905E-2</v>
       </c>
       <c r="H34" s="5">
         <f>IF(Wind_overview_classifier!H34=0,"",Wind_overview_classifier!H34)</f>
-        <v>0.69749913126031071</v>
+        <v>0.69996377336455218</v>
       </c>
       <c r="I34" s="9">
         <f>IF(Wind_overview_classifier!I34=0,"",Wind_overview_classifier!I34)</f>
-        <v>5.6327248608898803E-2</v>
+        <v>4.8015522087302753E-2</v>
       </c>
       <c r="J34" s="5">
         <f>IF(Wind_overview_classifier!J34=0,"",Wind_overview_classifier!J34)</f>
-        <v>0.69680989336428267</v>
+        <v>0.69755741859185594</v>
       </c>
       <c r="K34" s="14">
         <f>IF(Wind_overview_classifier!K34=0,"",Wind_overview_classifier!K34)</f>
-        <v>5.7403524616080184E-2</v>
+        <v>4.8239878921871045E-2</v>
       </c>
       <c r="L34" s="18">
         <f>IF(Wind_overview_classifier!L34=0,"",Wind_overview_classifier!L34)</f>
-        <v>0.67136689139939265</v>
+        <v>0.66010191812406149</v>
       </c>
       <c r="M34" s="9">
         <f>IF(Wind_overview_classifier!M34=0,"",Wind_overview_classifier!M34)</f>
-        <v>5.6031930318796844E-2</v>
+        <v>4.2516813008564462E-2</v>
       </c>
       <c r="N34" s="5">
         <f>IF(Wind_overview_classifier!N34=0,"",Wind_overview_classifier!N34)</f>
-        <v>0.66725893722223373</v>
+        <v>0.6632837987518494</v>
       </c>
       <c r="O34" s="9">
         <f>IF(Wind_overview_classifier!O34=0,"",Wind_overview_classifier!O34)</f>
-        <v>6.1580422726649015E-2</v>
+        <v>4.8830134570874331E-2</v>
       </c>
       <c r="P34" s="5">
         <f>IF(Wind_overview_classifier!P34=0,"",Wind_overview_classifier!P34)</f>
-        <v>0.66552147048435162</v>
+        <v>0.65400605857245386</v>
       </c>
       <c r="Q34" s="9">
         <f>IF(Wind_overview_classifier!Q34=0,"",Wind_overview_classifier!Q34)</f>
-        <v>4.9417067243013112E-2</v>
+        <v>3.8746313772648783E-2</v>
       </c>
       <c r="R34" s="5">
         <f>IF(Wind_overview_classifier!R34=0,"",Wind_overview_classifier!R34)</f>
-        <v>0.65583687641288624</v>
+        <v>0.65051106462213704</v>
       </c>
       <c r="S34" s="14">
         <f>IF(Wind_overview_classifier!S34=0,"",Wind_overview_classifier!S34)</f>
-        <v>6.0124542664523085E-2</v>
+        <v>5.0893245309722293E-2</v>
       </c>
       <c r="U34" s="44">
         <f t="shared" si="6"/>
-        <v>-5.2218888396436292E-2</v>
+        <v>-6.2651899355172236E-2</v>
       </c>
       <c r="V34" s="44">
         <f t="shared" si="7"/>
-        <v>-5.5692077264460016E-2</v>
+        <v>-6.052301715098396E-2</v>
       </c>
       <c r="X34" s="44">
         <f>(L34/Aug_overview_dataset!L34)-1</f>
-        <v>-6.1066546767088892E-2</v>
+        <v>-6.7440263628554264E-2</v>
       </c>
       <c r="Y34" s="44">
         <f>(N34/Aug_overview_dataset!N34)-1</f>
-        <v>-3.8767566065699643E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-4.9160061745109562E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="49" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
@@ -17347,86 +17343,86 @@
       </c>
       <c r="D35" s="5">
         <f>IF(Wind_overview_classifier!D35=0,"",Wind_overview_classifier!D35)</f>
-        <v>0.80453799607709553</v>
+        <v>0.81158658581772891</v>
       </c>
       <c r="E35" s="9">
         <f>IF(Wind_overview_classifier!E35=0,"",Wind_overview_classifier!E35)</f>
-        <v>2.8490206680113914E-2</v>
+        <v>2.0759511166039319E-2</v>
       </c>
       <c r="F35" s="5">
         <f>IF(Wind_overview_classifier!F35=0,"",Wind_overview_classifier!F35)</f>
-        <v>0.79959678662626577</v>
+        <v>0.80861671685133651</v>
       </c>
       <c r="G35" s="9">
         <f>IF(Wind_overview_classifier!G35=0,"",Wind_overview_classifier!G35)</f>
-        <v>2.9489766665659032E-2</v>
+        <v>2.4087043295337805E-2</v>
       </c>
       <c r="H35" s="5">
         <f>IF(Wind_overview_classifier!H35=0,"",Wind_overview_classifier!H35)</f>
-        <v>0.80115620546733146</v>
+        <v>0.80873939283903373</v>
       </c>
       <c r="I35" s="9">
         <f>IF(Wind_overview_classifier!I35=0,"",Wind_overview_classifier!I35)</f>
-        <v>2.7926577722895089E-2</v>
+        <v>1.9236774435053481E-2</v>
       </c>
       <c r="J35" s="5">
         <f>IF(Wind_overview_classifier!J35=0,"",Wind_overview_classifier!J35)</f>
-        <v>0.79629022705530206</v>
+        <v>0.80623153255941804</v>
       </c>
       <c r="K35" s="14">
         <f>IF(Wind_overview_classifier!K35=0,"",Wind_overview_classifier!K35)</f>
-        <v>2.9314225100104077E-2</v>
+        <v>2.2856579517092381E-2</v>
       </c>
       <c r="L35" s="18">
         <f>IF(Wind_overview_classifier!L35=0,"",Wind_overview_classifier!L35)</f>
-        <v>0.78113103604673972</v>
+        <v>0.78867017206465406</v>
       </c>
       <c r="M35" s="9">
         <f>IF(Wind_overview_classifier!M35=0,"",Wind_overview_classifier!M35)</f>
-        <v>2.2968936578889543E-2</v>
+        <v>1.4924214988202008E-2</v>
       </c>
       <c r="N35" s="5">
         <f>IF(Wind_overview_classifier!N35=0,"",Wind_overview_classifier!N35)</f>
-        <v>0.77260657338769678</v>
+        <v>0.77735890882824321</v>
       </c>
       <c r="O35" s="9">
         <f>IF(Wind_overview_classifier!O35=0,"",Wind_overview_classifier!O35)</f>
-        <v>1.9100541118890688E-2</v>
+        <v>1.5878084514004968E-2</v>
       </c>
       <c r="P35" s="5">
         <f>IF(Wind_overview_classifier!P35=0,"",Wind_overview_classifier!P35)</f>
-        <v>0.77388656639180198</v>
+        <v>0.78200930393144452</v>
       </c>
       <c r="Q35" s="9">
         <f>IF(Wind_overview_classifier!Q35=0,"",Wind_overview_classifier!Q35)</f>
-        <v>2.2455114031678644E-2</v>
+        <v>1.3331314973843031E-2</v>
       </c>
       <c r="R35" s="5">
         <f>IF(Wind_overview_classifier!R35=0,"",Wind_overview_classifier!R35)</f>
-        <v>0.76712924023464879</v>
+        <v>0.77377392050342519</v>
       </c>
       <c r="S35" s="14">
         <f>IF(Wind_overview_classifier!S35=0,"",Wind_overview_classifier!S35)</f>
-        <v>1.6144021329263392E-2</v>
+        <v>1.3929774849661306E-2</v>
       </c>
       <c r="U35" s="44">
         <f t="shared" si="6"/>
-        <v>-2.9093666358192549E-2</v>
+        <v>-2.8236560526668897E-2</v>
       </c>
       <c r="V35" s="44">
         <f t="shared" si="7"/>
-        <v>-3.375477952137429E-2</v>
+        <v>-3.8655901333338405E-2</v>
       </c>
       <c r="X35" s="44">
         <f>(L35/Aug_overview_dataset!L35)-1</f>
-        <v>-4.3401153148552973E-2</v>
+        <v>-4.1373421527018506E-2</v>
       </c>
       <c r="Y35" s="44">
         <f>(N35/Aug_overview_dataset!N35)-1</f>
-        <v>-5.4846394492945927E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-5.4365459411869876E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
@@ -17437,86 +17433,86 @@
       </c>
       <c r="D36" s="5">
         <f>IF(Wind_overview_classifier!D36=0,"",Wind_overview_classifier!D36)</f>
-        <v>0.81292922128597112</v>
+        <v>0.81814143653174232</v>
       </c>
       <c r="E36" s="9">
         <f>IF(Wind_overview_classifier!E36=0,"",Wind_overview_classifier!E36)</f>
-        <v>2.8557872557761908E-2</v>
+        <v>2.3018366331703916E-2</v>
       </c>
       <c r="F36" s="5">
         <f>IF(Wind_overview_classifier!F36=0,"",Wind_overview_classifier!F36)</f>
-        <v>0.79392966363711737</v>
+        <v>0.79430199948850988</v>
       </c>
       <c r="G36" s="9">
         <f>IF(Wind_overview_classifier!G36=0,"",Wind_overview_classifier!G36)</f>
-        <v>2.6716187750093462E-2</v>
+        <v>2.716653588983135E-2</v>
       </c>
       <c r="H36" s="5">
         <f>IF(Wind_overview_classifier!H36=0,"",Wind_overview_classifier!H36)</f>
-        <v>0.81099967366658343</v>
+        <v>0.81652215154303698</v>
       </c>
       <c r="I36" s="9">
         <f>IF(Wind_overview_classifier!I36=0,"",Wind_overview_classifier!I36)</f>
-        <v>2.8514688114277639E-2</v>
+        <v>2.2179641522565293E-2</v>
       </c>
       <c r="J36" s="5">
         <f>IF(Wind_overview_classifier!J36=0,"",Wind_overview_classifier!J36)</f>
-        <v>0.79502000491363878</v>
+        <v>0.79730460100953204</v>
       </c>
       <c r="K36" s="14">
         <f>IF(Wind_overview_classifier!K36=0,"",Wind_overview_classifier!K36)</f>
-        <v>2.7012535108776787E-2</v>
+        <v>2.906541205229328E-2</v>
       </c>
       <c r="L36" s="18">
         <f>IF(Wind_overview_classifier!L36=0,"",Wind_overview_classifier!L36)</f>
-        <v>0.78437401554021213</v>
+        <v>0.7895808585437526</v>
       </c>
       <c r="M36" s="9">
         <f>IF(Wind_overview_classifier!M36=0,"",Wind_overview_classifier!M36)</f>
-        <v>1.9886200650298863E-2</v>
+        <v>1.8200090997685554E-2</v>
       </c>
       <c r="N36" s="5">
         <f>IF(Wind_overview_classifier!N36=0,"",Wind_overview_classifier!N36)</f>
-        <v>0.75526246968084054</v>
+        <v>0.74988423794618375</v>
       </c>
       <c r="O36" s="9">
         <f>IF(Wind_overview_classifier!O36=0,"",Wind_overview_classifier!O36)</f>
-        <v>1.9686557239742809E-2</v>
+        <v>2.693857744063597E-2</v>
       </c>
       <c r="P36" s="5">
         <f>IF(Wind_overview_classifier!P36=0,"",Wind_overview_classifier!P36)</f>
-        <v>0.78273054682813237</v>
+        <v>0.78741011558536511</v>
       </c>
       <c r="Q36" s="9">
         <f>IF(Wind_overview_classifier!Q36=0,"",Wind_overview_classifier!Q36)</f>
-        <v>1.9810556955368187E-2</v>
+        <v>1.6031605331770369E-2</v>
       </c>
       <c r="R36" s="5">
         <f>IF(Wind_overview_classifier!R36=0,"",Wind_overview_classifier!R36)</f>
-        <v>0.76173999084002963</v>
+        <v>0.75887033695154893</v>
       </c>
       <c r="S36" s="14">
         <f>IF(Wind_overview_classifier!S36=0,"",Wind_overview_classifier!S36)</f>
-        <v>1.6176207331247201E-2</v>
+        <v>1.9587671820538728E-2</v>
       </c>
       <c r="U36" s="44">
         <f t="shared" si="6"/>
-        <v>-3.5126312350523659E-2</v>
+        <v>-3.4909096047088695E-2</v>
       </c>
       <c r="V36" s="44">
         <f t="shared" si="7"/>
-        <v>-4.8703551117030064E-2</v>
+        <v>-5.5920495694243399E-2</v>
       </c>
       <c r="X36" s="44">
         <f>(L36/Aug_overview_dataset!L36)-1</f>
-        <v>-4.8633521273696356E-2</v>
+        <v>-5.0310019664069006E-2</v>
       </c>
       <c r="Y36" s="44">
         <f>(N36/Aug_overview_dataset!N36)-1</f>
-        <v>-3.2805397651400003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-3.9384666074033903E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
@@ -17527,86 +17523,86 @@
       </c>
       <c r="D37" s="5">
         <f>IF(Wind_overview_classifier!D37=0,"",Wind_overview_classifier!D37)</f>
-        <v>0.7683641959493932</v>
+        <v>0.7817151688113988</v>
       </c>
       <c r="E37" s="9">
         <f>IF(Wind_overview_classifier!E37=0,"",Wind_overview_classifier!E37)</f>
-        <v>4.4711832607749746E-2</v>
+        <v>3.4133250260485568E-2</v>
       </c>
       <c r="F37" s="5">
         <f>IF(Wind_overview_classifier!F37=0,"",Wind_overview_classifier!F37)</f>
-        <v>0.77034779544724286</v>
+        <v>0.78218852362504021</v>
       </c>
       <c r="G37" s="9">
         <f>IF(Wind_overview_classifier!G37=0,"",Wind_overview_classifier!G37)</f>
-        <v>4.4457358474735323E-2</v>
+        <v>3.7720664706480132E-2</v>
       </c>
       <c r="H37" s="5">
         <f>IF(Wind_overview_classifier!H37=0,"",Wind_overview_classifier!H37)</f>
-        <v>0.77889865973726458</v>
+        <v>0.79003340520322451</v>
       </c>
       <c r="I37" s="9">
         <f>IF(Wind_overview_classifier!I37=0,"",Wind_overview_classifier!I37)</f>
-        <v>4.1426514744533634E-2</v>
+        <v>3.2876169332547667E-2</v>
       </c>
       <c r="J37" s="5">
         <f>IF(Wind_overview_classifier!J37=0,"",Wind_overview_classifier!J37)</f>
-        <v>0.76788741319815368</v>
+        <v>0.77746201326634512</v>
       </c>
       <c r="K37" s="14">
         <f>IF(Wind_overview_classifier!K37=0,"",Wind_overview_classifier!K37)</f>
-        <v>4.510405483458E-2</v>
+        <v>3.8454847890093409E-2</v>
       </c>
       <c r="L37" s="18">
         <f>IF(Wind_overview_classifier!L37=0,"",Wind_overview_classifier!L37)</f>
-        <v>0.74136424025663727</v>
+        <v>0.75571543231793448</v>
       </c>
       <c r="M37" s="9">
         <f>IF(Wind_overview_classifier!M37=0,"",Wind_overview_classifier!M37)</f>
-        <v>4.2058824085741506E-2</v>
+        <v>3.2225763804561137E-2</v>
       </c>
       <c r="N37" s="5">
         <f>IF(Wind_overview_classifier!N37=0,"",Wind_overview_classifier!N37)</f>
-        <v>0.74063886554690017</v>
+        <v>0.75530621817011356</v>
       </c>
       <c r="O37" s="9">
         <f>IF(Wind_overview_classifier!O37=0,"",Wind_overview_classifier!O37)</f>
-        <v>3.6798951598203018E-2</v>
+        <v>2.9714421947440325E-2</v>
       </c>
       <c r="P37" s="5">
         <f>IF(Wind_overview_classifier!P37=0,"",Wind_overview_classifier!P37)</f>
-        <v>0.75306800677409635</v>
+        <v>0.7656814022193752</v>
       </c>
       <c r="Q37" s="9">
         <f>IF(Wind_overview_classifier!Q37=0,"",Wind_overview_classifier!Q37)</f>
-        <v>3.356066209991504E-2</v>
+        <v>2.5542008266531198E-2</v>
       </c>
       <c r="R37" s="5">
         <f>IF(Wind_overview_classifier!R37=0,"",Wind_overview_classifier!R37)</f>
-        <v>0.73409260132094223</v>
+        <v>0.74493097921128448</v>
       </c>
       <c r="S37" s="14">
         <f>IF(Wind_overview_classifier!S37=0,"",Wind_overview_classifier!S37)</f>
-        <v>3.4209989082940089E-2</v>
+        <v>2.7874808831604404E-2</v>
       </c>
       <c r="U37" s="44">
         <f t="shared" si="6"/>
-        <v>-3.5139528670248277E-2</v>
+        <v>-3.3259859256661306E-2</v>
       </c>
       <c r="V37" s="44">
         <f t="shared" si="7"/>
-        <v>-3.8565606438965006E-2</v>
+        <v>-3.4368064274762133E-2</v>
       </c>
       <c r="X37" s="44">
         <f>(L37/Aug_overview_dataset!L37)-1</f>
-        <v>-4.7148954107983143E-2</v>
+        <v>-4.5744023258836308E-2</v>
       </c>
       <c r="Y37" s="44">
         <f>(N37/Aug_overview_dataset!N37)-1</f>
-        <v>-3.7572018378831284E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-3.7631188310879193E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
@@ -17617,86 +17613,86 @@
       </c>
       <c r="D38" s="5">
         <f>IF(Wind_overview_classifier!D38=0,"",Wind_overview_classifier!D38)</f>
-        <v>0.82897412409023341</v>
+        <v>0.83787028707659383</v>
       </c>
       <c r="E38" s="9">
         <f>IF(Wind_overview_classifier!E38=0,"",Wind_overview_classifier!E38)</f>
-        <v>4.2736433664886317E-2</v>
+        <v>3.3815601460065667E-2</v>
       </c>
       <c r="F38" s="5">
         <f>IF(Wind_overview_classifier!F38=0,"",Wind_overview_classifier!F38)</f>
-        <v>0.82485750093941079</v>
+        <v>0.82940175695929308</v>
       </c>
       <c r="G38" s="9">
         <f>IF(Wind_overview_classifier!G38=0,"",Wind_overview_classifier!G38)</f>
-        <v>3.2967810235262927E-2</v>
+        <v>3.1683881341725117E-2</v>
       </c>
       <c r="H38" s="5">
         <f>IF(Wind_overview_classifier!H38=0,"",Wind_overview_classifier!H38)</f>
-        <v>0.82087275091355316</v>
+        <v>0.82241997347503892</v>
       </c>
       <c r="I38" s="9">
         <f>IF(Wind_overview_classifier!I38=0,"",Wind_overview_classifier!I38)</f>
-        <v>3.0259664592750531E-2</v>
+        <v>2.9458457972484569E-2</v>
       </c>
       <c r="J38" s="5">
         <f>IF(Wind_overview_classifier!J38=0,"",Wind_overview_classifier!J38)</f>
-        <v>0.8231062972590838</v>
+        <v>0.82629089838515901</v>
       </c>
       <c r="K38" s="14">
         <f>IF(Wind_overview_classifier!K38=0,"",Wind_overview_classifier!K38)</f>
-        <v>3.2385722470175293E-2</v>
+        <v>3.1179044295243472E-2</v>
       </c>
       <c r="L38" s="18">
         <f>IF(Wind_overview_classifier!L38=0,"",Wind_overview_classifier!L38)</f>
-        <v>0.7883406972830419</v>
+        <v>0.77929670054936206</v>
       </c>
       <c r="M38" s="9">
         <f>IF(Wind_overview_classifier!M38=0,"",Wind_overview_classifier!M38)</f>
-        <v>2.9857760862252333E-2</v>
+        <v>3.2923659184004826E-2</v>
       </c>
       <c r="N38" s="5">
         <f>IF(Wind_overview_classifier!N38=0,"",Wind_overview_classifier!N38)</f>
-        <v>0.7842064412493881</v>
+        <v>0.77255069058579928</v>
       </c>
       <c r="O38" s="9">
         <f>IF(Wind_overview_classifier!O38=0,"",Wind_overview_classifier!O38)</f>
-        <v>3.2836719530063022E-2</v>
+        <v>2.6872443820207505E-2</v>
       </c>
       <c r="P38" s="5">
         <f>IF(Wind_overview_classifier!P38=0,"",Wind_overview_classifier!P38)</f>
-        <v>0.78256005684226471</v>
+        <v>0.77221474486239505</v>
       </c>
       <c r="Q38" s="9">
         <f>IF(Wind_overview_classifier!Q38=0,"",Wind_overview_classifier!Q38)</f>
-        <v>2.5292804700386348E-2</v>
+        <v>1.9176426283640146E-2</v>
       </c>
       <c r="R38" s="5">
         <f>IF(Wind_overview_classifier!R38=0,"",Wind_overview_classifier!R38)</f>
-        <v>0.77960812680400204</v>
+        <v>0.76649103972010768</v>
       </c>
       <c r="S38" s="14">
         <f>IF(Wind_overview_classifier!S38=0,"",Wind_overview_classifier!S38)</f>
-        <v>3.1569943516940611E-2</v>
+        <v>2.6347147377501812E-2</v>
       </c>
       <c r="U38" s="44">
         <f t="shared" si="6"/>
-        <v>-4.9016520089556592E-2</v>
+        <v>-6.9907702219158985E-2</v>
       </c>
       <c r="V38" s="44">
         <f t="shared" si="7"/>
-        <v>-4.928252412535028E-2</v>
+        <v>-6.8544665955276085E-2</v>
       </c>
       <c r="X38" s="44">
         <f>(L38/Aug_overview_dataset!L38)-1</f>
-        <v>-4.7884487091199635E-2</v>
+        <v>-6.5064747486055952E-2</v>
       </c>
       <c r="Y38" s="44">
         <f>(N38/Aug_overview_dataset!N38)-1</f>
-        <v>-4.8684375423865722E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-7.3449125638510915E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" s="50" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
@@ -17707,94 +17703,94 @@
       </c>
       <c r="D39" s="7">
         <f>IF(Wind_overview_classifier!D39=0,"",Wind_overview_classifier!D39)</f>
-        <v>0.82549160089031459</v>
+        <v>0.82530029340908606</v>
       </c>
       <c r="E39" s="10">
         <f>IF(Wind_overview_classifier!E39=0,"",Wind_overview_classifier!E39)</f>
-        <v>3.9265422347612683E-2</v>
+        <v>3.4563329556152662E-2</v>
       </c>
       <c r="F39" s="7">
         <f>IF(Wind_overview_classifier!F39=0,"",Wind_overview_classifier!F39)</f>
-        <v>0.82387697359176837</v>
+        <v>0.83161644973618798</v>
       </c>
       <c r="G39" s="10">
         <f>IF(Wind_overview_classifier!G39=0,"",Wind_overview_classifier!G39)</f>
-        <v>3.6494724901016677E-2</v>
+        <v>3.0703608123118013E-2</v>
       </c>
       <c r="H39" s="7">
         <f>IF(Wind_overview_classifier!H39=0,"",Wind_overview_classifier!H39)</f>
-        <v>0.80630205013882272</v>
+        <v>0.80589075162748569</v>
       </c>
       <c r="I39" s="10">
         <f>IF(Wind_overview_classifier!I39=0,"",Wind_overview_classifier!I39)</f>
-        <v>3.5283848724283015E-2</v>
+        <v>3.8185560677824519E-2</v>
       </c>
       <c r="J39" s="7">
         <f>IF(Wind_overview_classifier!J39=0,"",Wind_overview_classifier!J39)</f>
-        <v>0.80363044351692936</v>
+        <v>0.80636903958372697</v>
       </c>
       <c r="K39" s="15">
         <f>IF(Wind_overview_classifier!K39=0,"",Wind_overview_classifier!K39)</f>
-        <v>3.2767379348069225E-2</v>
+        <v>3.0316454896473052E-2</v>
       </c>
       <c r="L39" s="19">
         <f>IF(Wind_overview_classifier!L39=0,"",Wind_overview_classifier!L39)</f>
-        <v>0.77903890059475533</v>
+        <v>0.76692274346493328</v>
       </c>
       <c r="M39" s="10">
         <f>IF(Wind_overview_classifier!M39=0,"",Wind_overview_classifier!M39)</f>
-        <v>3.752082182218807E-2</v>
+        <v>3.7374373477335611E-2</v>
       </c>
       <c r="N39" s="7">
         <f>IF(Wind_overview_classifier!N39=0,"",Wind_overview_classifier!N39)</f>
-        <v>0.78047937427952208</v>
+        <v>0.78113204562593841</v>
       </c>
       <c r="O39" s="10">
         <f>IF(Wind_overview_classifier!O39=0,"",Wind_overview_classifier!O39)</f>
-        <v>2.8256014697105956E-2</v>
+        <v>2.8033635560981509E-2</v>
       </c>
       <c r="P39" s="7">
         <f>IF(Wind_overview_classifier!P39=0,"",Wind_overview_classifier!P39)</f>
-        <v>0.75646478953879492</v>
+        <v>0.74809049518117843</v>
       </c>
       <c r="Q39" s="10">
         <f>IF(Wind_overview_classifier!Q39=0,"",Wind_overview_classifier!Q39)</f>
-        <v>3.2824605321873292E-2</v>
+        <v>2.6734458248211749E-2</v>
       </c>
       <c r="R39" s="7">
         <f>IF(Wind_overview_classifier!R39=0,"",Wind_overview_classifier!R39)</f>
-        <v>0.76056428007477661</v>
+        <v>0.75281219879949024</v>
       </c>
       <c r="S39" s="15">
         <f>IF(Wind_overview_classifier!S39=0,"",Wind_overview_classifier!S39)</f>
-        <v>3.0912759087555291E-2</v>
+        <v>3.6357339203140632E-2</v>
       </c>
       <c r="U39" s="44">
         <f t="shared" si="6"/>
-        <v>-5.6272771576911018E-2</v>
+        <v>-7.0734919653319572E-2</v>
       </c>
       <c r="V39" s="44">
         <f t="shared" si="7"/>
-        <v>-5.2674854017403128E-2</v>
+        <v>-6.0706355828176073E-2</v>
       </c>
       <c r="X39" s="44">
         <f>(L39/Aug_overview_dataset!L39)-1</f>
-        <v>-4.8707814397667804E-2</v>
+        <v>-6.9259167049954051E-2</v>
       </c>
       <c r="Y39" s="44">
         <f>(N39/Aug_overview_dataset!N39)-1</f>
-        <v>-4.3583122843558919E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
+        <v>-4.8129389550780499E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="U40" s="54">
         <f>AVERAGE(U32:V39)</f>
-        <v>-3.7702393529234927E-2</v>
+        <v>-4.4885044745957267E-2</v>
       </c>
       <c r="V40" s="54"/>
       <c r="X40" s="54">
         <f>AVERAGE(X32:Y39)</f>
-        <v>-4.8202925208779057E-2</v>
+        <v>-5.5470411486258274E-2</v>
       </c>
       <c r="Y40" s="54"/>
     </row>
@@ -17907,21 +17903,21 @@
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
     <col min="17" max="25" width="5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
     <col min="27" max="32" width="5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -17938,7 +17934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -17955,7 +17951,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -17972,7 +17968,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -17989,7 +17985,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18006,7 +18002,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -18023,7 +18019,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -18057,7 +18053,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -18074,7 +18070,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -18091,7 +18087,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -18108,7 +18104,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -18125,7 +18121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -18142,7 +18138,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -18159,7 +18155,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -18176,7 +18172,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -18193,7 +18189,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -18210,7 +18206,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -18227,7 +18223,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -18244,7 +18240,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -18261,7 +18257,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -18278,7 +18274,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -18295,7 +18291,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -18312,7 +18308,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -18346,7 +18342,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -18363,7 +18359,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -18380,7 +18376,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -18397,7 +18393,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -18414,7 +18410,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -18431,7 +18427,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -18448,7 +18444,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -18465,7 +18461,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -18482,7 +18478,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -18499,7 +18495,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -18516,7 +18512,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -18533,7 +18529,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -18550,7 +18546,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -18567,7 +18563,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -18584,7 +18580,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -18601,7 +18597,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -18618,7 +18614,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -18652,7 +18648,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -18669,7 +18665,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -18686,7 +18682,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -18703,7 +18699,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -18720,7 +18716,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -18737,7 +18733,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -18754,7 +18750,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -18771,7 +18767,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -18788,7 +18784,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -18805,7 +18801,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -18822,7 +18818,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -18839,7 +18835,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -18856,7 +18852,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -18873,7 +18869,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -18890,7 +18886,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -18907,7 +18903,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -18924,7 +18920,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -18941,7 +18937,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -18958,7 +18954,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -18975,7 +18971,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -18992,7 +18988,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -19009,7 +19005,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -19026,7 +19022,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -19043,7 +19039,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -19060,7 +19056,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -19077,7 +19073,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -19094,7 +19090,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -19111,7 +19107,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -19128,7 +19124,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -19145,7 +19141,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -19162,7 +19158,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -19179,7 +19175,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -19196,7 +19192,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
@@ -19213,7 +19209,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
@@ -19230,7 +19226,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -19247,7 +19243,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
@@ -19264,7 +19260,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>33</v>
       </c>
@@ -19281,7 +19277,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -19298,7 +19294,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>33</v>
       </c>
@@ -19315,7 +19311,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -19332,7 +19328,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -19349,7 +19345,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -19366,7 +19362,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -19383,7 +19379,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
@@ -19400,7 +19396,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -19417,7 +19413,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -19434,7 +19430,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
@@ -19451,7 +19447,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>33</v>
       </c>
@@ -19468,7 +19464,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
@@ -19485,7 +19481,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>33</v>
       </c>
@@ -19502,7 +19498,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -19519,7 +19515,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -19536,7 +19532,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>33</v>
       </c>
@@ -19553,7 +19549,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -19570,7 +19566,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -19587,7 +19583,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>33</v>
       </c>
@@ -19604,7 +19600,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -19621,7 +19617,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -19638,7 +19634,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>34</v>
       </c>
@@ -19649,7 +19645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="45" t="s">
         <v>5</v>
       </c>
@@ -19660,7 +19656,7 @@
         <v>0.82100000000000017</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="46" t="s">
         <v>28</v>
       </c>
@@ -19671,7 +19667,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="46" t="s">
         <v>29</v>
       </c>
@@ -19682,7 +19678,7 @@
         <v>0.82300000000000006</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="46" t="s">
         <v>30</v>
       </c>
@@ -19693,7 +19689,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="46" t="s">
         <v>31</v>
       </c>
@@ -19704,7 +19700,7 @@
         <v>0.80899999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="46" t="s">
         <v>32</v>
       </c>
@@ -19715,7 +19711,7 @@
         <v>0.82000000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="45" t="s">
         <v>33</v>
       </c>
@@ -19726,7 +19722,7 @@
         <v>0.80639999999999989</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="46" t="s">
         <v>28</v>
       </c>
@@ -19737,7 +19733,7 @@
         <v>0.86399999999999988</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="46" t="s">
         <v>29</v>
       </c>
@@ -19748,7 +19744,7 @@
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="46" t="s">
         <v>30</v>
       </c>
@@ -19759,7 +19755,7 @@
         <v>0.80299999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="46" t="s">
         <v>31</v>
       </c>
@@ -19770,7 +19766,7 @@
         <v>0.79400000000000015</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="46" t="s">
         <v>32</v>
       </c>
@@ -19781,7 +19777,7 @@
         <v>0.77700000000000014</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
         <v>37</v>
       </c>
@@ -19792,31 +19788,31 @@
         <v>0.81369999999999976</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>38</v>
       </c>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B123"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C124" s="44">
         <f>_xlfn.STDEV.P(C108:C112)</f>
         <v>6.5421708935184597E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C125" s="44"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C126" s="44">
         <f>_xlfn.STDEV.P(C114:C118)</f>
         <v>3.0003999733368796E-2</v>

--- a/_analysis/_Results_compilation_training_flow_2024_06.xlsx
+++ b/_analysis/_Results_compilation_training_flow_2024_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344D8EB-CA84-419E-B0C5-DCF36AEC8CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B8B54-2838-4A40-B98A-DB26333763AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug_overview_classifier" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
   <si>
     <t>Mean</t>
   </si>
@@ -125,51 +122,6 @@
   </si>
   <si>
     <t>US8K_AV</t>
-  </si>
-  <si>
-    <t>Fold</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>background</t>
-  </si>
-  <si>
-    <t>car_horn</t>
-  </si>
-  <si>
-    <t>childreen_playing</t>
-  </si>
-  <si>
-    <t>dog_bark</t>
-  </si>
-  <si>
-    <t>siren</t>
-  </si>
-  <si>
-    <t>CNN_1D</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Average of precision</t>
-  </si>
-  <si>
-    <t>Average of recall</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Original_standardized (no PCA)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,12 +568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4228,1002 +4174,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Florentino, Andre Luiz" refreshedDate="45333.581359953707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="100" xr:uid="{49C3274A-42CF-4391-BADA-1E61FC86532A}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E101" sheet="Sheet1" r:id="rId2"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Model" numFmtId="0">
-      <sharedItems count="2">
-        <s v="ANN"/>
-        <s v="CNN_1D"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Fold" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="Class" numFmtId="0">
-      <sharedItems count="5">
-        <s v="background"/>
-        <s v="car_horn"/>
-        <s v="childreen_playing"/>
-        <s v="dog_bark"/>
-        <s v="siren"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="precision" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.6" maxValue="1" count="32">
-        <n v="0.69"/>
-        <n v="0.89"/>
-        <n v="0.65"/>
-        <n v="0.74"/>
-        <n v="0.97"/>
-        <n v="0.72"/>
-        <n v="0.6"/>
-        <n v="0.8"/>
-        <n v="0.93"/>
-        <n v="0.77"/>
-        <n v="0.88"/>
-        <n v="0.78"/>
-        <n v="0.71"/>
-        <n v="0.86"/>
-        <n v="0.79"/>
-        <n v="0.73"/>
-        <n v="0.9"/>
-        <n v="0.87"/>
-        <n v="0.76"/>
-        <n v="0.82"/>
-        <n v="0.81"/>
-        <n v="0.83"/>
-        <n v="0.75"/>
-        <n v="0.95"/>
-        <n v="0.94"/>
-        <n v="0.84"/>
-        <n v="0.85"/>
-        <n v="0.91"/>
-        <n v="0.64"/>
-        <n v="0.92"/>
-        <n v="0.68"/>
-        <n v="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="recall" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.52" maxValue="0.98"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="100">
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.57999999999999996"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="0.68"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="0.82"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <n v="0.92"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0.7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0.56999999999999995"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-    <n v="0.86"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="3"/>
-    <x v="8"/>
-    <n v="0.9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="4"/>
-    <x v="9"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <x v="0"/>
-    <x v="10"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <x v="2"/>
-    <x v="12"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <x v="3"/>
-    <x v="13"/>
-    <n v="0.83"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="10"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="0.64"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="0"/>
-    <x v="11"/>
-    <n v="0.86"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="0.93"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="2"/>
-    <x v="5"/>
-    <n v="0.73"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="3"/>
-    <x v="13"/>
-    <n v="0.69"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="8"/>
-    <x v="4"/>
-    <x v="14"/>
-    <n v="0.88"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <x v="0"/>
-    <x v="15"/>
-    <n v="0.87"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <x v="2"/>
-    <x v="16"/>
-    <n v="0.79"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <x v="3"/>
-    <x v="17"/>
-    <n v="0.83"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="6"/>
-    <x v="4"/>
-    <x v="18"/>
-    <n v="0.7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <x v="0"/>
-    <x v="19"/>
-    <n v="0.87"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <x v="2"/>
-    <x v="9"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <x v="3"/>
-    <x v="19"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="5"/>
-    <x v="4"/>
-    <x v="20"/>
-    <n v="0.94"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <x v="0"/>
-    <x v="21"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <x v="1"/>
-    <x v="19"/>
-    <n v="0.82"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <x v="2"/>
-    <x v="10"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <x v="3"/>
-    <x v="7"/>
-    <n v="0.9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="7"/>
-    <x v="4"/>
-    <x v="21"/>
-    <n v="0.81"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="0.83"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0.95"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="22"/>
-    <n v="0.92"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="3"/>
-    <x v="13"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <x v="0"/>
-    <x v="9"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <x v="1"/>
-    <x v="24"/>
-    <n v="0.97"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <x v="2"/>
-    <x v="25"/>
-    <n v="0.86"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <x v="3"/>
-    <x v="26"/>
-    <n v="0.7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="9"/>
-    <x v="4"/>
-    <x v="8"/>
-    <n v="0.94"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="13"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="1"/>
-    <x v="13"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0.94"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="1"/>
-    <x v="4"/>
-    <x v="27"/>
-    <n v="0.81"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <x v="0"/>
-    <x v="28"/>
-    <n v="0.81"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <x v="1"/>
-    <x v="29"/>
-    <n v="0.57999999999999996"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <x v="2"/>
-    <x v="30"/>
-    <n v="0.56000000000000005"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <x v="3"/>
-    <x v="12"/>
-    <n v="0.88"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <x v="4"/>
-    <x v="23"/>
-    <n v="0.87"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <x v="0"/>
-    <x v="30"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <x v="1"/>
-    <x v="15"/>
-    <n v="0.52"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0.87"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2"/>
-    <x v="4"/>
-    <x v="20"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0.91"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0.82"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10"/>
-    <x v="2"/>
-    <x v="22"/>
-    <n v="0.82"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10"/>
-    <x v="3"/>
-    <x v="12"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="10"/>
-    <x v="4"/>
-    <x v="25"/>
-    <n v="0.55000000000000004"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <x v="1"/>
-    <x v="20"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0.79"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <x v="3"/>
-    <x v="26"/>
-    <n v="0.88"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="7"/>
-    <x v="4"/>
-    <x v="14"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="8"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="0.93"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="8"/>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="0.93"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="8"/>
-    <x v="2"/>
-    <x v="30"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="8"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="0.7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="8"/>
-    <x v="4"/>
-    <x v="25"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <x v="0"/>
-    <x v="21"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <x v="1"/>
-    <x v="16"/>
-    <n v="0.81"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <x v="2"/>
-    <x v="14"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <x v="3"/>
-    <x v="15"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="5"/>
-    <x v="4"/>
-    <x v="20"/>
-    <n v="0.87"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0.94"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <x v="1"/>
-    <x v="31"/>
-    <n v="0.79"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <x v="2"/>
-    <x v="10"/>
-    <n v="0.84"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <x v="3"/>
-    <x v="25"/>
-    <n v="0.77"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="6"/>
-    <x v="4"/>
-    <x v="26"/>
-    <n v="0.74"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0.91"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="9"/>
-    <n v="0.85"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="3"/>
-    <x v="20"/>
-    <n v="0.8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="4"/>
-    <x v="23"/>
-    <n v="0.82"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <x v="0"/>
-    <x v="15"/>
-    <n v="0.98"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <x v="1"/>
-    <x v="31"/>
-    <n v="0.94"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0.83"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <x v="3"/>
-    <x v="13"/>
-    <n v="0.65"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="9"/>
-    <x v="4"/>
-    <x v="24"/>
-    <n v="0.83"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.89"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="2"/>
-    <x v="18"/>
-    <n v="0.9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="3"/>
-    <x v="8"/>
-    <n v="0.78"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="1"/>
-    <x v="4"/>
-    <x v="8"/>
-    <n v="0.77"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9257C7E6-E244-4FA1-8E74-D2373FFE3A08}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A106:C119" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="33">
-        <item x="6"/>
-        <item x="28"/>
-        <item x="2"/>
-        <item x="30"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="3"/>
-        <item x="22"/>
-        <item x="18"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="14"/>
-        <item x="7"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="16"/>
-        <item x="27"/>
-        <item x="29"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="4"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of precision" fld="3" subtotal="average" baseField="2" baseItem="0"/>
-    <dataField name="Average of recall" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="4">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="5">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5546,38 +4496,38 @@
       <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="47" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5680,7 +4630,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5752,7 +4702,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -5822,7 +4772,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -5892,7 +4842,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
@@ -5962,7 +4912,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -6032,7 +4982,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6102,7 +5052,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -6172,7 +5122,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
@@ -6262,7 +5212,7 @@
       <c r="S13" s="34"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6334,7 +5284,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -6404,7 +5354,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
@@ -6474,7 +5424,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
@@ -6544,7 +5494,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -6614,7 +5564,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
@@ -6684,7 +5634,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
@@ -6754,7 +5704,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
@@ -6844,7 +5794,7 @@
       <c r="S22" s="34"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6916,7 +5866,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -6986,7 +5936,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
@@ -7056,7 +6006,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -7126,7 +6076,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
@@ -7196,7 +6146,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
@@ -7266,7 +6216,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
@@ -7336,7 +6286,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +6376,7 @@
       <c r="S31" s="34"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7498,7 +6448,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
@@ -7568,7 +6518,7 @@
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
@@ -7638,7 +6588,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
@@ -7708,7 +6658,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +6728,7 @@
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
@@ -7848,7 +6798,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
@@ -7918,7 +6868,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="50"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
@@ -7996,186 +6946,6 @@
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -8188,7 +6958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
+  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -8308,7 +7078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
+  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8380,6 +7150,186 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8414,67 +7364,67 @@
         <f>IF(Aug_overview_classifier!C2=0,"",Aug_overview_classifier!C2)</f>
         <v>Classifiers</v>
       </c>
-      <c r="D2" s="51" t="str">
+      <c r="D2" s="49" t="str">
         <f>IF(Aug_overview_classifier!D2=0,"",Aug_overview_classifier!D2)</f>
         <v>Augmented</v>
       </c>
-      <c r="E2" s="52" t="str">
+      <c r="E2" s="50" t="str">
         <f>IF(Aug_overview_classifier!E2=0,"",Aug_overview_classifier!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="52" t="str">
+      <c r="F2" s="50" t="str">
         <f>IF(Aug_overview_classifier!F2=0,"",Aug_overview_classifier!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="52" t="str">
+      <c r="G2" s="50" t="str">
         <f>IF(Aug_overview_classifier!G2=0,"",Aug_overview_classifier!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="52" t="str">
+      <c r="H2" s="50" t="str">
         <f>IF(Aug_overview_classifier!H2=0,"",Aug_overview_classifier!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="52" t="str">
+      <c r="I2" s="50" t="str">
         <f>IF(Aug_overview_classifier!I2=0,"",Aug_overview_classifier!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="52" t="str">
+      <c r="J2" s="50" t="str">
         <f>IF(Aug_overview_classifier!J2=0,"",Aug_overview_classifier!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="53" t="str">
+      <c r="K2" s="51" t="str">
         <f>IF(Aug_overview_classifier!K2=0,"",Aug_overview_classifier!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="47" t="str">
+      <c r="L2" s="45" t="str">
         <f>IF(Aug_overview_classifier!L2=0,"",Aug_overview_classifier!L2)</f>
         <v>Original</v>
       </c>
-      <c r="M2" s="48" t="str">
+      <c r="M2" s="46" t="str">
         <f>IF(Aug_overview_classifier!M2=0,"",Aug_overview_classifier!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="48" t="str">
+      <c r="N2" s="46" t="str">
         <f>IF(Aug_overview_classifier!N2=0,"",Aug_overview_classifier!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="48" t="str">
+      <c r="O2" s="46" t="str">
         <f>IF(Aug_overview_classifier!O2=0,"",Aug_overview_classifier!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="48" t="str">
+      <c r="P2" s="46" t="str">
         <f>IF(Aug_overview_classifier!P2=0,"",Aug_overview_classifier!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="48" t="str">
+      <c r="Q2" s="46" t="str">
         <f>IF(Aug_overview_classifier!Q2=0,"",Aug_overview_classifier!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="48" t="str">
+      <c r="R2" s="46" t="str">
         <f>IF(Aug_overview_classifier!R2=0,"",Aug_overview_classifier!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="48" t="str">
+      <c r="S2" s="46" t="str">
         <f>IF(Aug_overview_classifier!S2=0,"",Aug_overview_classifier!S2)</f>
         <v/>
       </c>
@@ -8628,7 +7578,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="53" t="str">
         <f>IF(Aug_overview_classifier!B5=0,"",Aug_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -8710,7 +7660,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="str">
+      <c r="B6" s="47" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
       </c>
@@ -8792,7 +7742,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="str">
+      <c r="B7" s="47" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
       </c>
@@ -8874,7 +7824,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="str">
+      <c r="B8" s="47" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
       </c>
@@ -8956,7 +7906,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="str">
+      <c r="B9" s="47" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
       </c>
@@ -9038,7 +7988,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="str">
+      <c r="B10" s="47" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
       </c>
@@ -9120,7 +8070,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="str">
+      <c r="B11" s="47" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
       </c>
@@ -9202,7 +8152,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="str">
+      <c r="B12" s="48" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
       </c>
@@ -9356,14 +8306,14 @@
         <f>IF(Aug_overview_classifier!S13=0,"",Aug_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="54">
+      <c r="U13" s="52">
         <f>AVERAGE(U5:V12)</f>
         <v>9.931847414804941E-3</v>
       </c>
-      <c r="V13" s="54"/>
+      <c r="V13" s="52"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="53" t="str">
         <f>IF(Aug_overview_classifier!B14=0,"",Aug_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -9445,7 +8395,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="47" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
       </c>
@@ -9527,7 +8477,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="str">
+      <c r="B16" s="47" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
       </c>
@@ -9609,7 +8559,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="47" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
       </c>
@@ -9691,7 +8641,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="str">
+      <c r="B18" s="47" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
       </c>
@@ -9773,7 +8723,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="47" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
       </c>
@@ -9855,7 +8805,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="str">
+      <c r="B20" s="47" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
       </c>
@@ -9937,7 +8887,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="str">
+      <c r="B21" s="48" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
       </c>
@@ -10091,14 +9041,14 @@
         <f>IF(Aug_overview_classifier!S22=0,"",Aug_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="54">
+      <c r="U22" s="52">
         <f>AVERAGE(U14:V21)</f>
         <v>5.9056245465618183E-2</v>
       </c>
-      <c r="V22" s="54"/>
+      <c r="V22" s="52"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="str">
+      <c r="B23" s="53" t="str">
         <f>IF(Aug_overview_classifier!B23=0,"",Aug_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -10180,7 +9130,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="47" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
       </c>
@@ -10262,7 +9212,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="str">
+      <c r="B25" s="47" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
       </c>
@@ -10344,7 +9294,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="str">
+      <c r="B26" s="47" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
       </c>
@@ -10426,7 +9376,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="str">
+      <c r="B27" s="47" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
       </c>
@@ -10508,7 +9458,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="str">
+      <c r="B28" s="47" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
       </c>
@@ -10590,7 +9540,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="str">
+      <c r="B29" s="47" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
       </c>
@@ -10672,7 +9622,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+      <c r="B30" s="48" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
       </c>
@@ -10826,14 +9776,14 @@
         <f>IF(Aug_overview_classifier!S31=0,"",Aug_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="54">
+      <c r="U31" s="52">
         <f>AVERAGE(U23:V30)</f>
         <v>-1.4491331682895237E-2</v>
       </c>
-      <c r="V31" s="54"/>
+      <c r="V31" s="52"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="str">
+      <c r="B32" s="53" t="str">
         <f>IF(Aug_overview_classifier!B32=0,"",Aug_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -10915,7 +9865,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="str">
+      <c r="B33" s="47" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
       </c>
@@ -10997,7 +9947,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="str">
+      <c r="B34" s="47" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
       </c>
@@ -11079,7 +10029,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="str">
+      <c r="B35" s="47" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
       </c>
@@ -11161,7 +10111,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="str">
+      <c r="B36" s="47" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
       </c>
@@ -11243,7 +10193,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="str">
+      <c r="B37" s="47" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
       </c>
@@ -11325,7 +10275,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="str">
+      <c r="B38" s="47" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
       </c>
@@ -11407,7 +10357,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="str">
+      <c r="B39" s="48" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
       </c>
@@ -11489,11 +10439,11 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="U40" s="54">
+      <c r="U40" s="52">
         <f>AVERAGE(U32:V39)</f>
         <v>-1.0565448561979364E-2</v>
       </c>
-      <c r="V40" s="54"/>
+      <c r="V40" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11595,26 +10545,26 @@
       <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="47" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
@@ -11707,7 +10657,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -11779,7 +10729,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -11849,7 +10799,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -11919,7 +10869,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
@@ -11989,7 +10939,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -12059,7 +11009,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -12129,7 +11079,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -12199,7 +11149,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
@@ -12289,7 +11239,7 @@
       <c r="S13" s="34"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -12361,7 +11311,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -12431,7 +11381,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
@@ -12501,7 +11451,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
@@ -12571,7 +11521,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -12641,7 +11591,7 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
@@ -12711,7 +11661,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
@@ -12781,7 +11731,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
@@ -12871,7 +11821,7 @@
       <c r="S22" s="34"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -12943,7 +11893,7 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -13013,7 +11963,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
@@ -13083,7 +12033,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -13153,7 +12103,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
@@ -13223,7 +12173,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
@@ -13293,7 +12243,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
@@ -13363,7 +12313,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
@@ -13453,7 +12403,7 @@
       <c r="S31" s="34"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -13525,7 +12475,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
@@ -13595,7 +12545,7 @@
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
@@ -13665,7 +12615,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
@@ -13735,7 +12685,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
@@ -13805,7 +12755,7 @@
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
@@ -13875,7 +12825,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
@@ -13945,7 +12895,7 @@
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B39" s="50"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
@@ -14023,6 +12973,210 @@
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B23:B30"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D30 F29:F30 H29:H30 J29:J30 L29:L30 N29:N30 P29:P30 R29:R30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
     <cfRule type="colorScale" priority="40">
       <colorScale>
@@ -14035,7 +13189,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -14071,7 +13225,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -14119,7 +13273,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -14143,20 +13297,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
     <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30 F29:F30 H29:H30 J29:J30 L29:L30 N29:N30 P29:P30 R29:R30">
-    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14179,7 +13321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14191,200 +13333,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14429,78 +13379,78 @@
         <f>IF(Wind_overview_classifier!C2=0,"",Wind_overview_classifier!C2)</f>
         <v>Classifiers</v>
       </c>
-      <c r="D2" s="51" t="str">
+      <c r="D2" s="49" t="str">
         <f>IF(Wind_overview_classifier!D2=0,"",Wind_overview_classifier!D2)</f>
         <v>Augmented</v>
       </c>
-      <c r="E2" s="52" t="str">
+      <c r="E2" s="50" t="str">
         <f>IF(Aug_overview_classifier!E2=0,"",Aug_overview_classifier!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="52" t="str">
+      <c r="F2" s="50" t="str">
         <f>IF(Aug_overview_classifier!F2=0,"",Aug_overview_classifier!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="52" t="str">
+      <c r="G2" s="50" t="str">
         <f>IF(Aug_overview_classifier!G2=0,"",Aug_overview_classifier!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="52" t="str">
+      <c r="H2" s="50" t="str">
         <f>IF(Aug_overview_classifier!H2=0,"",Aug_overview_classifier!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="52" t="str">
+      <c r="I2" s="50" t="str">
         <f>IF(Aug_overview_classifier!I2=0,"",Aug_overview_classifier!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="52" t="str">
+      <c r="J2" s="50" t="str">
         <f>IF(Aug_overview_classifier!J2=0,"",Aug_overview_classifier!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="53" t="str">
+      <c r="K2" s="51" t="str">
         <f>IF(Aug_overview_classifier!K2=0,"",Aug_overview_classifier!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="47" t="str">
+      <c r="L2" s="45" t="str">
         <f>IF(Wind_overview_classifier!L2=0,"",Wind_overview_classifier!L2)</f>
         <v>Windowed</v>
       </c>
-      <c r="M2" s="48" t="str">
+      <c r="M2" s="46" t="str">
         <f>IF(Aug_overview_classifier!M2=0,"",Aug_overview_classifier!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="48" t="str">
+      <c r="N2" s="46" t="str">
         <f>IF(Aug_overview_classifier!N2=0,"",Aug_overview_classifier!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="48" t="str">
+      <c r="O2" s="46" t="str">
         <f>IF(Aug_overview_classifier!O2=0,"",Aug_overview_classifier!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="48" t="str">
+      <c r="P2" s="46" t="str">
         <f>IF(Aug_overview_classifier!P2=0,"",Aug_overview_classifier!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="48" t="str">
+      <c r="Q2" s="46" t="str">
         <f>IF(Aug_overview_classifier!Q2=0,"",Aug_overview_classifier!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="48" t="str">
+      <c r="R2" s="46" t="str">
         <f>IF(Aug_overview_classifier!R2=0,"",Aug_overview_classifier!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="48" t="str">
+      <c r="S2" s="46" t="str">
         <f>IF(Aug_overview_classifier!S2=0,"",Aug_overview_classifier!S2)</f>
         <v/>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="56"/>
-      <c r="X2" s="56" t="s">
+      <c r="V2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="56"/>
+      <c r="Y2" s="54"/>
     </row>
     <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="str">
@@ -14651,7 +13601,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="53" t="str">
         <f>IF(Wind_overview_classifier!B5=0,"",Wind_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -14741,7 +13691,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="str">
+      <c r="B6" s="47" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
       </c>
@@ -14831,7 +13781,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="str">
+      <c r="B7" s="47" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
       </c>
@@ -14921,7 +13871,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="str">
+      <c r="B8" s="47" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
       </c>
@@ -15011,7 +13961,7 @@
       </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="str">
+      <c r="B9" s="47" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
       </c>
@@ -15101,7 +14051,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="49" t="str">
+      <c r="B10" s="47" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
       </c>
@@ -15191,7 +14141,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="str">
+      <c r="B11" s="47" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
       </c>
@@ -15281,7 +14231,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="str">
+      <c r="B12" s="48" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
       </c>
@@ -15443,19 +14393,19 @@
         <f>IF(Wind_overview_classifier!S13=0,"",Wind_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="54">
+      <c r="U13" s="52">
         <f>AVERAGE(U5:V12)</f>
         <v>-7.9568010334686051E-2</v>
       </c>
-      <c r="V13" s="54"/>
-      <c r="X13" s="54">
+      <c r="V13" s="52"/>
+      <c r="X13" s="52">
         <f>AVERAGE(X5:Y12)</f>
         <v>-6.9913669799093039E-2</v>
       </c>
-      <c r="Y13" s="54"/>
+      <c r="Y13" s="52"/>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="53" t="str">
         <f>IF(Wind_overview_classifier!B14=0,"",Wind_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -15545,7 +14495,7 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="47" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
       </c>
@@ -15635,7 +14585,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="str">
+      <c r="B16" s="47" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
       </c>
@@ -15725,7 +14675,7 @@
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="47" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
       </c>
@@ -15815,7 +14765,7 @@
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="str">
+      <c r="B18" s="47" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
       </c>
@@ -15905,7 +14855,7 @@
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="47" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
       </c>
@@ -15995,7 +14945,7 @@
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="49" t="str">
+      <c r="B20" s="47" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
       </c>
@@ -16085,7 +15035,7 @@
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="str">
+      <c r="B21" s="48" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
       </c>
@@ -16247,19 +15197,19 @@
         <f>IF(Wind_overview_classifier!S22=0,"",Wind_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="54">
+      <c r="U22" s="52">
         <f>AVERAGE(U14:V21)</f>
         <v>-5.6429771014280435E-2</v>
       </c>
-      <c r="V22" s="54"/>
-      <c r="X22" s="54">
+      <c r="V22" s="52"/>
+      <c r="X22" s="52">
         <f>AVERAGE(X14:Y21)</f>
         <v>1.4009872496864445E-3</v>
       </c>
-      <c r="Y22" s="54"/>
+      <c r="Y22" s="52"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="str">
+      <c r="B23" s="53" t="str">
         <f>IF(Wind_overview_classifier!B23=0,"",Wind_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -16349,7 +15299,7 @@
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="47" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
       </c>
@@ -16439,7 +15389,7 @@
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="str">
+      <c r="B25" s="47" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
       </c>
@@ -16529,7 +15479,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="str">
+      <c r="B26" s="47" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
       </c>
@@ -16619,7 +15569,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="str">
+      <c r="B27" s="47" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
       </c>
@@ -16709,7 +15659,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="49" t="str">
+      <c r="B28" s="47" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
       </c>
@@ -16799,7 +15749,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="str">
+      <c r="B29" s="47" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
       </c>
@@ -16889,7 +15839,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+      <c r="B30" s="48" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
       </c>
@@ -17051,19 +16001,19 @@
         <f>IF(Wind_overview_classifier!S31=0,"",Wind_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="54">
+      <c r="U31" s="52">
         <f>AVERAGE(U23:V30)</f>
         <v>-5.8828208236583648E-2</v>
       </c>
-      <c r="V31" s="54"/>
-      <c r="X31" s="54">
+      <c r="V31" s="52"/>
+      <c r="X31" s="52">
         <f>AVERAGE(X23:Y30)</f>
         <v>-7.2315381830499625E-2</v>
       </c>
-      <c r="Y31" s="54"/>
+      <c r="Y31" s="52"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="str">
+      <c r="B32" s="53" t="str">
         <f>IF(Wind_overview_classifier!B32=0,"",Wind_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -17153,7 +16103,7 @@
       </c>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="49" t="str">
+      <c r="B33" s="47" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
       </c>
@@ -17243,7 +16193,7 @@
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="str">
+      <c r="B34" s="47" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
       </c>
@@ -17333,7 +16283,7 @@
       </c>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="str">
+      <c r="B35" s="47" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
       </c>
@@ -17423,7 +16373,7 @@
       </c>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="str">
+      <c r="B36" s="47" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
       </c>
@@ -17513,7 +16463,7 @@
       </c>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="str">
+      <c r="B37" s="47" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
       </c>
@@ -17603,7 +16553,7 @@
       </c>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="str">
+      <c r="B38" s="47" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
       </c>
@@ -17693,7 +16643,7 @@
       </c>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="str">
+      <c r="B39" s="48" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
       </c>
@@ -17783,16 +16733,16 @@
       </c>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="U40" s="54">
+      <c r="U40" s="52">
         <f>AVERAGE(U32:V39)</f>
         <v>-4.4885044745957267E-2</v>
       </c>
-      <c r="V40" s="54"/>
-      <c r="X40" s="54">
+      <c r="V40" s="52"/>
+      <c r="X40" s="52">
         <f>AVERAGE(X32:Y39)</f>
         <v>-5.5470411486258274E-2</v>
       </c>
-      <c r="Y40" s="54"/>
+      <c r="Y40" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -17897,1977 +16847,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB4F2EF-885C-4022-AB47-D5989E6E71D1}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="45">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>0.69</v>
-      </c>
-      <c r="E2">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="45">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>0.89</v>
-      </c>
-      <c r="E3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="45">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>0.65</v>
-      </c>
-      <c r="E4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="45">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>0.74</v>
-      </c>
-      <c r="E5">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>0.97</v>
-      </c>
-      <c r="E6">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="45">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7">
-        <v>0.72</v>
-      </c>
-      <c r="E7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="45">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>0.6</v>
-      </c>
-      <c r="E8">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="45">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>0.8</v>
-      </c>
-      <c r="E9">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="45">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>0.93</v>
-      </c>
-      <c r="E10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="45">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>0.77</v>
-      </c>
-      <c r="E11">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="45">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>0.88</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="45">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>0.78</v>
-      </c>
-      <c r="E13">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="45">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>0.71</v>
-      </c>
-      <c r="E14">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="45">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>0.86</v>
-      </c>
-      <c r="E15">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="45">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>0.74</v>
-      </c>
-      <c r="E16">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="45">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>0.78</v>
-      </c>
-      <c r="E17">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="45">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>0.97</v>
-      </c>
-      <c r="E18">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="45">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>0.72</v>
-      </c>
-      <c r="E19">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="45">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>0.86</v>
-      </c>
-      <c r="E20">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="45">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21">
-        <v>0.79</v>
-      </c>
-      <c r="E21">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="45">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>0.73</v>
-      </c>
-      <c r="E22">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="45">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>0.74</v>
-      </c>
-      <c r="E23">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="45">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>0.9</v>
-      </c>
-      <c r="E24">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="45">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>0.87</v>
-      </c>
-      <c r="E25">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="45">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26">
-        <v>0.76</v>
-      </c>
-      <c r="E26">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="45">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27">
-        <v>0.82</v>
-      </c>
-      <c r="E27">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="45">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28">
-        <v>0.93</v>
-      </c>
-      <c r="E28">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="45">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>0.77</v>
-      </c>
-      <c r="E29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="45">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30">
-        <v>0.82</v>
-      </c>
-      <c r="E30">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="45">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>0.81</v>
-      </c>
-      <c r="E31">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="45">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32">
-        <v>0.83</v>
-      </c>
-      <c r="E32">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="45">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33">
-        <v>0.82</v>
-      </c>
-      <c r="E33">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="45">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>0.88</v>
-      </c>
-      <c r="E34">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="45">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>0.8</v>
-      </c>
-      <c r="E35">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="45">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>0.83</v>
-      </c>
-      <c r="E36">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="45">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37">
-        <v>0.79</v>
-      </c>
-      <c r="E37">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="45">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38">
-        <v>0.93</v>
-      </c>
-      <c r="E38">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="45">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39">
-        <v>0.75</v>
-      </c>
-      <c r="E39">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="45">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40">
-        <v>0.86</v>
-      </c>
-      <c r="E40">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="45">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>0.95</v>
-      </c>
-      <c r="E41">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="45">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>0.77</v>
-      </c>
-      <c r="E42">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="45">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43">
-        <v>0.94</v>
-      </c>
-      <c r="E43">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="45">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44">
-        <v>0.84</v>
-      </c>
-      <c r="E44">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="45">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45">
-        <v>0.85</v>
-      </c>
-      <c r="E45">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="45">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <v>0.93</v>
-      </c>
-      <c r="E46">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="45">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47">
-        <v>0.86</v>
-      </c>
-      <c r="E47">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="45">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48">
-        <v>0.86</v>
-      </c>
-      <c r="E48">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="45">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49">
-        <v>0.81</v>
-      </c>
-      <c r="E49">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="45">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50">
-        <v>0.97</v>
-      </c>
-      <c r="E50">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="45">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51">
-        <v>0.91</v>
-      </c>
-      <c r="E51">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="45">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52">
-        <v>0.64</v>
-      </c>
-      <c r="E52">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="45">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>0.92</v>
-      </c>
-      <c r="E53">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="45">
-        <v>4</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0.68</v>
-      </c>
-      <c r="E54">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="45">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>0.71</v>
-      </c>
-      <c r="E55">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>33</v>
-      </c>
-      <c r="B56" s="45">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56">
-        <v>0.95</v>
-      </c>
-      <c r="E56">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="45">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57">
-        <v>0.68</v>
-      </c>
-      <c r="E57">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="45">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58">
-        <v>0.73</v>
-      </c>
-      <c r="E58">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" s="45">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59">
-        <v>0.81</v>
-      </c>
-      <c r="E59">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" s="45">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60">
-        <v>0.89</v>
-      </c>
-      <c r="E60">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="45">
-        <v>2</v>
-      </c>
-      <c r="C61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D61">
-        <v>0.81</v>
-      </c>
-      <c r="E61">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="45">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62">
-        <v>0.89</v>
-      </c>
-      <c r="E62">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="45">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63">
-        <v>0.93</v>
-      </c>
-      <c r="E63">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="45">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>0.75</v>
-      </c>
-      <c r="E64">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="45">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65">
-        <v>0.71</v>
-      </c>
-      <c r="E65">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="45">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66">
-        <v>0.84</v>
-      </c>
-      <c r="E66">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" s="45">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67">
-        <v>0.77</v>
-      </c>
-      <c r="E67">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="45">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68">
-        <v>0.81</v>
-      </c>
-      <c r="E68">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="45">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>0.81</v>
-      </c>
-      <c r="E69">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="45">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70">
-        <v>0.85</v>
-      </c>
-      <c r="E70">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="45">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71">
-        <v>0.79</v>
-      </c>
-      <c r="E71">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="45">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72">
-        <v>0.79</v>
-      </c>
-      <c r="E72">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="45">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73">
-        <v>0.88</v>
-      </c>
-      <c r="E73">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="45">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74">
-        <v>0.68</v>
-      </c>
-      <c r="E74">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="45">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75">
-        <v>0.97</v>
-      </c>
-      <c r="E75">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="45">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76">
-        <v>0.84</v>
-      </c>
-      <c r="E76">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="45">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77">
-        <v>0.83</v>
-      </c>
-      <c r="E77">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="45">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78">
-        <v>0.9</v>
-      </c>
-      <c r="E78">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="45">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D79">
-        <v>0.79</v>
-      </c>
-      <c r="E79">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="45">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80">
-        <v>0.73</v>
-      </c>
-      <c r="E80">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="45">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81">
-        <v>0.81</v>
-      </c>
-      <c r="E81">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="45">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82">
-        <v>0.72</v>
-      </c>
-      <c r="E82">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="45">
-        <v>6</v>
-      </c>
-      <c r="C83" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B84" s="45">
-        <v>6</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84">
-        <v>0.88</v>
-      </c>
-      <c r="E84">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="45">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85">
-        <v>0.84</v>
-      </c>
-      <c r="E85">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="45">
-        <v>6</v>
-      </c>
-      <c r="C86" t="s">
-        <v>32</v>
-      </c>
-      <c r="D86">
-        <v>0.85</v>
-      </c>
-      <c r="E86">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="45">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>28</v>
-      </c>
-      <c r="D87">
-        <v>0.74</v>
-      </c>
-      <c r="E87">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B88" s="45">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88">
-        <v>0.93</v>
-      </c>
-      <c r="E88">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="45">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89">
-        <v>0.77</v>
-      </c>
-      <c r="E89">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="45">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90">
-        <v>0.81</v>
-      </c>
-      <c r="E90">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="45">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91">
-        <v>0.95</v>
-      </c>
-      <c r="E91">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="45">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92">
-        <v>0.73</v>
-      </c>
-      <c r="E92">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="45">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>33</v>
-      </c>
-      <c r="B94" s="45">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94">
-        <v>0.81</v>
-      </c>
-      <c r="E94">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="45">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95">
-        <v>0.86</v>
-      </c>
-      <c r="E95">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="45">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96">
-        <v>0.94</v>
-      </c>
-      <c r="E96">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>33</v>
-      </c>
-      <c r="B97" s="45">
-        <v>1</v>
-      </c>
-      <c r="C97" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97">
-        <v>0.8</v>
-      </c>
-      <c r="E97">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>33</v>
-      </c>
-      <c r="B98" s="45">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
-        <v>29</v>
-      </c>
-      <c r="D98">
-        <v>0.89</v>
-      </c>
-      <c r="E98">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>33</v>
-      </c>
-      <c r="B99" s="45">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99">
-        <v>0.76</v>
-      </c>
-      <c r="E99">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="45">
-        <v>1</v>
-      </c>
-      <c r="C100" t="s">
-        <v>31</v>
-      </c>
-      <c r="D100">
-        <v>0.93</v>
-      </c>
-      <c r="E100">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="45">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>32</v>
-      </c>
-      <c r="D101">
-        <v>0.93</v>
-      </c>
-      <c r="E101">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107">
-        <v>0.82359999999999989</v>
-      </c>
-      <c r="C107">
-        <v>0.82100000000000017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="C108">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109">
-        <v>0.84599999999999986</v>
-      </c>
-      <c r="C109">
-        <v>0.82300000000000006</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B110">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="C110">
-        <v>0.82799999999999996</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111">
-        <v>0.85600000000000009</v>
-      </c>
-      <c r="C111">
-        <v>0.80899999999999994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112">
-        <v>0.84599999999999986</v>
-      </c>
-      <c r="C112">
-        <v>0.82000000000000006</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113">
-        <v>0.82660000000000022</v>
-      </c>
-      <c r="C113">
-        <v>0.80639999999999989</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114">
-        <v>0.7589999999999999</v>
-      </c>
-      <c r="C114">
-        <v>0.86399999999999988</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B115">
-        <v>0.89900000000000024</v>
-      </c>
-      <c r="C115">
-        <v>0.79400000000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="C116">
-        <v>0.80299999999999994</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B117">
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="C117">
-        <v>0.79400000000000015</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B118">
-        <v>0.87100000000000011</v>
-      </c>
-      <c r="C118">
-        <v>0.77700000000000014</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119">
-        <v>0.82510000000000017</v>
-      </c>
-      <c r="C119">
-        <v>0.81369999999999976</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B120"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B121"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>38</v>
-      </c>
-      <c r="B122"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B123"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C124" s="44">
-        <f>_xlfn.STDEV.P(C108:C112)</f>
-        <v>6.5421708935184597E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C125" s="44"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C126" s="44">
-        <f>_xlfn.STDEV.P(C114:C118)</f>
-        <v>3.0003999733368796E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting pivot="1" sqref="B108:B112">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C108:C112">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B114:B118">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C114:C118">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_analysis/_Results_compilation_training_flow_2024_06.xlsx
+++ b/_analysis/_Results_compilation_training_flow_2024_06.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393B8B54-2838-4A40-B98A-DB26333763AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DA3A8-68C6-4645-8329-E35ACA33D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug_overview_classifier" sheetId="1" r:id="rId1"/>
     <sheet name="Aug_overview_dataset" sheetId="2" r:id="rId2"/>
     <sheet name="Wind_overview_classifier" sheetId="3" r:id="rId3"/>
     <sheet name="Wind_overview_dataset" sheetId="5" r:id="rId4"/>
-    <sheet name="Precision_Recall" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
@@ -27,7 +27,6 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="24">
   <si>
     <t>Mean</t>
   </si>
@@ -444,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -596,6 +595,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4475,23 +4477,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C84E9B-02A8-4A6E-9A9C-4104E745268F}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
@@ -4531,7 +4533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
@@ -4629,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
@@ -4701,7 +4703,7 @@
         <v>2.7099354235848503E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -4771,7 +4773,7 @@
         <v>8.0719421454814852E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -4841,7 +4843,7 @@
         <v>5.7008771254956896E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -4911,7 +4913,7 @@
         <v>5.659615711335883E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -4981,7 +4983,7 @@
         <v>7.725768570181224E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -5051,7 +5053,7 @@
         <v>4.5586456322026181E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -5121,7 +5123,7 @@
         <v>4.183300132670377E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -5191,7 +5193,7 @@
         <v>4.6770717334674264E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5211,7 +5213,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
@@ -5283,7 +5285,7 @@
         <v>5.3575837561071885E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -5353,7 +5355,7 @@
         <v>9.6225044864939862E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -5423,7 +5425,7 @@
         <v>2.5458753860865761E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -5493,7 +5495,7 @@
         <v>6.3098981620002811E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -5563,7 +5565,7 @@
         <v>1.9245008972987331E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="47"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -5633,7 +5635,7 @@
         <v>5.3575837561072148E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="47"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -5703,7 +5705,7 @@
         <v>3.4694433324435663E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -5773,7 +5775,7 @@
         <v>1.6666666666666496E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -5793,7 +5795,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>4.4362319217983379E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="47"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -5935,7 +5937,7 @@
         <v>5.0363616429460974E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -6005,7 +6007,7 @@
         <v>6.1554295024420218E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
@@ -6075,7 +6077,7 @@
         <v>2.962107369301108E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B27" s="47"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
@@ -6145,7 +6147,7 @@
         <v>3.1220495989087861E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -6215,7 +6217,7 @@
         <v>3.5253353024031292E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -6285,7 +6287,7 @@
         <v>4.1853247574758473E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="48"/>
       <c r="C30" s="6" t="s">
         <v>20</v>
@@ -6355,7 +6357,7 @@
         <v>4.2097691385037841E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="30"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -6375,7 +6377,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>23</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>5.2680761025622622E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
@@ -6517,7 +6519,7 @@
         <v>4.8661670511817759E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -6587,7 +6589,7 @@
         <v>4.6344311238478736E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
@@ -6657,7 +6659,7 @@
         <v>2.4772141992337307E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -6727,7 +6729,7 @@
         <v>2.3219868574884551E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -6797,7 +6799,7 @@
         <v>3.405096917308921E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B38" s="47"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
@@ -6867,7 +6869,7 @@
         <v>2.9455118821827914E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
@@ -6946,6 +6948,90 @@
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
     <cfRule type="colorScale" priority="32">
       <colorScale>
@@ -6958,8 +7044,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7006,6 +7128,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
     <cfRule type="colorScale" priority="17">
       <colorScale>
@@ -7042,8 +7188,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
     <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7078,18 +7248,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -7114,8 +7272,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7150,186 +7332,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7340,22 +7342,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="str">
         <f>IF(Aug_overview_classifier!B2=0,"",Aug_overview_classifier!B2)</f>
         <v/>
@@ -7429,7 +7431,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="str">
         <f>IF(Aug_overview_classifier!B3=0,"",Aug_overview_classifier!B3)</f>
         <v>Model</v>
@@ -7503,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="str">
         <f>IF(Aug_overview_classifier!B4=0,"",Aug_overview_classifier!B4)</f>
         <v/>
@@ -7577,7 +7579,7 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="str">
         <f>IF(Aug_overview_classifier!B5=0,"",Aug_overview_classifier!B5)</f>
         <v>ESC10</v>
@@ -7659,7 +7661,7 @@
         <v>2.3529411764705577E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
@@ -7741,7 +7743,7 @@
         <v>-2.8333333333333655E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
@@ -7823,7 +7825,7 @@
         <v>2.7874564459930085E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
@@ -7905,7 +7907,7 @@
         <v>1.293532338308423E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
@@ -7987,7 +7989,7 @@
         <v>-2.9154518950438302E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
@@ -8069,7 +8071,7 @@
         <v>5.3140096618353727E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
@@ -8151,7 +8153,7 @@
         <v>3.2630522088352931E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="48" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
@@ -8233,7 +8235,7 @@
         <v>4.5641025641025346E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="str">
         <f>IF(Aug_overview_classifier!B13=0,"",Aug_overview_classifier!B13)</f>
         <v/>
@@ -8312,7 +8314,7 @@
       </c>
       <c r="V13" s="52"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="str">
         <f>IF(Aug_overview_classifier!B14=0,"",Aug_overview_classifier!B14)</f>
         <v>BDLib2</v>
@@ -8394,7 +8396,7 @@
         <v>-5.7870370370370905E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
@@ -8476,7 +8478,7 @@
         <v>-4.4000000000000372E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="47" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
@@ -8558,7 +8560,7 @@
         <v>6.8452380952381153E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
@@ -8640,7 +8642,7 @@
         <v>9.5238095238090459E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
@@ -8722,7 +8724,7 @@
         <v>7.051282051282004E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
@@ -8804,7 +8806,7 @@
         <v>2.3114355231143913E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
@@ -8886,7 +8888,7 @@
         <v>0.17622950819672112</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
@@ -8968,7 +8970,7 @@
         <v>0.18303571428571397</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="str">
         <f>IF(Aug_overview_classifier!B22=0,"",Aug_overview_classifier!B22)</f>
         <v/>
@@ -9047,7 +9049,7 @@
       </c>
       <c r="V22" s="52"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="str">
         <f>IF(Aug_overview_classifier!B23=0,"",Aug_overview_classifier!B23)</f>
         <v>US8K</v>
@@ -9129,7 +9131,7 @@
         <v>-1.6213829198711283E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
@@ -9211,7 +9213,7 @@
         <v>-6.9708096779339646E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
@@ -9293,7 +9295,7 @@
         <v>1.4505669218352057E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="47" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
@@ -9375,7 +9377,7 @@
         <v>-1.4666102087111943E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
@@ -9457,7 +9459,7 @@
         <v>1.4307751856672102E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
@@ -9539,7 +9541,7 @@
         <v>-1.9345565361934547E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="47" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
@@ -9621,7 +9623,7 @@
         <v>-1.714759822894385E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="48" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
@@ -9703,7 +9705,7 @@
         <v>-1.128752492413998E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="str">
         <f>IF(Aug_overview_classifier!B31=0,"",Aug_overview_classifier!B31)</f>
         <v/>
@@ -9782,7 +9784,7 @@
       </c>
       <c r="V31" s="52"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="str">
         <f>IF(Aug_overview_classifier!B32=0,"",Aug_overview_classifier!B32)</f>
         <v>US8K_AV</v>
@@ -9864,7 +9866,7 @@
         <v>-2.6953488532588388E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="47" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
@@ -9946,7 +9948,7 @@
         <v>-6.5164732424990657E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
@@ -10028,7 +10030,7 @@
         <v>1.2094980093515062E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
@@ -10110,7 +10112,7 @@
         <v>-1.6341243577944531E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="47" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
@@ -10192,7 +10194,7 @@
         <v>1.7515293515845798E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
@@ -10274,7 +10276,7 @@
         <v>-3.3792627557065469E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
@@ -10356,7 +10358,7 @@
         <v>-5.2653729105160973E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="48" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
@@ -10438,7 +10440,7 @@
         <v>1.3389813031775333E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="U40" s="52">
         <f>AVERAGE(U32:V39)</f>
         <v>-1.0565448561979364E-2</v>
@@ -10524,23 +10526,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5498D750-A77C-4E1F-AC8E-4A19415168F1}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
@@ -10566,7 +10568,7 @@
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -10604,8 +10606,10 @@
       </c>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="55" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
         <v>0</v>
@@ -10656,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
@@ -10728,7 +10732,7 @@
         <v>3.6554510121453804E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
@@ -10798,7 +10802,7 @@
         <v>4.3329907964490905E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" s="47"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
@@ -10868,7 +10872,7 @@
         <v>4.4837729927308778E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -10938,7 +10942,7 @@
         <v>3.0879404047152215E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -11008,7 +11012,7 @@
         <v>2.6567681351349553E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
@@ -11078,7 +11082,7 @@
         <v>2.9035289801220693E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -11148,7 +11152,7 @@
         <v>3.4742663735967461E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="48"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
@@ -11218,8 +11222,10 @@
         <v>3.2014566755899074E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="31"/>
@@ -11238,7 +11244,7 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
@@ -11310,7 +11316,7 @@
         <v>2.1166709549459383E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -11380,7 +11386,7 @@
         <v>2.089825219249036E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="47"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -11450,7 +11456,7 @@
         <v>1.3459823726881929E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="47"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -11520,7 +11526,7 @@
         <v>1.1321681226052151E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="47"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -11590,7 +11596,7 @@
         <v>2.1004350908505859E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="47"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -11660,7 +11666,7 @@
         <v>1.7816473545345952E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -11730,7 +11736,7 @@
         <v>9.4185790570313638E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="48"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
@@ -11800,8 +11806,10 @@
         <v>1.9706496055853336E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22" s="55" t="s">
+        <v>8</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="31"/>
@@ -11820,7 +11828,7 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47" t="s">
         <v>8</v>
       </c>
@@ -11892,7 +11900,7 @@
         <v>4.4643017846348901E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="47"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -11962,7 +11970,7 @@
         <v>3.997170768273773E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -12032,7 +12040,7 @@
         <v>4.987208440938274E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
@@ -12102,7 +12110,7 @@
         <v>3.8326001109827292E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="47"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
@@ -12172,7 +12180,7 @@
         <v>3.6077666375167086E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
@@ -12242,7 +12250,7 @@
         <v>3.9652799941969304E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -12312,7 +12320,7 @@
         <v>4.4563019353375137E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="48"/>
       <c r="C30" s="4" t="s">
         <v>20</v>
@@ -12382,8 +12390,10 @@
         <v>4.853500899210151E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="55" t="s">
+        <v>23</v>
+      </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="31"/>
@@ -12402,7 +12412,7 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="47" t="s">
         <v>23</v>
       </c>
@@ -12474,7 +12484,7 @@
         <v>4.0284146068368658E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B33" s="47"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
@@ -12544,7 +12554,7 @@
         <v>3.621632839362391E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -12614,7 +12624,7 @@
         <v>5.0893245309722293E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="47"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
@@ -12684,7 +12694,7 @@
         <v>1.3929774849661306E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" s="47"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -12754,7 +12764,7 @@
         <v>1.9587671820538728E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" s="47"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -12824,7 +12834,7 @@
         <v>2.7874808831604404E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" s="47"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
@@ -12894,7 +12904,7 @@
         <v>2.6347147377501812E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B39" s="48"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
@@ -12973,8 +12983,44 @@
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B23:B30"/>
   </mergeCells>
+  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
     <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13057,186 +13103,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30 F29:F30 H29:H30 J29:J30 L29:L30 N29:N30 P29:P30 R29:R30">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
     <cfRule type="colorScale" priority="28">
       <colorScale>
@@ -13273,8 +13139,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13297,6 +13163,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D30 F29:F30 H29:H30 J29:J30 L29:L30 N29:N30 P29:P30 R29:R30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -13309,8 +13271,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13355,22 +13365,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="str">
         <f>IF(Wind_overview_classifier!B2=0,"",Wind_overview_classifier!B2)</f>
         <v/>
@@ -13452,7 +13462,7 @@
       </c>
       <c r="Y2" s="54"/>
     </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="str">
         <f>IF(Wind_overview_classifier!B3=0,"",Wind_overview_classifier!B3)</f>
         <v>Model</v>
@@ -13526,10 +13536,10 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="str">
         <f>IF(Wind_overview_classifier!B4=0,"",Wind_overview_classifier!B4)</f>
-        <v/>
+        <v>ESC10</v>
       </c>
       <c r="C4" s="25" t="str">
         <f>IF(Wind_overview_classifier!C4=0,"",Wind_overview_classifier!C4)</f>
@@ -13600,7 +13610,7 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="str">
         <f>IF(Wind_overview_classifier!B5=0,"",Wind_overview_classifier!B5)</f>
         <v>ESC10</v>
@@ -13690,7 +13700,7 @@
         <v>-2.9738562091503495E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
@@ -13780,7 +13790,7 @@
         <v>-0.18308641975308693</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="47" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
@@ -13870,7 +13880,7 @@
         <v>-6.6782810685250382E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
@@ -13960,7 +13970,7 @@
         <v>-6.2133775566611704E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
@@ -14050,7 +14060,7 @@
         <v>-8.1578663211316793E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
@@ -14140,7 +14150,7 @@
         <v>-6.8330649490070283E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
@@ -14230,7 +14240,7 @@
         <v>-2.599286033021031E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12" s="48" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
@@ -14320,10 +14330,10 @@
         <v>-1.3618233618233999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="str">
         <f>IF(Wind_overview_classifier!B13=0,"",Wind_overview_classifier!B13)</f>
-        <v/>
+        <v>BDLib2</v>
       </c>
       <c r="C13" s="25" t="str">
         <f>IF(Wind_overview_classifier!C13=0,"",Wind_overview_classifier!C13)</f>
@@ -14404,7 +14414,7 @@
       </c>
       <c r="Y13" s="52"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="str">
         <f>IF(Wind_overview_classifier!B14=0,"",Wind_overview_classifier!B14)</f>
         <v>BDLib2</v>
@@ -14494,7 +14504,7 @@
         <v>-6.6764132553606692E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
@@ -14584,7 +14594,7 @@
         <v>-0.19017543859649166</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="47" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
@@ -14674,7 +14684,7 @@
         <v>2.0520050125313549E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="47" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
@@ -14764,7 +14774,7 @@
         <v>-5.7268170426065579E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="47" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
@@ -14854,7 +14864,7 @@
         <v>1.5587044534412842E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="47" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
@@ -14944,7 +14954,7 @@
         <v>-2.1577666794723949E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
@@ -15034,7 +15044,7 @@
         <v>0.11820534943917083</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
@@ -15124,10 +15134,10 @@
         <v>0.19658521303258114</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="str">
         <f>IF(Wind_overview_classifier!B22=0,"",Wind_overview_classifier!B22)</f>
-        <v/>
+        <v>US8K</v>
       </c>
       <c r="C22" s="25" t="str">
         <f>IF(Wind_overview_classifier!C22=0,"",Wind_overview_classifier!C22)</f>
@@ -15208,7 +15218,7 @@
       </c>
       <c r="Y22" s="52"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="str">
         <f>IF(Wind_overview_classifier!B23=0,"",Wind_overview_classifier!B23)</f>
         <v>US8K</v>
@@ -15298,7 +15308,7 @@
         <v>-7.3305794695187276E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="47" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
@@ -15388,7 +15398,7 @@
         <v>-0.19428799285871357</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
@@ -15478,7 +15488,7 @@
         <v>-6.8259235188211864E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="47" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
@@ -15568,7 +15578,7 @@
         <v>-5.7821717769824699E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="47" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
@@ -15658,7 +15668,7 @@
         <v>-3.1772301279066273E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28" s="47" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
@@ -15748,7 +15758,7 @@
         <v>-3.9738486748595259E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29" s="47" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
@@ -15838,7 +15848,7 @@
         <v>-7.1847142469436576E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30" s="48" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
@@ -15928,10 +15938,10 @@
         <v>-0.11535844087849767</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="str">
         <f>IF(Wind_overview_classifier!B31=0,"",Wind_overview_classifier!B31)</f>
-        <v/>
+        <v>US8K_AV</v>
       </c>
       <c r="C31" s="25" t="str">
         <f>IF(Wind_overview_classifier!C31=0,"",Wind_overview_classifier!C31)</f>
@@ -16012,7 +16022,7 @@
       </c>
       <c r="Y31" s="52"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32" s="53" t="str">
         <f>IF(Wind_overview_classifier!B32=0,"",Wind_overview_classifier!B32)</f>
         <v>US8K_AV</v>
@@ -16102,7 +16112,7 @@
         <v>-5.2915939256235056E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="47" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
@@ -16192,7 +16202,7 @@
         <v>-6.2138101270161172E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="47" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
@@ -16282,7 +16292,7 @@
         <v>-4.9160061745109562E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
@@ -16372,7 +16382,7 @@
         <v>-5.4365459411869876E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="47" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
@@ -16462,7 +16472,7 @@
         <v>-3.9384666074033903E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
@@ -16552,7 +16562,7 @@
         <v>-3.7631188310879193E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
@@ -16642,7 +16652,7 @@
         <v>-7.3449125638510915E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="48" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
@@ -16732,7 +16742,7 @@
         <v>-4.8129389550780499E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="U40" s="52">
         <f>AVERAGE(U32:V39)</f>
         <v>-4.4885044745957267E-2</v>
@@ -16843,22 +16853,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB4F2EF-885C-4022-AB47-D5989E6E71D1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/_analysis/_Results_compilation_training_flow_2024_06.xlsx
+++ b/_analysis/_Results_compilation_training_flow_2024_06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DA3A8-68C6-4645-8329-E35ACA33D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA682AD4-4923-4394-857D-8FF02E1B1188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{765D2107-F650-4F10-ACE3-9E968F4DE976}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug_overview_classifier" sheetId="1" r:id="rId1"/>
@@ -567,6 +567,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,9 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4477,63 +4477,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C84E9B-02A8-4A6E-9A9C-4104E745268F}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
@@ -4631,8 +4631,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -4703,8 +4703,8 @@
         <v>2.7099354235848503E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -4773,8 +4773,8 @@
         <v>8.0719421454814852E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4843,8 +4843,8 @@
         <v>5.7008771254956896E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4913,8 +4913,8 @@
         <v>5.659615711335883E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4983,8 +4983,8 @@
         <v>7.725768570181224E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -5053,8 +5053,8 @@
         <v>4.5586456322026181E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -5123,8 +5123,8 @@
         <v>4.183300132670377E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>4.6770717334674264E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5213,8 +5213,8 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5285,8 +5285,8 @@
         <v>5.3575837561071885E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -5355,8 +5355,8 @@
         <v>9.6225044864939862E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
@@ -5425,8 +5425,8 @@
         <v>2.5458753860865761E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
@@ -5495,8 +5495,8 @@
         <v>6.3098981620002811E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -5565,8 +5565,8 @@
         <v>1.9245008972987331E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
@@ -5635,8 +5635,8 @@
         <v>5.3575837561072148E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
@@ -5705,8 +5705,8 @@
         <v>3.4694433324435663E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>1.6666666666666496E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="30"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -5795,8 +5795,8 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -5867,8 +5867,8 @@
         <v>4.4362319217983379E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -5937,8 +5937,8 @@
         <v>5.0363616429460974E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="48"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
@@ -6007,8 +6007,8 @@
         <v>6.1554295024420218E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="48"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -6077,8 +6077,8 @@
         <v>2.962107369301108E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
@@ -6147,8 +6147,8 @@
         <v>3.1220495989087861E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="48"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
@@ -6217,8 +6217,8 @@
         <v>3.5253353024031292E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="48"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
@@ -6287,8 +6287,8 @@
         <v>4.1853247574758473E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
       <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>4.2097691385037841E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -6377,8 +6377,8 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6449,8 +6449,8 @@
         <v>5.2680761025622622E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="48"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
@@ -6519,8 +6519,8 @@
         <v>4.8661670511817759E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="48"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
@@ -6589,8 +6589,8 @@
         <v>4.6344311238478736E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="48"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
@@ -6659,8 +6659,8 @@
         <v>2.4772141992337307E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="48"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
@@ -6729,8 +6729,8 @@
         <v>2.3219868574884551E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="48"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
@@ -6799,8 +6799,8 @@
         <v>3.405096917308921E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="48"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
@@ -6869,8 +6869,8 @@
         <v>2.9455118821827914E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="49"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
@@ -6948,7 +6948,307 @@
     <mergeCell ref="B23:B30"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30 F30 H30 J30 L30 N30 P30 R30">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -6960,7 +7260,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
+  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6972,7 +7272,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
+  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6984,7 +7284,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
+  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6996,7 +7296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
+  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -7008,7 +7308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29 F29 H29 J29 L29 N29 P29 R29">
+  <conditionalFormatting sqref="F29 D29 H29 J29 L29 N29 P29 R29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -7020,308 +7320,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30 D30 H30 J30 L30 N30 P30 R30">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7342,22 +7342,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="str">
         <f>IF(Aug_overview_classifier!B2=0,"",Aug_overview_classifier!B2)</f>
         <v/>
@@ -7366,72 +7366,72 @@
         <f>IF(Aug_overview_classifier!C2=0,"",Aug_overview_classifier!C2)</f>
         <v>Classifiers</v>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="50" t="str">
         <f>IF(Aug_overview_classifier!D2=0,"",Aug_overview_classifier!D2)</f>
         <v>Augmented</v>
       </c>
-      <c r="E2" s="50" t="str">
+      <c r="E2" s="51" t="str">
         <f>IF(Aug_overview_classifier!E2=0,"",Aug_overview_classifier!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="51" t="str">
         <f>IF(Aug_overview_classifier!F2=0,"",Aug_overview_classifier!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="50" t="str">
+      <c r="G2" s="51" t="str">
         <f>IF(Aug_overview_classifier!G2=0,"",Aug_overview_classifier!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="50" t="str">
+      <c r="H2" s="51" t="str">
         <f>IF(Aug_overview_classifier!H2=0,"",Aug_overview_classifier!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="50" t="str">
+      <c r="I2" s="51" t="str">
         <f>IF(Aug_overview_classifier!I2=0,"",Aug_overview_classifier!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="50" t="str">
+      <c r="J2" s="51" t="str">
         <f>IF(Aug_overview_classifier!J2=0,"",Aug_overview_classifier!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="51" t="str">
+      <c r="K2" s="52" t="str">
         <f>IF(Aug_overview_classifier!K2=0,"",Aug_overview_classifier!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="45" t="str">
+      <c r="L2" s="46" t="str">
         <f>IF(Aug_overview_classifier!L2=0,"",Aug_overview_classifier!L2)</f>
         <v>Original</v>
       </c>
-      <c r="M2" s="46" t="str">
+      <c r="M2" s="47" t="str">
         <f>IF(Aug_overview_classifier!M2=0,"",Aug_overview_classifier!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="46" t="str">
+      <c r="N2" s="47" t="str">
         <f>IF(Aug_overview_classifier!N2=0,"",Aug_overview_classifier!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="46" t="str">
+      <c r="O2" s="47" t="str">
         <f>IF(Aug_overview_classifier!O2=0,"",Aug_overview_classifier!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="46" t="str">
+      <c r="P2" s="47" t="str">
         <f>IF(Aug_overview_classifier!P2=0,"",Aug_overview_classifier!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="46" t="str">
+      <c r="Q2" s="47" t="str">
         <f>IF(Aug_overview_classifier!Q2=0,"",Aug_overview_classifier!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="46" t="str">
+      <c r="R2" s="47" t="str">
         <f>IF(Aug_overview_classifier!R2=0,"",Aug_overview_classifier!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="46" t="str">
+      <c r="S2" s="47" t="str">
         <f>IF(Aug_overview_classifier!S2=0,"",Aug_overview_classifier!S2)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="str">
         <f>IF(Aug_overview_classifier!B3=0,"",Aug_overview_classifier!B3)</f>
         <v>Model</v>
@@ -7505,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="str">
         <f>IF(Aug_overview_classifier!B4=0,"",Aug_overview_classifier!B4)</f>
         <v/>
@@ -7579,8 +7579,8 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="str">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="str">
         <f>IF(Aug_overview_classifier!B5=0,"",Aug_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -7661,8 +7661,8 @@
         <v>2.3529411764705577E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="str">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
       </c>
@@ -7743,8 +7743,8 @@
         <v>-2.8333333333333655E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="str">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
       </c>
@@ -7825,8 +7825,8 @@
         <v>2.7874564459930085E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="str">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
       </c>
@@ -7907,8 +7907,8 @@
         <v>1.293532338308423E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="str">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
       </c>
@@ -7989,8 +7989,8 @@
         <v>-2.9154518950438302E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="str">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
       </c>
@@ -8071,8 +8071,8 @@
         <v>5.3140096618353727E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="str">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
       </c>
@@ -8153,8 +8153,8 @@
         <v>3.2630522088352931E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="str">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
       </c>
@@ -8235,7 +8235,7 @@
         <v>4.5641025641025346E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="str">
         <f>IF(Aug_overview_classifier!B13=0,"",Aug_overview_classifier!B13)</f>
         <v/>
@@ -8308,14 +8308,14 @@
         <f>IF(Aug_overview_classifier!S13=0,"",Aug_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="53">
         <f>AVERAGE(U5:V12)</f>
         <v>9.931847414804941E-3</v>
       </c>
-      <c r="V13" s="52"/>
+      <c r="V13" s="53"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="str">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="str">
         <f>IF(Aug_overview_classifier!B14=0,"",Aug_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -8396,8 +8396,8 @@
         <v>-5.7870370370370905E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="str">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
       </c>
@@ -8478,8 +8478,8 @@
         <v>-4.4000000000000372E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="str">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
       </c>
@@ -8560,8 +8560,8 @@
         <v>6.8452380952381153E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="str">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
       </c>
@@ -8642,8 +8642,8 @@
         <v>9.5238095238090459E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="str">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
       </c>
@@ -8724,8 +8724,8 @@
         <v>7.051282051282004E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="str">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
       </c>
@@ -8806,8 +8806,8 @@
         <v>2.3114355231143913E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="str">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
       </c>
@@ -8888,8 +8888,8 @@
         <v>0.17622950819672112</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="str">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0.18303571428571397</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="str">
         <f>IF(Aug_overview_classifier!B22=0,"",Aug_overview_classifier!B22)</f>
         <v/>
@@ -9043,14 +9043,14 @@
         <f>IF(Aug_overview_classifier!S22=0,"",Aug_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="52">
+      <c r="U22" s="53">
         <f>AVERAGE(U14:V21)</f>
         <v>5.9056245465618183E-2</v>
       </c>
-      <c r="V22" s="52"/>
+      <c r="V22" s="53"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="str">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="str">
         <f>IF(Aug_overview_classifier!B23=0,"",Aug_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -9131,8 +9131,8 @@
         <v>-1.6213829198711283E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="47" t="str">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
       </c>
@@ -9213,8 +9213,8 @@
         <v>-6.9708096779339646E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="str">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
       </c>
@@ -9295,8 +9295,8 @@
         <v>1.4505669218352057E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="str">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
       </c>
@@ -9377,8 +9377,8 @@
         <v>-1.4666102087111943E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="str">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
       </c>
@@ -9459,8 +9459,8 @@
         <v>1.4307751856672102E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="str">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
       </c>
@@ -9541,8 +9541,8 @@
         <v>-1.9345565361934547E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="str">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
       </c>
@@ -9623,8 +9623,8 @@
         <v>-1.714759822894385E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="48" t="str">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
       </c>
@@ -9705,7 +9705,7 @@
         <v>-1.128752492413998E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>IF(Aug_overview_classifier!B31=0,"",Aug_overview_classifier!B31)</f>
         <v/>
@@ -9778,14 +9778,14 @@
         <f>IF(Aug_overview_classifier!S31=0,"",Aug_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="52">
+      <c r="U31" s="53">
         <f>AVERAGE(U23:V30)</f>
         <v>-1.4491331682895237E-2</v>
       </c>
-      <c r="V31" s="52"/>
+      <c r="V31" s="53"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="str">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="54" t="str">
         <f>IF(Aug_overview_classifier!B32=0,"",Aug_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -9866,8 +9866,8 @@
         <v>-2.6953488532588388E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="str">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
       </c>
@@ -9948,8 +9948,8 @@
         <v>-6.5164732424990657E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="47" t="str">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="48" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
       </c>
@@ -10030,8 +10030,8 @@
         <v>1.2094980093515062E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="47" t="str">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="48" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
       </c>
@@ -10112,8 +10112,8 @@
         <v>-1.6341243577944531E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="str">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
       </c>
@@ -10194,8 +10194,8 @@
         <v>1.7515293515845798E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="47" t="str">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
       </c>
@@ -10276,8 +10276,8 @@
         <v>-3.3792627557065469E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="47" t="str">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
       </c>
@@ -10358,8 +10358,8 @@
         <v>-5.2653729105160973E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="48" t="str">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
       </c>
@@ -10440,12 +10440,12 @@
         <v>1.3389813031775333E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="U40" s="52">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U40" s="53">
         <f>AVERAGE(U32:V39)</f>
         <v>-1.0565448561979364E-2</v>
       </c>
-      <c r="V40" s="52"/>
+      <c r="V40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10526,49 +10526,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5498D750-A77C-4E1F-AC8E-4A19415168F1}">
   <dimension ref="B2:S39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="45" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
     </row>
-    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>15</v>
       </c>
@@ -10606,8 +10606,8 @@
       </c>
       <c r="S3" s="38"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="25"/>
@@ -10660,8 +10660,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -10732,8 +10732,8 @@
         <v>3.6554510121453804E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
+    <row r="6" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
@@ -10802,8 +10802,8 @@
         <v>4.3329907964490905E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
+    <row r="7" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
@@ -10872,8 +10872,8 @@
         <v>4.4837729927308778E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+    <row r="8" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
       <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
@@ -10942,8 +10942,8 @@
         <v>3.0879404047152215E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
+    <row r="9" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -11012,8 +11012,8 @@
         <v>2.6567681351349553E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
+    <row r="10" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -11082,8 +11082,8 @@
         <v>2.9035289801220693E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
       <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
@@ -11152,8 +11152,8 @@
         <v>3.4742663735967461E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
@@ -11222,8 +11222,8 @@
         <v>3.2014566755899074E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="25"/>
@@ -11244,8 +11244,8 @@
       <c r="R13" s="29"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -11316,8 +11316,8 @@
         <v>2.1166709549459383E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+    <row r="15" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
@@ -11386,8 +11386,8 @@
         <v>2.089825219249036E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
+    <row r="16" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
@@ -11456,8 +11456,8 @@
         <v>1.3459823726881929E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
+    <row r="17" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
@@ -11526,8 +11526,8 @@
         <v>1.1321681226052151E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
+    <row r="18" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
@@ -11596,8 +11596,8 @@
         <v>2.1004350908505859E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
+    <row r="19" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
       <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
@@ -11666,8 +11666,8 @@
         <v>1.7816473545345952E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
+    <row r="20" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
@@ -11736,8 +11736,8 @@
         <v>9.4185790570313638E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
+    <row r="21" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
@@ -11806,8 +11806,8 @@
         <v>1.9706496055853336E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="55" t="s">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="25"/>
@@ -11828,8 +11828,8 @@
       <c r="R22" s="29"/>
       <c r="S22" s="34"/>
     </row>
-    <row r="23" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+    <row r="23" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -11900,8 +11900,8 @@
         <v>4.4643017846348901E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
+    <row r="24" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
@@ -11970,8 +11970,8 @@
         <v>3.997170768273773E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
+    <row r="25" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48"/>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
@@ -12040,8 +12040,8 @@
         <v>4.987208440938274E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
+    <row r="26" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="48"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -12110,8 +12110,8 @@
         <v>3.8326001109827292E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
+    <row r="27" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
       <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
@@ -12180,8 +12180,8 @@
         <v>3.6077666375167086E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
+    <row r="28" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48"/>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
@@ -12250,8 +12250,8 @@
         <v>3.9652799941969304E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
+    <row r="29" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="48"/>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
@@ -12320,8 +12320,8 @@
         <v>4.4563019353375137E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="48"/>
+    <row r="30" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
       <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
@@ -12390,8 +12390,8 @@
         <v>4.853500899210151E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="55" t="s">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="25"/>
@@ -12412,8 +12412,8 @@
       <c r="R31" s="29"/>
       <c r="S31" s="34"/>
     </row>
-    <row r="32" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -12484,8 +12484,8 @@
         <v>4.0284146068368658E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
+    <row r="33" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48"/>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
@@ -12554,8 +12554,8 @@
         <v>3.621632839362391E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
+    <row r="34" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="48"/>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
@@ -12624,8 +12624,8 @@
         <v>5.0893245309722293E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
+    <row r="35" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="48"/>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
@@ -12694,8 +12694,8 @@
         <v>1.3929774849661306E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
+    <row r="36" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="48"/>
       <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
@@ -12764,8 +12764,8 @@
         <v>1.9587671820538728E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
+    <row r="37" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="48"/>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
@@ -12834,8 +12834,8 @@
         <v>2.7874808831604404E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
+    <row r="38" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48"/>
       <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
@@ -12904,8 +12904,8 @@
         <v>2.6347147377501812E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="48"/>
+    <row r="39" spans="2:19" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="49"/>
       <c r="C39" s="6" t="s">
         <v>20</v>
       </c>
@@ -12983,8 +12983,8 @@
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B23:B30"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5 F5 H5 J5 L5 N5 P5 R5">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="D6 F6 H6 J6 L6 N6 P6 R6">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12995,8 +12995,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7 F7 H7 J7 L7 N7 P7 R7">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="D11 F11 H11 J11 L11 N11 P11 R11">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13007,8 +13007,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8 F8 H8 J8 L8 N8 P8 R8">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="D21 F21 H21 J21 L21 N21 P21 R21">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13019,8 +13019,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9 F9 H9 J9 L9 N9 P9 R9">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="D25 F25 H25 J25 L25 N25 P25 R25">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13031,8 +13031,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10 F10 H10 J10 L10 N10 P10 R10">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="D26 F26 H26 J26 L26 N26 P26 R26">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13043,128 +13043,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12 P12 R12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14 F14 H14 J14 L14 N14 P14 R14">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 F15 H15 J15 L15 N15 P15 R15">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16 F16 H16 J16 L16 N16 P16 R16">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17 F17 H17 J17 L17 N17 P17 R17">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18 F18 H18 J18 L18 N18 P18 R18">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19 F19 H19 J19 L19 N19 P19 R19">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20 F20 H20 J20 L20 N20 P20 R20">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23 F23 H23 J23 L23 N23 P23 R23">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 P24 R24">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28 F28 H28 J28 L28 N28 P28 R28">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="D27 F27 H27 J27 L27 N27 P27 R27">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13187,7 +13067,259 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33 F33 H33 J33 L33 N33 P33 R33">
+  <conditionalFormatting sqref="D32 F32 H32 J32 L32 N32 P32 R32">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 F35 H35 J35 L35 N35 P35 R35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 F36 H36 J36 L36 N36 P36 R36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38 F38 H38 J38 L38 N38 P38 R38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39 F39 H39 J39 L39 N39 P39 R39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5 D5 H5 J5 L5 N5 P5 R5">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7 D7 H7 J7 L7 N7 P7 R7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 D8 H8 J8 L8 N8 P8 R8">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 D9 H9 J9 L9 N9 P9 R9">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10 D10 H10 J10 L10 N10 P10 R10">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12 P12 R12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 D14 H14 J14 L14 N14 P14 R14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15 D15 H15 J15 L15 N15 P15 R15">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16 D16 H16 J16 L16 N16 P16 R16">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17 D17 H17 J17 L17 N17 P17 R17">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18 D18 H18 J18 L18 N18 P18 R18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19 D19 H19 J19 L19 N19 P19 R19">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 D20 H20 J20 L20 N20 P20 R20">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23 D23 H23 J23 L23 N23 P23 R23">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 P24 R24">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28 D28 H28 J28 L28 N28 P28 R28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33 D33 H33 J33 L33 N33 P33 R33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13199,7 +13331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34 F34 H34 J34 L34 N34 P34 R34">
+  <conditionalFormatting sqref="F34 D34 H34 J34 L34 N34 P34 R34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13211,140 +13343,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37 F37 H37 J37 L37 N37 P37 R37">
+  <conditionalFormatting sqref="F37 D37 H37 J37 L37 N37 P37 R37">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6 D6 H6 J6 L6 N6 P6 R6">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 D11 H11 J11 L11 N11 P11 R11">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21 D21 H21 J21 L21 N21 P21 R21">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25 D25 H25 J25 L25 N25 P25 R25">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26 D26 H26 J26 L26 N26 P26 R26">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27 D27 H27 J27 L27 N27 P27 R27">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32 D32 H32 J32 L32 N32 P32 R32">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35 D35 H35 J35 L35 N35 P35 R35">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36 D36 H36 J36 L36 N36 P36 R36">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 D38 H38 J38 L38 N38 P38 R38">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39 D39 H39 J39 L39 N39 P39 R39">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13365,22 +13365,22 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="16" customWidth="1"/>
-    <col min="20" max="20" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="16" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="16" customWidth="1"/>
+    <col min="20" max="20" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="str">
         <f>IF(Wind_overview_classifier!B2=0,"",Wind_overview_classifier!B2)</f>
         <v/>
@@ -13389,80 +13389,80 @@
         <f>IF(Wind_overview_classifier!C2=0,"",Wind_overview_classifier!C2)</f>
         <v>Classifiers</v>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="50" t="str">
         <f>IF(Wind_overview_classifier!D2=0,"",Wind_overview_classifier!D2)</f>
         <v>Augmented</v>
       </c>
-      <c r="E2" s="50" t="str">
+      <c r="E2" s="51" t="str">
         <f>IF(Aug_overview_classifier!E2=0,"",Aug_overview_classifier!E2)</f>
         <v/>
       </c>
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="51" t="str">
         <f>IF(Aug_overview_classifier!F2=0,"",Aug_overview_classifier!F2)</f>
         <v/>
       </c>
-      <c r="G2" s="50" t="str">
+      <c r="G2" s="51" t="str">
         <f>IF(Aug_overview_classifier!G2=0,"",Aug_overview_classifier!G2)</f>
         <v/>
       </c>
-      <c r="H2" s="50" t="str">
+      <c r="H2" s="51" t="str">
         <f>IF(Aug_overview_classifier!H2=0,"",Aug_overview_classifier!H2)</f>
         <v/>
       </c>
-      <c r="I2" s="50" t="str">
+      <c r="I2" s="51" t="str">
         <f>IF(Aug_overview_classifier!I2=0,"",Aug_overview_classifier!I2)</f>
         <v/>
       </c>
-      <c r="J2" s="50" t="str">
+      <c r="J2" s="51" t="str">
         <f>IF(Aug_overview_classifier!J2=0,"",Aug_overview_classifier!J2)</f>
         <v/>
       </c>
-      <c r="K2" s="51" t="str">
+      <c r="K2" s="52" t="str">
         <f>IF(Aug_overview_classifier!K2=0,"",Aug_overview_classifier!K2)</f>
         <v/>
       </c>
-      <c r="L2" s="45" t="str">
+      <c r="L2" s="46" t="str">
         <f>IF(Wind_overview_classifier!L2=0,"",Wind_overview_classifier!L2)</f>
         <v>Windowed</v>
       </c>
-      <c r="M2" s="46" t="str">
+      <c r="M2" s="47" t="str">
         <f>IF(Aug_overview_classifier!M2=0,"",Aug_overview_classifier!M2)</f>
         <v/>
       </c>
-      <c r="N2" s="46" t="str">
+      <c r="N2" s="47" t="str">
         <f>IF(Aug_overview_classifier!N2=0,"",Aug_overview_classifier!N2)</f>
         <v/>
       </c>
-      <c r="O2" s="46" t="str">
+      <c r="O2" s="47" t="str">
         <f>IF(Aug_overview_classifier!O2=0,"",Aug_overview_classifier!O2)</f>
         <v/>
       </c>
-      <c r="P2" s="46" t="str">
+      <c r="P2" s="47" t="str">
         <f>IF(Aug_overview_classifier!P2=0,"",Aug_overview_classifier!P2)</f>
         <v/>
       </c>
-      <c r="Q2" s="46" t="str">
+      <c r="Q2" s="47" t="str">
         <f>IF(Aug_overview_classifier!Q2=0,"",Aug_overview_classifier!Q2)</f>
         <v/>
       </c>
-      <c r="R2" s="46" t="str">
+      <c r="R2" s="47" t="str">
         <f>IF(Aug_overview_classifier!R2=0,"",Aug_overview_classifier!R2)</f>
         <v/>
       </c>
-      <c r="S2" s="46" t="str">
+      <c r="S2" s="47" t="str">
         <f>IF(Aug_overview_classifier!S2=0,"",Aug_overview_classifier!S2)</f>
         <v/>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="V2" s="55"/>
+      <c r="X2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="54"/>
+      <c r="Y2" s="55"/>
     </row>
-    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="str">
         <f>IF(Wind_overview_classifier!B3=0,"",Wind_overview_classifier!B3)</f>
         <v>Model</v>
@@ -13536,7 +13536,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="str">
         <f>IF(Wind_overview_classifier!B4=0,"",Wind_overview_classifier!B4)</f>
         <v>ESC10</v>
@@ -13610,8 +13610,8 @@
         <v>Std</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="str">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="str">
         <f>IF(Wind_overview_classifier!B5=0,"",Wind_overview_classifier!B5)</f>
         <v>ESC10</v>
       </c>
@@ -13700,8 +13700,8 @@
         <v>-2.9738562091503495E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="str">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="str">
         <f>IF(Aug_overview_classifier!B6=0,"",Aug_overview_classifier!B6)</f>
         <v/>
       </c>
@@ -13790,8 +13790,8 @@
         <v>-0.18308641975308693</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="str">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="str">
         <f>IF(Aug_overview_classifier!B7=0,"",Aug_overview_classifier!B7)</f>
         <v/>
       </c>
@@ -13880,8 +13880,8 @@
         <v>-6.6782810685250382E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="str">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="str">
         <f>IF(Aug_overview_classifier!B8=0,"",Aug_overview_classifier!B8)</f>
         <v/>
       </c>
@@ -13970,8 +13970,8 @@
         <v>-6.2133775566611704E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="str">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="str">
         <f>IF(Aug_overview_classifier!B9=0,"",Aug_overview_classifier!B9)</f>
         <v/>
       </c>
@@ -14060,8 +14060,8 @@
         <v>-8.1578663211316793E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="str">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="str">
         <f>IF(Aug_overview_classifier!B10=0,"",Aug_overview_classifier!B10)</f>
         <v/>
       </c>
@@ -14150,8 +14150,8 @@
         <v>-6.8330649490070283E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="str">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="str">
         <f>IF(Aug_overview_classifier!B11=0,"",Aug_overview_classifier!B11)</f>
         <v/>
       </c>
@@ -14240,8 +14240,8 @@
         <v>-2.599286033021031E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="str">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="str">
         <f>IF(Aug_overview_classifier!B12=0,"",Aug_overview_classifier!B12)</f>
         <v/>
       </c>
@@ -14330,7 +14330,7 @@
         <v>-1.3618233618233999E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="str">
         <f>IF(Wind_overview_classifier!B13=0,"",Wind_overview_classifier!B13)</f>
         <v>BDLib2</v>
@@ -14403,19 +14403,19 @@
         <f>IF(Wind_overview_classifier!S13=0,"",Wind_overview_classifier!S13)</f>
         <v/>
       </c>
-      <c r="U13" s="52">
+      <c r="U13" s="53">
         <f>AVERAGE(U5:V12)</f>
         <v>-7.9568010334686051E-2</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="X13" s="52">
+      <c r="V13" s="53"/>
+      <c r="X13" s="53">
         <f>AVERAGE(X5:Y12)</f>
         <v>-6.9913669799093039E-2</v>
       </c>
-      <c r="Y13" s="52"/>
+      <c r="Y13" s="53"/>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="53" t="str">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="str">
         <f>IF(Wind_overview_classifier!B14=0,"",Wind_overview_classifier!B14)</f>
         <v>BDLib2</v>
       </c>
@@ -14504,8 +14504,8 @@
         <v>-6.6764132553606692E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="47" t="str">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="str">
         <f>IF(Aug_overview_classifier!B15=0,"",Aug_overview_classifier!B15)</f>
         <v/>
       </c>
@@ -14594,8 +14594,8 @@
         <v>-0.19017543859649166</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="str">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="str">
         <f>IF(Aug_overview_classifier!B16=0,"",Aug_overview_classifier!B16)</f>
         <v/>
       </c>
@@ -14684,8 +14684,8 @@
         <v>2.0520050125313549E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="str">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="str">
         <f>IF(Aug_overview_classifier!B17=0,"",Aug_overview_classifier!B17)</f>
         <v/>
       </c>
@@ -14774,8 +14774,8 @@
         <v>-5.7268170426065579E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="str">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="str">
         <f>IF(Aug_overview_classifier!B18=0,"",Aug_overview_classifier!B18)</f>
         <v/>
       </c>
@@ -14864,8 +14864,8 @@
         <v>1.5587044534412842E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="str">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="str">
         <f>IF(Aug_overview_classifier!B19=0,"",Aug_overview_classifier!B19)</f>
         <v/>
       </c>
@@ -14954,8 +14954,8 @@
         <v>-2.1577666794723949E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="str">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="str">
         <f>IF(Aug_overview_classifier!B20=0,"",Aug_overview_classifier!B20)</f>
         <v/>
       </c>
@@ -15044,8 +15044,8 @@
         <v>0.11820534943917083</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="str">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="49" t="str">
         <f>IF(Aug_overview_classifier!B21=0,"",Aug_overview_classifier!B21)</f>
         <v/>
       </c>
@@ -15134,7 +15134,7 @@
         <v>0.19658521303258114</v>
       </c>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="30" t="str">
         <f>IF(Wind_overview_classifier!B22=0,"",Wind_overview_classifier!B22)</f>
         <v>US8K</v>
@@ -15207,19 +15207,19 @@
         <f>IF(Wind_overview_classifier!S22=0,"",Wind_overview_classifier!S22)</f>
         <v/>
       </c>
-      <c r="U22" s="52">
+      <c r="U22" s="53">
         <f>AVERAGE(U14:V21)</f>
         <v>-5.6429771014280435E-2</v>
       </c>
-      <c r="V22" s="52"/>
-      <c r="X22" s="52">
+      <c r="V22" s="53"/>
+      <c r="X22" s="53">
         <f>AVERAGE(X14:Y21)</f>
         <v>1.4009872496864445E-3</v>
       </c>
-      <c r="Y22" s="52"/>
+      <c r="Y22" s="53"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="str">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="str">
         <f>IF(Wind_overview_classifier!B23=0,"",Wind_overview_classifier!B23)</f>
         <v>US8K</v>
       </c>
@@ -15308,8 +15308,8 @@
         <v>-7.3305794695187276E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="47" t="str">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="str">
         <f>IF(Aug_overview_classifier!B24=0,"",Aug_overview_classifier!B24)</f>
         <v/>
       </c>
@@ -15398,8 +15398,8 @@
         <v>-0.19428799285871357</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="str">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="str">
         <f>IF(Aug_overview_classifier!B25=0,"",Aug_overview_classifier!B25)</f>
         <v/>
       </c>
@@ -15488,8 +15488,8 @@
         <v>-6.8259235188211864E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="str">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="str">
         <f>IF(Aug_overview_classifier!B26=0,"",Aug_overview_classifier!B26)</f>
         <v/>
       </c>
@@ -15578,8 +15578,8 @@
         <v>-5.7821717769824699E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="str">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="str">
         <f>IF(Aug_overview_classifier!B27=0,"",Aug_overview_classifier!B27)</f>
         <v/>
       </c>
@@ -15668,8 +15668,8 @@
         <v>-3.1772301279066273E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="str">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="str">
         <f>IF(Aug_overview_classifier!B28=0,"",Aug_overview_classifier!B28)</f>
         <v/>
       </c>
@@ -15758,8 +15758,8 @@
         <v>-3.9738486748595259E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="str">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="str">
         <f>IF(Aug_overview_classifier!B29=0,"",Aug_overview_classifier!B29)</f>
         <v/>
       </c>
@@ -15848,8 +15848,8 @@
         <v>-7.1847142469436576E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B30" s="48" t="str">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="str">
         <f>IF(Aug_overview_classifier!B30=0,"",Aug_overview_classifier!B30)</f>
         <v/>
       </c>
@@ -15938,7 +15938,7 @@
         <v>-0.11535844087849767</v>
       </c>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="str">
         <f>IF(Wind_overview_classifier!B31=0,"",Wind_overview_classifier!B31)</f>
         <v>US8K_AV</v>
@@ -16011,19 +16011,19 @@
         <f>IF(Wind_overview_classifier!S31=0,"",Wind_overview_classifier!S31)</f>
         <v/>
       </c>
-      <c r="U31" s="52">
+      <c r="U31" s="53">
         <f>AVERAGE(U23:V30)</f>
         <v>-5.8828208236583648E-2</v>
       </c>
-      <c r="V31" s="52"/>
-      <c r="X31" s="52">
+      <c r="V31" s="53"/>
+      <c r="X31" s="53">
         <f>AVERAGE(X23:Y30)</f>
         <v>-7.2315381830499625E-2</v>
       </c>
-      <c r="Y31" s="52"/>
+      <c r="Y31" s="53"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B32" s="53" t="str">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="54" t="str">
         <f>IF(Wind_overview_classifier!B32=0,"",Wind_overview_classifier!B32)</f>
         <v>US8K_AV</v>
       </c>
@@ -16112,8 +16112,8 @@
         <v>-5.2915939256235056E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="str">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="str">
         <f>IF(Aug_overview_classifier!B33=0,"",Aug_overview_classifier!B33)</f>
         <v/>
       </c>
@@ -16202,8 +16202,8 @@
         <v>-6.2138101270161172E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B34" s="47" t="str">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" s="48" t="str">
         <f>IF(Aug_overview_classifier!B34=0,"",Aug_overview_classifier!B34)</f>
         <v/>
       </c>
@@ -16292,8 +16292,8 @@
         <v>-4.9160061745109562E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B35" s="47" t="str">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="48" t="str">
         <f>IF(Aug_overview_classifier!B35=0,"",Aug_overview_classifier!B35)</f>
         <v/>
       </c>
@@ -16382,8 +16382,8 @@
         <v>-5.4365459411869876E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="str">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="str">
         <f>IF(Aug_overview_classifier!B36=0,"",Aug_overview_classifier!B36)</f>
         <v/>
       </c>
@@ -16472,8 +16472,8 @@
         <v>-3.9384666074033903E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B37" s="47" t="str">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="str">
         <f>IF(Aug_overview_classifier!B37=0,"",Aug_overview_classifier!B37)</f>
         <v/>
       </c>
@@ -16562,8 +16562,8 @@
         <v>-3.7631188310879193E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="47" t="str">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="str">
         <f>IF(Aug_overview_classifier!B38=0,"",Aug_overview_classifier!B38)</f>
         <v/>
       </c>
@@ -16652,8 +16652,8 @@
         <v>-7.3449125638510915E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B39" s="48" t="str">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="str">
         <f>IF(Aug_overview_classifier!B39=0,"",Aug_overview_classifier!B39)</f>
         <v/>
       </c>
@@ -16742,17 +16742,17 @@
         <v>-4.8129389550780499E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="U40" s="52">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U40" s="53">
         <f>AVERAGE(U32:V39)</f>
         <v>-4.4885044745957267E-2</v>
       </c>
-      <c r="V40" s="52"/>
-      <c r="X40" s="52">
+      <c r="V40" s="53"/>
+      <c r="X40" s="53">
         <f>AVERAGE(X32:Y39)</f>
         <v>-5.5470411486258274E-2</v>
       </c>
-      <c r="Y40" s="52"/>
+      <c r="Y40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="16">
